--- a/outdata/io_coef2014.xlsx
+++ b/outdata/io_coef2014.xlsx
@@ -76661,4 +76661,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{169CA50C-8973-4B35-BA3C-CE362ED882CE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86368A28-B23E-45D2-BA98-3A5345ABE53E}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E4BBA7-449E-4241-972C-9118AE02D237}"/>
 </file>
--- a/outdata/io_coef2014.xlsx
+++ b/outdata/io_coef2014.xlsx
@@ -76844,13 +76844,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{169CA50C-8973-4B35-BA3C-CE362ED882CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CFD33FE-1FB5-4A83-AE1E-B4D5374CC001}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86368A28-B23E-45D2-BA98-3A5345ABE53E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{337BE01E-FE0B-464A-AEC6-D7055AFA69B7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E4BBA7-449E-4241-972C-9118AE02D237}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA17F44-6B05-4022-B6F5-2BE52A52201F}"/>
 </file>
--- a/outdata/io_coef2014.xlsx
+++ b/outdata/io_coef2014.xlsx
@@ -32,219 +32,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="41">
   <si>
-    <t>I_01</t>
+    <t>01 Maatalous ja metsästys</t>
   </si>
   <si>
-    <t>I_02_03</t>
+    <t>02_03 Metsätalous ja kalatalous</t>
   </si>
   <si>
-    <t>I_05_09</t>
+    <t>05_09 Kaivostoiminta ja louhinta</t>
   </si>
   <si>
-    <t>I_10_12</t>
+    <t>10_12 Elintarviketeollisuus ym.</t>
   </si>
   <si>
-    <t>I_13_15</t>
+    <t>13_15 Tekstiili-, vaatetus- ja nahkateollisuus</t>
   </si>
   <si>
-    <t>I_16</t>
+    <t>16 Puuteollisuus</t>
   </si>
   <si>
-    <t>I_17_18</t>
+    <t>17_18 Paperiteollisuus ja painaminen</t>
   </si>
   <si>
-    <t>I_19_22</t>
+    <t>19_22 Kemianteollisuus</t>
   </si>
   <si>
-    <t>I_23</t>
+    <t>23 Rakennusaineteollisuus</t>
   </si>
   <si>
-    <t>I_24_25</t>
+    <t>24_25 Metallien jalostus ja metallituotteiden valmistus (pl. koneet ja laitteet)</t>
   </si>
   <si>
-    <t>I_26_27</t>
+    <t>26_27 Sähkö- ja elektroniikkateollisuus</t>
   </si>
   <si>
-    <t>I_28</t>
+    <t>28 Muiden koneiden ja laitteiden valmistus</t>
   </si>
   <si>
-    <t>I_29_30</t>
+    <t>29_30 Kulkuneuvojen valmistus</t>
   </si>
   <si>
-    <t>I_31_33</t>
+    <t>31_33 Huonekalujen valmistus: Muu teollinen valmistus: Koneiden ja laitteiden korjaus, huolto ja ase</t>
   </si>
   <si>
-    <t>I_35_39</t>
+    <t>35_39 Energiahuolto: Vesi- ja jätehuolto</t>
   </si>
   <si>
-    <t>I_41_43</t>
+    <t>41_43 Rakentaminen</t>
   </si>
   <si>
-    <t>I_45_47</t>
+    <t>45_47 Tukku- ja vähittäiskauppa, moottoriajoneuvojen ja moottoripyörien korjaus</t>
   </si>
   <si>
-    <t>I_49_53</t>
+    <t>49_53 Kuljetus ja varastointi</t>
   </si>
   <si>
-    <t>I_55_56</t>
+    <t>55_56 Majoitus- ja ravitsemistoiminta</t>
   </si>
   <si>
-    <t>I_58_63</t>
+    <t>58_63 Kustannustoiminta: Audiovisuaalinen toiminta: Televiestintä: Tietojenkäsittelypalvelu</t>
   </si>
   <si>
-    <t>I_64_66</t>
+    <t>64_66 Rahoitus- ja vakuutustoiminta</t>
   </si>
   <si>
-    <t>I_68</t>
+    <t>681+68209+683 Muu kiinteistötoiminta</t>
   </si>
   <si>
-    <t>I_68A</t>
+    <t>68201_68202 Asuntojen vuokraus ja hallinta</t>
   </si>
   <si>
-    <t>I_69_75</t>
+    <t>69_75 Ammatillinen, tieteellinen ja tekninen toiminta</t>
   </si>
   <si>
-    <t>I_77_82</t>
+    <t>77_82 Hallinto- ja tukipalvelutoiminta</t>
   </si>
   <si>
-    <t>I_84</t>
+    <t>84 Julkinen hallinto ja sosiaalivakuutus</t>
   </si>
   <si>
-    <t>I_85</t>
+    <t>85 Koulutus</t>
   </si>
   <si>
-    <t>I_86_88</t>
+    <t>86_88 Terveys- ja sosiaalipalvelut</t>
   </si>
   <si>
-    <t>I_90_96</t>
+    <t>90_96 Taiteet, viihde ja virkistys: Muu palvelutoiminta</t>
   </si>
   <si>
-    <t>I_97_98</t>
-  </si>
-  <si>
-    <t>C_01</t>
-  </si>
-  <si>
-    <t>C_02_03</t>
-  </si>
-  <si>
-    <t>C_05_09</t>
-  </si>
-  <si>
-    <t>C_10_12</t>
-  </si>
-  <si>
-    <t>C_13_15</t>
-  </si>
-  <si>
-    <t>C_16</t>
-  </si>
-  <si>
-    <t>C_17_18</t>
-  </si>
-  <si>
-    <t>C_19_22</t>
-  </si>
-  <si>
-    <t>C_23</t>
-  </si>
-  <si>
-    <t>C_24_25</t>
-  </si>
-  <si>
-    <t>C_26_27</t>
-  </si>
-  <si>
-    <t>C_28</t>
-  </si>
-  <si>
-    <t>C_29_30</t>
-  </si>
-  <si>
-    <t>C_31_33</t>
-  </si>
-  <si>
-    <t>C_35_39</t>
-  </si>
-  <si>
-    <t>C_41_43</t>
-  </si>
-  <si>
-    <t>C_45_47</t>
-  </si>
-  <si>
-    <t>C_49_53</t>
-  </si>
-  <si>
-    <t>C_55_56</t>
-  </si>
-  <si>
-    <t>C_58_63</t>
-  </si>
-  <si>
-    <t>C_64_66</t>
-  </si>
-  <si>
-    <t>C_68</t>
-  </si>
-  <si>
-    <t>C_68A</t>
-  </si>
-  <si>
-    <t>C_69_75</t>
-  </si>
-  <si>
-    <t>C_77_82</t>
-  </si>
-  <si>
-    <t>C_84</t>
-  </si>
-  <si>
-    <t>C_85</t>
-  </si>
-  <si>
-    <t>C_86_88</t>
-  </si>
-  <si>
-    <t>C_90_96</t>
-  </si>
-  <si>
-    <t>C_97_98</t>
+    <t>97_98 Kotitalouspalvelut</t>
   </si>
   <si>
     <t>IND_TOT</t>
   </si>
   <si>
-    <t>IMP_REG_USE</t>
+    <t>Kotimaisten tuontituotteiden käyttö yhteensä</t>
   </si>
   <si>
-    <t>IMP_FOR_USE</t>
+    <t>Ulkomaisten tuontituotteiden käyttö yhteensä</t>
   </si>
   <si>
-    <t>TAX_SUB</t>
+    <t>Tuoteverot miinus tuotetukipalkkio</t>
   </si>
   <si>
-    <t>TOT_INT</t>
+    <t>Välituotekäyttö/loppukäyttö yhteensä ostajanhintaan</t>
   </si>
   <si>
-    <t>V1LAB</t>
+    <t>Palkansaajakorvaukset</t>
   </si>
   <si>
-    <t>V1CAP</t>
+    <t>Pääomakorvaukset</t>
   </si>
   <si>
-    <t>V1LND</t>
+    <t>Maankäytön korvaukset</t>
   </si>
   <si>
-    <t>V1PTX</t>
+    <t>Muut tuotantoverot, netto</t>
   </si>
   <si>
-    <t>VA</t>
+    <t>Arvonlisäys, brutto perushintaan</t>
   </si>
   <si>
-    <t>P1R</t>
+    <t>Tuotos perushintaan</t>
   </si>
 </sst>
 </file>
@@ -711,7 +621,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.01245701499283314</v>
@@ -806,7 +716,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0004174794303253293</v>
@@ -901,7 +811,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2.681582918739878e-05</v>
@@ -996,7 +906,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.04579410329461098</v>
@@ -1091,7 +1001,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>5.221526225795969e-05</v>
@@ -1186,7 +1096,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5.567455809796229e-05</v>
@@ -1281,7 +1191,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.001494194730184972</v>
@@ -1376,7 +1286,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.06877132505178452</v>
@@ -1471,7 +1381,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0006240298389457166</v>
@@ -1566,7 +1476,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.001491044415161014</v>
@@ -1661,7 +1571,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.009389395825564861</v>
@@ -1756,7 +1666,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.00532569969072938</v>
@@ -1851,7 +1761,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>4.06270228268113e-05</v>
@@ -1946,7 +1856,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.004736586008220911</v>
@@ -2041,7 +1951,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.0183683205395937</v>
@@ -2136,7 +2046,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05186451599001884</v>
@@ -2231,7 +2141,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.09463029354810715</v>
@@ -2326,7 +2236,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.006907884497195482</v>
@@ -2421,7 +2331,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0007712506921961904</v>
@@ -2516,7 +2426,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.005906534846872091</v>
@@ -2611,7 +2521,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.01269359327852726</v>
@@ -2706,7 +2616,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.000346553249983117</v>
@@ -2801,7 +2711,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.033153123193188e-06</v>
@@ -2896,7 +2806,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.007339163683354855</v>
@@ -2991,7 +2901,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.0467865988612175</v>
@@ -3086,7 +2996,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002236541360616684</v>
@@ -3181,7 +3091,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0005111498758196831</v>
@@ -3276,7 +3186,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>1.402260932081845e-05</v>
@@ -3371,7 +3281,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001870366628281772</v>
@@ -3466,7 +3376,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -3561,7 +3471,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.4009249806404114</v>
@@ -3656,7 +3566,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.1040865704417229</v>
@@ -3751,7 +3661,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1147627308964729</v>
@@ -3846,7 +3756,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01590642519295216</v>
@@ -3941,7 +3851,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.6356807351112366</v>
@@ -4036,7 +3946,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1277190148830414</v>
@@ -4131,7 +4041,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4883204400539398</v>
@@ -4226,7 +4136,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07137636095285416</v>
@@ -4321,7 +4231,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3230958878993988</v>
@@ -4416,7 +4326,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3643199503421783</v>
@@ -4511,7 +4421,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -4714,7 +4624,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.07393093407154083</v>
@@ -4809,7 +4719,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001453753444366157</v>
@@ -4904,7 +4814,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.000143198951263912</v>
@@ -4999,7 +4909,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.05796932056546211</v>
@@ -5094,7 +5004,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0003461206797510386</v>
@@ -5189,7 +5099,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0009789526229724288</v>
@@ -5284,7 +5194,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.002840198576450348</v>
@@ -5379,7 +5289,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.03925514966249466</v>
@@ -5474,7 +5384,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0007441711495630443</v>
@@ -5569,7 +5479,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.003026166697964072</v>
@@ -5664,7 +5574,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.001327616511844099</v>
@@ -5759,7 +5669,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.00880787055939436</v>
@@ -5854,7 +5764,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0001117923457059078</v>
@@ -5949,7 +5859,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.00646221311762929</v>
@@ -6044,7 +5954,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01540981139987707</v>
@@ -6139,7 +6049,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05613062903285027</v>
@@ -6234,7 +6144,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.04983097687363625</v>
@@ -6329,7 +6239,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.004765339195728302</v>
@@ -6424,7 +6334,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0006129603134468198</v>
@@ -6519,7 +6429,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.001584723475389183</v>
@@ -6614,7 +6524,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.006326033733785152</v>
@@ -6709,7 +6619,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0003228528948966414</v>
@@ -6804,7 +6714,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3.488658876449335e-06</v>
@@ -6899,7 +6809,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.005159155931323767</v>
@@ -6994,7 +6904,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.03984794765710831</v>
@@ -7089,7 +6999,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001937140128575265</v>
@@ -7184,7 +7094,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0008598196436651051</v>
@@ -7279,7 +7189,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>3.414151433389634e-05</v>
@@ -7374,7 +7284,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001203430350869894</v>
@@ -7469,7 +7379,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -7564,7 +7474,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3814258873462677</v>
@@ -7659,7 +7569,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.1552169620990753</v>
@@ -7754,7 +7664,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1194980889558792</v>
@@ -7849,7 +7759,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01685693673789501</v>
@@ -7944,7 +7854,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.6729979515075684</v>
@@ -8039,7 +7949,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1730154305696487</v>
@@ -8134,7 +8044,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4207487404346466</v>
@@ -8229,7 +8139,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07564155757427216</v>
@@ -8324,7 +8234,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3424029350280762</v>
@@ -8419,7 +8329,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3270028233528137</v>
@@ -8514,7 +8424,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -8717,7 +8627,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.071339450776577</v>
@@ -8812,7 +8722,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001495882170274854</v>
@@ -8907,7 +8817,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0001858446339610964</v>
@@ -9002,7 +8912,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.06046406924724579</v>
@@ -9097,7 +9007,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0001839829637901857</v>
@@ -9192,7 +9102,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.001155977603048086</v>
@@ -9287,7 +9197,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.004880461376160383</v>
@@ -9382,7 +9292,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.02426253072917461</v>
@@ -9477,7 +9387,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.001072668354026973</v>
@@ -9572,7 +9482,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.00330788642168045</v>
@@ -9667,7 +9577,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.002044438384473324</v>
@@ -9762,7 +9672,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.009032043628394604</v>
@@ -9857,7 +9767,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>2.778819543891586e-05</v>
@@ -9952,7 +9862,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.005199898034334183</v>
@@ -10047,7 +9957,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.02097233757376671</v>
@@ -10142,7 +10052,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05219141766428947</v>
@@ -10237,7 +10147,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.03977765887975693</v>
@@ -10332,7 +10242,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.003579637734219432</v>
@@ -10427,7 +10337,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0005792556912638247</v>
@@ -10522,7 +10432,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.001733826473355293</v>
@@ -10617,7 +10527,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.003562222234904766</v>
@@ -10712,7 +10622,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0003115971339866519</v>
@@ -10807,7 +10717,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3.852563168038614e-06</v>
@@ -10902,7 +10812,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.00339732738211751</v>
@@ -10997,7 +10907,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.02539693005383015</v>
@@ -11092,7 +11002,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.00174629595130682</v>
@@ -11187,7 +11097,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0008859825320541859</v>
@@ -11282,7 +11192,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>3.0606835935032e-05</v>
@@ -11377,7 +11287,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001209865673445165</v>
@@ -11472,7 +11382,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -11567,7 +11477,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3400317430496216</v>
@@ -11662,7 +11572,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2110427469015121</v>
@@ -11757,7 +11667,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1229524835944176</v>
@@ -11852,7 +11762,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01731589622795582</v>
@@ -11947,7 +11857,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.691342830657959</v>
@@ -12042,7 +11952,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1832748800516129</v>
@@ -12137,7 +12047,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.3994076251983643</v>
@@ -12232,7 +12142,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07770103961229324</v>
@@ -12327,7 +12237,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3517255187034607</v>
@@ -12422,7 +12332,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3086580038070679</v>
@@ -12517,7 +12427,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000834465027</v>
@@ -12720,7 +12630,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.06045903265476227</v>
@@ -12815,7 +12725,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001407092087902129</v>
@@ -12910,7 +12820,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0001009537518257275</v>
@@ -13005,7 +12915,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.03263916447758675</v>
@@ -13100,7 +13010,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>5.310196138452739e-05</v>
@@ -13195,7 +13105,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0008753227302804589</v>
@@ -13290,7 +13200,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.007170848548412323</v>
@@ -13385,7 +13295,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.02034680359065533</v>
@@ -13480,7 +13390,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0006210832507349551</v>
@@ -13575,7 +13485,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.002283027628436685</v>
@@ -13670,7 +13580,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.002778687980026007</v>
@@ -13765,7 +13675,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.01221960876137018</v>
@@ -13860,7 +13770,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0002663807536009699</v>
@@ -13955,7 +13865,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.006076350342482328</v>
@@ -14050,7 +13960,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.02049719169735909</v>
@@ -14145,7 +14055,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05553866922855377</v>
@@ -14240,7 +14150,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.048114113509655</v>
@@ -14335,7 +14245,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.003609207924455404</v>
@@ -14430,7 +14340,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0006490939413197339</v>
@@ -14525,7 +14435,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.002852172590792179</v>
@@ -14620,7 +14530,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.003345436882227659</v>
@@ -14715,7 +14625,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0001860311604104936</v>
@@ -14810,7 +14720,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3.419872427912196e-06</v>
@@ -14905,7 +14815,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.004969446454197168</v>
@@ -15000,7 +14910,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.03571890667080879</v>
@@ -15095,7 +15005,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001838085474446416</v>
@@ -15190,7 +15100,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0008875217754393816</v>
@@ -15285,7 +15195,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.673960807442199e-05</v>
@@ -15380,7 +15290,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.00122533249668777</v>
@@ -15475,7 +15385,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -15570,7 +15480,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3267588317394257</v>
@@ -15665,7 +15575,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2018917202949524</v>
@@ -15760,7 +15670,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1185434460639954</v>
@@ -15855,7 +15765,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01661108620464802</v>
@@ -15950,7 +15860,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.6638051271438599</v>
@@ -16045,7 +15955,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1608790755271912</v>
@@ -16140,7 +16050,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4381875991821289</v>
@@ -16235,7 +16145,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07453837990760803</v>
@@ -16330,7 +16240,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3374092280864716</v>
@@ -16425,7 +16335,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3361958563327789</v>
@@ -16520,7 +16430,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000953674316</v>
@@ -16723,7 +16633,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.08821332454681396</v>
@@ -16818,7 +16728,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001502896076999605</v>
@@ -16913,7 +16823,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0001320108422078192</v>
@@ -17008,7 +16918,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.08044616878032684</v>
@@ -17103,7 +17013,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0003105455834884197</v>
@@ -17198,7 +17108,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0007975019980221987</v>
@@ -17293,7 +17203,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.0002455546346027404</v>
@@ -17388,7 +17298,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.006942769978195429</v>
@@ -17483,7 +17393,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0005205999477766454</v>
@@ -17578,7 +17488,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.005619001109153032</v>
@@ -17673,7 +17583,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.0009933237452059984</v>
@@ -17768,7 +17678,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.006861560512334108</v>
@@ -17863,7 +17773,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0004085272666998208</v>
@@ -17958,7 +17868,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.008148659951984882</v>
@@ -18053,7 +17963,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01543902698904276</v>
@@ -18148,7 +18058,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05468105152249336</v>
@@ -18243,7 +18153,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.05324197560548782</v>
@@ -18338,7 +18248,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.00616289209574461</v>
@@ -18433,7 +18343,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0004772317770402879</v>
@@ -18528,7 +18438,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.0008638356230221689</v>
@@ -18623,7 +18533,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.004776887595653534</v>
@@ -18718,7 +18628,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.00039289565756917</v>
@@ -18813,7 +18723,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3.484279659460299e-06</v>
@@ -18908,7 +18818,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.003158079227432609</v>
@@ -19003,7 +18913,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.02429455518722534</v>
@@ -19098,7 +19008,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001675883773714304</v>
@@ -19193,7 +19103,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0007185854483395815</v>
@@ -19288,7 +19198,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>3.119058237643912e-05</v>
@@ -19383,7 +19293,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001180357532575727</v>
@@ -19478,7 +19388,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -19573,7 +19483,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3682403862476349</v>
@@ -19668,7 +19578,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2313564717769623</v>
@@ -19763,7 +19673,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1334335207939148</v>
@@ -19858,7 +19768,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01883047074079514</v>
@@ -19953,7 +19863,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.7518607378005981</v>
@@ -20048,7 +19958,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1084751784801483</v>
@@ -20143,7 +20053,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4376574456691742</v>
@@ -20238,7 +20148,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.08449734747409821</v>
@@ -20333,7 +20243,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3824900090694427</v>
@@ -20428,7 +20338,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.2481399476528168</v>
@@ -20523,7 +20433,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -20726,7 +20636,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.08773212134838104</v>
@@ -20821,7 +20731,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.00103891862090677</v>
@@ -20916,7 +20826,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2.297455648658797e-05</v>
@@ -21011,7 +20921,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.06323197484016418</v>
@@ -21106,7 +21016,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.872312512015924e-05</v>
@@ -21201,7 +21111,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0002432567998766899</v>
@@ -21296,7 +21206,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.004403731320053339</v>
@@ -21391,7 +21301,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.0206517931073904</v>
@@ -21486,7 +21396,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.001275692833587527</v>
@@ -21581,7 +21491,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.002443183911964297</v>
@@ -21676,7 +21586,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.01303069945424795</v>
@@ -21771,7 +21681,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.01929844170808792</v>
@@ -21866,7 +21776,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0003212869341950864</v>
@@ -21961,7 +21871,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.005966544151306152</v>
@@ -22056,7 +21966,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.02384300529956818</v>
@@ -22151,7 +22061,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0583382211625576</v>
@@ -22246,7 +22156,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.02885719574987888</v>
@@ -22341,7 +22251,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.003760596038773656</v>
@@ -22436,7 +22346,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0005462398985400796</v>
@@ -22531,7 +22441,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.001650104415602982</v>
@@ -22626,7 +22536,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.005256963428109884</v>
@@ -22721,7 +22631,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.000294153083814308</v>
@@ -22816,7 +22726,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>4.088769401278114e-06</v>
@@ -22911,7 +22821,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.002774698426946998</v>
@@ -23006,7 +22916,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.03040750324726105</v>
@@ -23101,7 +23011,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001429729745723307</v>
@@ -23196,7 +23106,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0005523920408450067</v>
@@ -23291,7 +23201,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.006856811931357e-05</v>
@@ -23386,7 +23296,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.0010423818603158</v>
@@ -23481,7 +23391,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -23576,7 +23486,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3785366714000702</v>
@@ -23671,7 +23581,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2106158584356308</v>
@@ -23766,7 +23676,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1356133222579956</v>
@@ -23861,7 +23771,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01861326396465302</v>
@@ -23956,7 +23866,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.7433789968490601</v>
@@ -24051,7 +23961,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.08832548558712006</v>
@@ -24146,7 +24056,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4628515243530273</v>
@@ -24241,7 +24151,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.08352267742156982</v>
@@ -24336,7 +24246,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3780780136585236</v>
@@ -24431,7 +24341,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.2566216886043549</v>
@@ -24526,7 +24436,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -24729,7 +24639,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.08993358910083771</v>
@@ -24824,7 +24734,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001525833387859166</v>
@@ -24919,7 +24829,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2.678447708603926e-05</v>
@@ -25014,7 +24924,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.05294575914740562</v>
@@ -25109,7 +25019,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0002175442496081814</v>
@@ -25204,7 +25114,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0005611691158264875</v>
@@ -25299,7 +25209,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.0002308197144884616</v>
@@ -25394,7 +25304,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.04397910088300705</v>
@@ -25489,7 +25399,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0006765959551557899</v>
@@ -25584,7 +25494,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.007973430678248405</v>
@@ -25679,7 +25589,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>4.249016637913883e-05</v>
@@ -25774,7 +25684,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.001335398759692907</v>
@@ -25869,7 +25779,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0001904233504319564</v>
@@ -25964,7 +25874,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.008259917609393597</v>
@@ -26059,7 +25969,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01147517841309309</v>
@@ -26154,7 +26064,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05828281864523888</v>
@@ -26249,7 +26159,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.03125327080488205</v>
@@ -26344,7 +26254,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.007595996372401714</v>
@@ -26439,7 +26349,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0004143957339692861</v>
@@ -26534,7 +26444,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.00137911201454699</v>
@@ -26629,7 +26539,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.004004118498414755</v>
@@ -26724,7 +26634,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0003617261827457696</v>
@@ -26819,7 +26729,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3.105869609498768e-06</v>
@@ -26914,7 +26824,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.002619629027321935</v>
@@ -27009,7 +26919,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.02127007395029068</v>
@@ -27104,7 +27014,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001793962088413537</v>
@@ -27199,7 +27109,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0006586008821614087</v>
@@ -27294,7 +27204,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.326525827811565e-05</v>
@@ -27389,7 +27299,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001081802765838802</v>
@@ -27484,7 +27394,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -27579,7 +27489,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3501158654689789</v>
@@ -27674,7 +27584,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2717183828353882</v>
@@ -27769,7 +27679,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1445964723825455</v>
@@ -27864,7 +27774,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01967733539640903</v>
@@ -27959,7 +27869,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.7861080169677734</v>
@@ -28054,7 +27964,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1338024884462357</v>
@@ -28149,7 +28059,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.3914844393730164</v>
@@ -28244,7 +28154,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.08829744160175323</v>
@@ -28339,7 +28249,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3996917009353638</v>
@@ -28434,7 +28344,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.2138926386833191</v>
@@ -28529,7 +28439,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -28732,7 +28642,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.08239436894655228</v>
@@ -28827,7 +28737,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001379257068037987</v>
@@ -28922,7 +28832,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0001960809750016779</v>
@@ -29017,7 +28927,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.0543505847454071</v>
@@ -29112,7 +29022,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0002067532623186707</v>
@@ -29207,7 +29117,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0009616537718102336</v>
@@ -29302,7 +29212,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.003582962090149522</v>
@@ -29397,7 +29307,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.02198071777820587</v>
@@ -29492,7 +29402,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0008365139947272837</v>
@@ -29587,7 +29497,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.00573498522862792</v>
@@ -29682,7 +29592,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.02526883222162724</v>
@@ -29777,7 +29687,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.001342358184047043</v>
@@ -29872,7 +29782,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>8.032890764297917e-05</v>
@@ -29967,7 +29877,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.007495063822716475</v>
@@ -30062,7 +29972,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.0213591530919075</v>
@@ -30157,7 +30067,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05671831592917442</v>
@@ -30252,7 +30162,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.06427885591983795</v>
@@ -30347,7 +30257,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.00618878984823823</v>
@@ -30442,7 +30352,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0006935032433830202</v>
@@ -30537,7 +30447,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.002362411236390471</v>
@@ -30632,7 +30542,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.006916914600878954</v>
@@ -30727,7 +30637,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0003048790094908327</v>
@@ -30822,7 +30732,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>4.206273388263071e-06</v>
@@ -30917,7 +30827,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.005770190618932247</v>
@@ -31012,7 +30922,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.03640827164053917</v>
@@ -31107,7 +31017,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001815088326111436</v>
@@ -31202,7 +31112,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0007142251706682146</v>
@@ -31297,7 +31207,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.429859341646079e-05</v>
@@ -31392,7 +31302,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001344960881397128</v>
@@ -31487,7 +31397,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -31582,7 +31492,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.4107144773006439</v>
@@ -31677,7 +31587,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.1497522592544556</v>
@@ -31772,7 +31682,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1241837367415428</v>
@@ -31867,7 +31777,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01756802573800087</v>
@@ -31962,7 +31872,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.7022184133529663</v>
@@ -32057,7 +31967,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1480646431446075</v>
@@ -32152,7 +32062,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.427731990814209</v>
@@ -32247,7 +32157,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07883242517709732</v>
@@ -32342,7 +32252,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3568469285964966</v>
@@ -32437,7 +32347,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.2977821230888367</v>
@@ -32532,7 +32442,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000476837158</v>
@@ -32735,7 +32645,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.07079761475324631</v>
@@ -32830,7 +32740,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001525562023743987</v>
@@ -32925,7 +32835,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.000362931692507118</v>
@@ -33020,7 +32930,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.006618291139602661</v>
@@ -33115,7 +33025,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>5.053912900621071e-06</v>
@@ -33210,7 +33120,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.000531742291059345</v>
@@ -33305,7 +33215,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.0001934434112627059</v>
@@ -33400,7 +33310,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.000376237032469362</v>
@@ -33495,7 +33405,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0005912523483857512</v>
@@ -33590,7 +33500,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.0007821409380994737</v>
@@ -33685,7 +33595,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.006595593877136707</v>
@@ -33780,7 +33690,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.0006126462831161916</v>
@@ -33875,7 +33785,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.000514027604367584</v>
@@ -33970,7 +33880,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.003340136492624879</v>
@@ -34065,7 +33975,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.0212106816470623</v>
@@ -34160,7 +34070,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.04658448323607445</v>
@@ -34255,7 +34165,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.04172838479280472</v>
@@ -34350,7 +34260,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.005171710159629583</v>
@@ -34445,7 +34355,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0005028149462305009</v>
@@ -34540,7 +34450,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.001002064673230052</v>
@@ -34635,7 +34545,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.00305048655718565</v>
@@ -34730,7 +34640,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0002254728606203571</v>
@@ -34825,7 +34735,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.367757360843825e-06</v>
@@ -34920,7 +34830,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.004008040297776461</v>
@@ -35015,7 +34925,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.0430573970079422</v>
@@ -35110,7 +35020,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002665306907147169</v>
@@ -35205,7 +35115,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0004969009314663708</v>
@@ -35300,7 +35210,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.783100535452832e-05</v>
@@ -35395,7 +35305,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001700537861324847</v>
@@ -35490,7 +35400,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -35585,7 +35495,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.2642811834812164</v>
@@ -35680,7 +35590,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2689123153686523</v>
@@ -35775,7 +35685,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1162184178829193</v>
@@ -35870,7 +35780,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01665758714079857</v>
@@ -35965,7 +35875,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.666069507598877</v>
@@ -36060,7 +35970,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1499617397785187</v>
@@ -36155,7 +36065,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4475762248039246</v>
@@ -36250,7 +36160,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07474703341722488</v>
@@ -36345,7 +36255,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3383537530899048</v>
@@ -36440,7 +36350,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3339312672615051</v>
@@ -36535,7 +36445,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -36738,7 +36648,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.05924537032842636</v>
@@ -36833,7 +36743,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001505119376815856</v>
@@ -36928,7 +36838,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0003481532621663064</v>
@@ -37023,7 +36933,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.0103231118991971</v>
@@ -37118,7 +37028,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>5.682122719008476e-05</v>
@@ -37213,7 +37123,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0002636597491800785</v>
@@ -37308,7 +37218,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.005605586338788271</v>
@@ -37403,7 +37313,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.002608119277283549</v>
@@ -37498,7 +37408,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0005303111975081265</v>
@@ -37593,7 +37503,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.00911381933838129</v>
@@ -37688,7 +37598,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>5.382710514822975e-05</v>
@@ -37783,7 +37693,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.0005332260625436902</v>
@@ -37878,7 +37788,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.00031477544689551</v>
@@ -37973,7 +37883,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.006272646132856607</v>
@@ -38068,7 +37978,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01811788603663445</v>
@@ -38163,7 +38073,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05295630916953087</v>
@@ -38258,7 +38168,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.03394072502851486</v>
@@ -38353,7 +38263,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.005372537299990654</v>
@@ -38448,7 +38358,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0009277096833102405</v>
@@ -38543,7 +38453,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.0007812331896275282</v>
@@ -38638,7 +38548,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.002690104534849524</v>
@@ -38733,7 +38643,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0002102440048474818</v>
@@ -38828,7 +38738,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.89399304165272e-06</v>
@@ -38923,7 +38833,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.003408021992072463</v>
@@ -39018,7 +38928,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.02814041264355183</v>
@@ -39113,7 +39023,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.00247004977427423</v>
@@ -39208,7 +39118,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0007015751907601953</v>
@@ -39303,7 +39213,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.452889930282254e-05</v>
@@ -39398,7 +39308,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001306348363868892</v>
@@ -39493,7 +39403,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -39588,7 +39498,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.2478251308202744</v>
@@ -39683,7 +39593,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.292100727558136</v>
@@ -39778,7 +39688,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1246104910969734</v>
@@ -39873,7 +39783,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01703163236379623</v>
@@ -39968,7 +39878,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.681567907333374</v>
@@ -40063,7 +39973,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.2306696474552155</v>
@@ -40158,7 +40068,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.3572889268398285</v>
@@ -40253,7 +40163,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.0764254629611969</v>
@@ -40348,7 +40258,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3459514081478119</v>
@@ -40443,7 +40353,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3184325993061066</v>
@@ -40538,7 +40448,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000476837158</v>
@@ -40741,7 +40651,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.06371215730905533</v>
@@ -40836,7 +40746,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001372180064208806</v>
@@ -40931,7 +40841,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2.032430347753689e-05</v>
@@ -41026,7 +40936,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.05953522771596909</v>
@@ -41121,7 +41031,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1.58770453708712e-05</v>
@@ -41216,7 +41126,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0002177267597289756</v>
@@ -41311,7 +41221,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.0001821210753405467</v>
@@ -41406,7 +41316,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.01554263196885586</v>
@@ -41501,7 +41411,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>6.429449422284961e-05</v>
@@ -41596,7 +41506,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.0006829292397014797</v>
@@ -41691,7 +41601,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.0005897227674722672</v>
@@ -41786,7 +41696,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.001932790386490524</v>
@@ -41881,7 +41791,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>2.651640215844964e-06</v>
@@ -41976,7 +41886,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.002461799653246999</v>
@@ -42071,7 +41981,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01566491462290287</v>
@@ -42166,7 +42076,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05879866704344749</v>
@@ -42261,7 +42171,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.05137012153863907</v>
@@ -42356,7 +42266,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.01343296375125647</v>
@@ -42451,7 +42361,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0007568757864646614</v>
@@ -42546,7 +42456,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.00302116060629487</v>
@@ -42641,7 +42551,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.01140948198735714</v>
@@ -42736,7 +42646,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0003692817990668118</v>
@@ -42831,7 +42741,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.637711986608338e-06</v>
@@ -42926,7 +42836,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.002763974945992231</v>
@@ -43021,7 +42931,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.01095965784043074</v>
@@ -43116,7 +43026,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002368093002587557</v>
@@ -43211,7 +43121,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0006891952943988144</v>
@@ -43306,7 +43216,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.636878889461514e-05</v>
@@ -43401,7 +43311,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.00162893661763519</v>
@@ -43496,7 +43406,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -43591,7 +43501,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3195948302745819</v>
@@ -43686,7 +43596,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2616089284420013</v>
@@ -43781,7 +43691,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1286732107400894</v>
@@ -43876,7 +43786,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01821697503328323</v>
@@ -43971,7 +43881,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.7280938625335693</v>
@@ -44066,7 +43976,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1354007869958878</v>
@@ -44161,7 +44071,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4247903525829315</v>
@@ -44256,7 +44166,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.08174443244934082</v>
@@ -44351,7 +44261,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3700285255908966</v>
@@ -44446,7 +44356,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.2719070613384247</v>
@@ -44541,7 +44451,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000953674316</v>
@@ -44744,7 +44654,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.08280139416456223</v>
@@ -44839,7 +44749,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001449943520128727</v>
@@ -44934,7 +44844,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>5.66926937608514e-05</v>
@@ -45029,7 +44939,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.05444632470607758</v>
@@ -45124,7 +45034,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>6.895249680383131e-05</v>
@@ -45219,7 +45129,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0002183478500228375</v>
@@ -45314,7 +45224,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.0006342241540551186</v>
@@ -45409,7 +45319,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.07810523360967636</v>
@@ -45504,7 +45414,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.001946229953318834</v>
@@ -45599,7 +45509,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.003079238347709179</v>
@@ -45694,7 +45604,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.006135963834822178</v>
@@ -45789,7 +45699,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.008981832303106785</v>
@@ -45884,7 +45794,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0007715398678556085</v>
@@ -45979,7 +45889,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.007381701841950417</v>
@@ -46074,7 +45984,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01530933380126953</v>
@@ -46169,7 +46079,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.06400260329246521</v>
@@ -46264,7 +46174,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.06946956366300583</v>
@@ -46359,7 +46269,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.006966021843254566</v>
@@ -46454,7 +46364,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0008396460907533765</v>
@@ -46549,7 +46459,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.002043017651885748</v>
@@ -46644,7 +46554,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.009700505062937737</v>
@@ -46739,7 +46649,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.000233194135944359</v>
@@ -46834,7 +46744,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3.170164973198553e-06</v>
@@ -46929,7 +46839,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.006223284173756838</v>
@@ -47024,7 +46934,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.04823342338204384</v>
@@ -47119,7 +47029,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.00188027077820152</v>
@@ -47214,7 +47124,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0007750627119094133</v>
@@ -47309,7 +47219,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.805582334985957e-05</v>
@@ -47404,7 +47314,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001407425850629807</v>
@@ -47499,7 +47409,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -47594,7 +47504,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.4731921553611755</v>
@@ -47689,7 +47599,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.1270835548639297</v>
@@ -47784,7 +47694,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1353885680437088</v>
@@ -47879,7 +47789,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01888386718928814</v>
@@ -47974,7 +47884,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.7545481324195862</v>
@@ -48069,7 +47979,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1002461761236191</v>
@@ -48164,7 +48074,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4440439939498901</v>
@@ -48259,7 +48169,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.08473694324493408</v>
@@ -48354,7 +48264,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3835746049880981</v>
@@ -48449,7 +48359,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.2454525232315063</v>
@@ -48544,7 +48454,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -48747,7 +48657,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.06811340898275375</v>
@@ -48842,7 +48752,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.000770114129409194</v>
@@ -48937,7 +48847,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>4.401547994348221e-05</v>
@@ -49032,7 +48942,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.06631385535001755</v>
@@ -49127,7 +49037,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0002097255201078951</v>
@@ -49222,7 +49132,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.000419998075813055</v>
@@ -49317,7 +49227,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.004878270905464888</v>
@@ -49412,7 +49322,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.03836121037602425</v>
@@ -49507,7 +49417,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.000613165320828557</v>
@@ -49602,7 +49512,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.006553634535521269</v>
@@ -49697,7 +49607,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.001188844675198197</v>
@@ -49792,7 +49702,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.01269553136080503</v>
@@ -49887,7 +49797,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0002110796049237251</v>
@@ -49982,7 +49892,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.007071502972394228</v>
@@ -50077,7 +49987,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.02436984702944756</v>
@@ -50172,7 +50082,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.06123875826597214</v>
@@ -50267,7 +50177,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.02957211434841156</v>
@@ -50362,7 +50272,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.004444073885679245</v>
@@ -50457,7 +50367,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0006022526067681611</v>
@@ -50552,7 +50462,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.0008498248062096536</v>
@@ -50647,7 +50557,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.003106455784291029</v>
@@ -50742,7 +50652,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0004196002555545419</v>
@@ -50837,7 +50747,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>1.915375833050348e-06</v>
@@ -50932,7 +50842,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.002586990129202604</v>
@@ -51027,7 +50937,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.02996839769184589</v>
@@ -51122,7 +51032,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002187697216868401</v>
@@ -51217,7 +51127,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0005478679086081684</v>
@@ -51312,7 +51222,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.271530320285819e-05</v>
@@ -51407,7 +51317,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001083343871869147</v>
@@ -51502,7 +51412,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -51597,7 +51507,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3684461712837219</v>
@@ -51692,7 +51602,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2407562285661697</v>
@@ -51787,7 +51697,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.140210434794426</v>
@@ -51882,7 +51792,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01925500296056271</v>
@@ -51977,7 +51887,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.7686678767204285</v>
@@ -52072,7 +51982,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1072060987353325</v>
@@ -52167,7 +52077,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4288375377655029</v>
@@ -52262,7 +52172,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.08640231937170029</v>
@@ -52357,7 +52267,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3911131322383881</v>
@@ -52452,7 +52362,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.2313328087329865</v>
@@ -52547,7 +52457,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -52750,7 +52660,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.03475549072027206</v>
@@ -52845,7 +52755,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.00116358429659158</v>
@@ -52940,7 +52850,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>3.66596104868222e-05</v>
@@ -53035,7 +52945,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.05908307060599327</v>
@@ -53130,7 +53040,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>7.221879059216008e-05</v>
@@ -53225,7 +53135,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0003723392728716135</v>
@@ -53320,7 +53230,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.001741937943734229</v>
@@ -53415,7 +53325,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.007369514554738998</v>
@@ -53510,7 +53420,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.001436313847079873</v>
@@ -53605,7 +53515,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.005171269178390503</v>
@@ -53700,7 +53610,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.001131600933149457</v>
@@ -53795,7 +53705,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.004099666140973568</v>
@@ -53890,7 +53800,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.000355276046320796</v>
@@ -53985,7 +53895,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.004522793460637331</v>
@@ -54080,7 +53990,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01465681567788124</v>
@@ -54175,7 +54085,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0509369969367981</v>
@@ -54270,7 +54180,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.04503482952713966</v>
@@ -54365,7 +54275,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.002857462270185351</v>
@@ -54460,7 +54370,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0005146265029907227</v>
@@ -54555,7 +54465,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.001109690638259053</v>
@@ -54650,7 +54560,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.003773374482989311</v>
@@ -54745,7 +54655,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0002383200917392969</v>
@@ -54840,7 +54750,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.211890432590735e-06</v>
@@ -54935,7 +54845,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.003816041862592101</v>
@@ -55030,7 +54940,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.02355254627764225</v>
@@ -55125,7 +55035,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002031001495197415</v>
@@ -55220,7 +55130,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0005170183139853179</v>
@@ -55315,7 +55225,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.10888174478896e-05</v>
@@ -55410,7 +55320,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.00107470212969929</v>
@@ -55505,7 +55415,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -55600,7 +55510,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.2714484333992004</v>
@@ -55695,7 +55605,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2278871983289719</v>
@@ -55790,7 +55700,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1126303970813751</v>
@@ -55885,7 +55795,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01572193577885628</v>
@@ -55980,7 +55890,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.6276879906654358</v>
@@ -56075,7 +55985,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.08728201687335968</v>
@@ -56170,7 +56080,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.5338308215141296</v>
@@ -56265,7 +56175,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07054851204156876</v>
@@ -56360,7 +56270,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3193484842777252</v>
@@ -56455,7 +56365,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3723128736019135</v>
@@ -56550,7 +56460,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000834465027</v>
@@ -56753,7 +56663,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.04881365224719048</v>
@@ -56848,7 +56758,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0009533747797831893</v>
@@ -56943,7 +56853,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>3.349371763761155e-05</v>
@@ -57038,7 +56948,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.03184689581394196</v>
@@ -57133,7 +57043,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0003755361831281334</v>
@@ -57228,7 +57138,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0003326515143271536</v>
@@ -57323,7 +57233,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.005735126789659262</v>
@@ -57418,7 +57328,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.04748155176639557</v>
@@ -57513,7 +57423,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0008873137994669378</v>
@@ -57608,7 +57518,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.002528412500396371</v>
@@ -57703,7 +57613,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.007069782353937626</v>
@@ -57798,7 +57708,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.01068538893014193</v>
@@ -57893,7 +57803,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0002478004025761038</v>
@@ -57988,7 +57898,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.006957199424505234</v>
@@ -58083,7 +57993,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01786983944475651</v>
@@ -58178,7 +58088,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05256381630897522</v>
@@ -58273,7 +58183,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.0545448325574398</v>
@@ -58368,7 +58278,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.004316110163927078</v>
@@ -58463,7 +58373,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0007070897263474762</v>
@@ -58558,7 +58468,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.003192983800545335</v>
@@ -58653,7 +58563,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.005315555259585381</v>
@@ -58748,7 +58658,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0003266421554144472</v>
@@ -58843,7 +58753,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.924721911767847e-06</v>
@@ -58938,7 +58848,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.004838972352445126</v>
@@ -59033,7 +58943,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.0378655232489109</v>
@@ -59128,7 +59038,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001417103107087314</v>
@@ -59223,7 +59133,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0006706584244966507</v>
@@ -59318,7 +59228,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.250930629088543e-05</v>
@@ -59413,7 +59323,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001222904771566391</v>
@@ -59508,7 +59418,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -59603,7 +59513,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3488256633281708</v>
@@ -59698,7 +59608,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.1534868329763412</v>
@@ -59793,7 +59703,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1131617501378059</v>
@@ -59888,7 +59798,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01579893752932549</v>
@@ -59983,7 +59893,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.6312731504440308</v>
@@ -60078,7 +59988,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1231300458312035</v>
@@ -60173,7 +60083,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4956160485744476</v>
@@ -60268,7 +60178,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.0708940252661705</v>
@@ -60363,7 +60273,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3209125399589539</v>
@@ -60458,7 +60368,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3687275648117065</v>
@@ -60553,7 +60463,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -60756,7 +60666,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.04054343700408936</v>
@@ -60851,7 +60761,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0006492324755527079</v>
@@ -60946,7 +60856,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>6.166299954202259e-06</v>
@@ -61041,7 +60951,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.05274634063243866</v>
@@ -61136,7 +61046,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0003659626236185431</v>
@@ -61231,7 +61141,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.001109378761611879</v>
@@ -61326,7 +61236,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.00202711159363389</v>
@@ -61421,7 +61331,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.02115746028721333</v>
@@ -61516,7 +61426,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0008135304669849575</v>
@@ -61611,7 +61521,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.002764262491837144</v>
@@ -61706,7 +61616,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.002567433984950185</v>
@@ -61801,7 +61711,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.007781974505633116</v>
@@ -61896,7 +61806,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0001273806265089661</v>
@@ -61991,7 +61901,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.007412133738398552</v>
@@ -62086,7 +61996,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01942167058587074</v>
@@ -62181,7 +62091,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.04870862513780594</v>
@@ -62276,7 +62186,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.05177455395460129</v>
@@ -62371,7 +62281,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.003838809439912438</v>
@@ -62466,7 +62376,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.000592256837990135</v>
@@ -62561,7 +62471,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.001513355528004467</v>
@@ -62656,7 +62566,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.003426142502576113</v>
@@ -62751,7 +62661,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0002551487123128027</v>
@@ -62846,7 +62756,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.660111931618303e-06</v>
@@ -62941,7 +62851,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.002728154882788658</v>
@@ -63036,7 +62946,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.03799751028418541</v>
@@ -63131,7 +63041,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001162238768301904</v>
@@ -63226,7 +63136,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0005446354625746608</v>
@@ -63321,7 +63231,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.129144559148699e-05</v>
@@ -63416,7 +63326,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001043569296598434</v>
@@ -63511,7 +63421,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -63606,7 +63516,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3131023943424225</v>
@@ -63701,7 +63611,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.1621051877737045</v>
@@ -63796,7 +63706,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.107091911137104</v>
@@ -63891,7 +63801,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01495357789099216</v>
@@ -63986,7 +63896,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.5972530841827393</v>
@@ -64081,7 +63991,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1245739758014679</v>
@@ -64176,7 +64086,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.5148144960403442</v>
@@ -64271,7 +64181,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.06710069626569748</v>
@@ -64366,7 +64276,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.303741455078125</v>
@@ -64461,7 +64371,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.4027476906776428</v>
@@ -64556,7 +64466,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -64759,7 +64669,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.02622861973941326</v>
@@ -64854,7 +64764,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0006189346313476562</v>
@@ -64949,7 +64859,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2.720656993915327e-05</v>
@@ -65044,7 +64954,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.0157996378839016</v>
@@ -65139,7 +65049,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2.747374128375668e-05</v>
@@ -65234,7 +65144,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.0001796083233784884</v>
@@ -65329,7 +65239,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.005976602900773287</v>
@@ -65424,7 +65334,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.01658571884036064</v>
@@ -65519,7 +65429,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.0005054420325905085</v>
@@ -65614,7 +65524,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.0005740051856264472</v>
@@ -65709,7 +65619,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.0002050853072432801</v>
@@ -65804,7 +65714,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.002879013307392597</v>
@@ -65899,7 +65809,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>1.642051211092621e-05</v>
@@ -65994,7 +65904,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.003994074184447527</v>
@@ -66089,7 +65999,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.01751362904906273</v>
@@ -66184,7 +66094,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.04905449971556664</v>
@@ -66279,7 +66189,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.01932813972234726</v>
@@ -66374,7 +66284,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.004981252830475569</v>
@@ -66469,7 +66379,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0004664050647988915</v>
@@ -66564,7 +66474,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.004209519363939762</v>
@@ -66659,7 +66569,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.001374561805278063</v>
@@ -66754,7 +66664,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.000291075324639678</v>
@@ -66849,7 +66759,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>1.623742605261214e-06</v>
@@ -66944,7 +66854,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.001931259292177856</v>
@@ -67039,7 +66949,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.02255716174840927</v>
@@ -67134,7 +67044,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001725672045722604</v>
@@ -67229,7 +67139,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0003054533735848963</v>
@@ -67324,7 +67234,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>1.477933983551338e-05</v>
@@ -67419,7 +67329,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.0007404944626614451</v>
@@ -67514,7 +67424,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -67609,7 +67519,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.1981133967638016</v>
@@ -67704,7 +67614,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2771979570388794</v>
@@ -67799,7 +67709,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1113230139017105</v>
@@ -67894,7 +67804,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01506309490650892</v>
@@ -67989,7 +67899,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.6016974449157715</v>
@@ -68084,7 +67994,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1197115853428841</v>
@@ -68179,7 +68089,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.5169656872749329</v>
@@ -68274,7 +68184,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.06759211421012878</v>
@@ -68369,7 +68279,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.305965930223465</v>
@@ -68464,7 +68374,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3983034789562225</v>
@@ -68559,7 +68469,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000953674316</v>
@@ -68762,7 +68672,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.05603569000959396</v>
@@ -68857,7 +68767,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0007400631438940763</v>
@@ -68952,7 +68862,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.367404370801523e-05</v>
@@ -69047,7 +68957,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.02270340919494629</v>
@@ -69142,7 +69052,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1.583413904882036e-05</v>
@@ -69237,7 +69147,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.000700612785294652</v>
@@ -69332,7 +69242,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.01875933073461056</v>
@@ -69427,7 +69337,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.01676790416240692</v>
@@ -69522,7 +69432,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.001408683136105537</v>
@@ -69617,7 +69527,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.00256376969628036</v>
@@ -69712,7 +69622,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.0004596810322254896</v>
@@ -69807,7 +69717,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.003166577313095331</v>
@@ -69902,7 +69812,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>1.415021233697189e-05</v>
@@ -69997,7 +69907,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.005337352864444256</v>
@@ -70092,7 +70002,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.0198313295841217</v>
@@ -70187,7 +70097,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05369840934872627</v>
@@ -70282,7 +70192,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.04598314687609673</v>
@@ -70377,7 +70287,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.004058870486915112</v>
@@ -70472,7 +70382,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0007270404021255672</v>
@@ -70567,7 +70477,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.00113907502964139</v>
@@ -70662,7 +70572,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.002308984519913793</v>
@@ -70757,7 +70667,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0002258405875181779</v>
@@ -70852,7 +70762,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.247712700409465e-06</v>
@@ -70947,7 +70857,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.003773920936509967</v>
@@ -71042,7 +70952,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.02966195531189442</v>
@@ -71137,7 +71047,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.002218374516814947</v>
@@ -71232,7 +71142,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.0006460912409238517</v>
@@ -71327,7 +71237,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>2.198027323174756e-05</v>
@@ -71422,7 +71332,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.001057689543813467</v>
@@ -71517,7 +71427,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -71612,7 +71522,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.2941116690635681</v>
@@ -71707,7 +71617,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2229619771242142</v>
@@ -71802,7 +71712,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1173589304089546</v>
@@ -71897,7 +71807,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01628132723271847</v>
@@ -71992,7 +71902,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.6507138609886169</v>
@@ -72087,7 +71997,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1475995630025864</v>
@@ -72182,7 +72092,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4593397080898285</v>
@@ -72277,7 +72187,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07305864989757538</v>
@@ -72372,7 +72282,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3307110071182251</v>
@@ -72467,7 +72377,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3492869138717651</v>
@@ -72562,7 +72472,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -72765,7 +72675,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.07523655891418457</v>
@@ -72860,7 +72770,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.001613060478121042</v>
@@ -72955,7 +72865,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>4.951814480591565e-05</v>
@@ -73050,7 +72960,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.02488407306373119</v>
@@ -73145,7 +73055,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0003015544207300991</v>
@@ -73240,7 +73150,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.001729110605083406</v>
@@ -73335,7 +73245,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.000922566105145961</v>
@@ -73430,7 +73340,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.03235620260238647</v>
@@ -73525,7 +73435,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.001739697880111635</v>
@@ -73620,7 +73530,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.002211898798123002</v>
@@ -73715,7 +73625,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.001859180512838066</v>
@@ -73810,7 +73720,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.004321657121181488</v>
@@ -73905,7 +73815,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>7.166089199017733e-05</v>
@@ -74000,7 +73910,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.007894076406955719</v>
@@ -74095,7 +74005,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.02078758925199509</v>
@@ -74190,7 +74100,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.05262026935815811</v>
@@ -74285,7 +74195,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.04580981656908989</v>
@@ -74380,7 +74290,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.004344391636550426</v>
@@ -74475,7 +74385,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0006506156059913337</v>
@@ -74570,7 +74480,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.001003401470370591</v>
@@ -74665,7 +74575,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.00285103265196085</v>
@@ -74760,7 +74670,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0002333727752557024</v>
@@ -74855,7 +74765,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3.376746462890878e-06</v>
@@ -74950,7 +74860,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.004886147566139698</v>
@@ -75045,7 +74955,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.03013521246612072</v>
@@ -75140,7 +75050,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.001750806230120361</v>
@@ -75235,7 +75145,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.000785886135417968</v>
@@ -75330,7 +75240,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>3.66500171367079e-05</v>
@@ -75425,7 +75335,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.00122419698163867</v>
@@ -75520,7 +75430,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -75615,7 +75525,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.3223136067390442</v>
@@ -75710,7 +75620,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.2345573157072067</v>
@@ -75805,7 +75715,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.1226315796375275</v>
@@ -75900,7 +75810,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.01745238527655602</v>
@@ -75995,7 +75905,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.6969549059867859</v>
@@ -76090,7 +76000,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.1482711881399155</v>
@@ -76185,7 +76095,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.4309590458869934</v>
@@ -76280,7 +76190,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.07831351459026337</v>
@@ -76375,7 +76285,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-0.3544979393482208</v>
@@ -76470,7 +76380,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.3030458390712738</v>
@@ -76565,7 +76475,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.000000715255737</v>
@@ -76844,13 +76754,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28351C3C-D022-4080-8204-70C24804B4FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{084D4A73-136A-45E7-A2AB-251110BE3C53}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8427A835-50C4-4F22-BBB5-EC2CEC0D8D1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB9711E-1D3D-4087-ACAD-7B1EFD701BE3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EEF13F-65E7-4355-BDF0-0B58D679FF30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6508F328-0825-4599-A4A8-26457415DD5D}"/>
 </file>
--- a/outdata/io_coef2014.xlsx
+++ b/outdata/io_coef2014.xlsx
@@ -675,7 +675,7 @@
         <v>0.000134131099912338</v>
       </c>
       <c r="S2" s="1">
-        <v>0.0001204584914376028</v>
+        <v>0.0001204584696097299</v>
       </c>
       <c r="T2" s="1">
         <v>0.001889198902063072</v>
@@ -770,7 +770,7 @@
         <v>3.666102566057816e-05</v>
       </c>
       <c r="S3" s="1">
-        <v>3.094007115578279e-05</v>
+        <v>3.094006387982517e-05</v>
       </c>
       <c r="T3" s="1">
         <v>0.001464933156967163</v>
@@ -865,7 +865,7 @@
         <v>4.186588193988428e-05</v>
       </c>
       <c r="S4" s="1">
-        <v>2.174930159526411e-05</v>
+        <v>2.174929795728531e-05</v>
       </c>
       <c r="T4" s="1">
         <v>4.559093576972373e-05</v>
@@ -960,7 +960,7 @@
         <v>0.001222835038788617</v>
       </c>
       <c r="S5" s="1">
-        <v>0.002989081665873528</v>
+        <v>0.00298908120021224</v>
       </c>
       <c r="T5" s="1">
         <v>0.07282649725675583</v>
@@ -1055,7 +1055,7 @@
         <v>0.0004707934276666492</v>
       </c>
       <c r="S6" s="1">
-        <v>0.0002143179735867307</v>
+        <v>0.0002143179444829002</v>
       </c>
       <c r="T6" s="1">
         <v>0.0001018173861666583</v>
@@ -1150,7 +1150,7 @@
         <v>0.0001224177831318229</v>
       </c>
       <c r="S7" s="1">
-        <v>5.813140160171315e-05</v>
+        <v>5.813139068777673e-05</v>
       </c>
       <c r="T7" s="1">
         <v>3.460879088379443e-05</v>
@@ -1245,7 +1245,7 @@
         <v>0.006391954142600298</v>
       </c>
       <c r="S8" s="1">
-        <v>0.00185729970689863</v>
+        <v>0.001857299357652664</v>
       </c>
       <c r="T8" s="1">
         <v>0.001329913735389709</v>
@@ -1340,7 +1340,7 @@
         <v>0.01032735034823418</v>
       </c>
       <c r="S9" s="1">
-        <v>0.06799456477165222</v>
+        <v>0.06799455732107162</v>
       </c>
       <c r="T9" s="1">
         <v>0.004361886065453291</v>
@@ -1435,7 +1435,7 @@
         <v>0.001843151287175715</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0004475369642022997</v>
+        <v>0.0004475369059946388</v>
       </c>
       <c r="T10" s="1">
         <v>0.0003243803803343326</v>
@@ -1530,10 +1530,10 @@
         <v>0.0009685331606306136</v>
       </c>
       <c r="S11" s="1">
-        <v>0.001299063093028963</v>
+        <v>0.001299062860198319</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000752240652218461</v>
+        <v>0.0007522405940108001</v>
       </c>
       <c r="U11" s="1">
         <v>0.001003584708087146</v>
@@ -1625,7 +1625,7 @@
         <v>0.01651154831051826</v>
       </c>
       <c r="S12" s="1">
-        <v>0.01019554864615202</v>
+        <v>0.01019554678350687</v>
       </c>
       <c r="T12" s="1">
         <v>0.01357648056000471</v>
@@ -1720,7 +1720,7 @@
         <v>0.003630854189395905</v>
       </c>
       <c r="S13" s="1">
-        <v>0.004637600388377905</v>
+        <v>0.00463759945705533</v>
       </c>
       <c r="T13" s="1">
         <v>0.003264559200033545</v>
@@ -1815,7 +1815,7 @@
         <v>0.0005242047482170165</v>
       </c>
       <c r="S14" s="1">
-        <v>0.0005148158525116742</v>
+        <v>0.0005148157943040133</v>
       </c>
       <c r="T14" s="1">
         <v>4.111291855224408e-05</v>
@@ -1907,10 +1907,10 @@
         <v>0.004331972450017929</v>
       </c>
       <c r="R15" s="1">
-        <v>0.001767609501257539</v>
+        <v>0.001767609384842217</v>
       </c>
       <c r="S15" s="1">
-        <v>0.007494841702282429</v>
+        <v>0.007494840305298567</v>
       </c>
       <c r="T15" s="1">
         <v>0.002839429304003716</v>
@@ -1931,7 +1931,7 @@
         <v>0.001707892748527229</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.002590202959254384</v>
+        <v>0.00259020272642374</v>
       </c>
       <c r="AA15" s="1">
         <v>0.002242725109681487</v>
@@ -1940,7 +1940,7 @@
         <v>0.0008200398879125714</v>
       </c>
       <c r="AC15" s="1">
-        <v>0.004059948958456516</v>
+        <v>0.004059948492795229</v>
       </c>
       <c r="AD15" s="1">
         <v>0.001809957786463201</v>
@@ -2005,7 +2005,7 @@
         <v>0.02454380132257938</v>
       </c>
       <c r="S16" s="1">
-        <v>0.01341737806797028</v>
+        <v>0.01341737620532513</v>
       </c>
       <c r="T16" s="1">
         <v>0.03511135652661324</v>
@@ -2100,7 +2100,7 @@
         <v>0.008100689388811588</v>
       </c>
       <c r="S17" s="1">
-        <v>0.02044760994613171</v>
+        <v>0.02044760622084141</v>
       </c>
       <c r="T17" s="1">
         <v>0.003267849329859018</v>
@@ -2195,7 +2195,7 @@
         <v>0.04334336519241333</v>
       </c>
       <c r="S18" s="1">
-        <v>0.06912040710449219</v>
+        <v>0.06912039220333099</v>
       </c>
       <c r="T18" s="1">
         <v>0.07026848942041397</v>
@@ -2278,7 +2278,7 @@
         <v>0.01799661666154861</v>
       </c>
       <c r="O19" s="1">
-        <v>0.02130614966154099</v>
+        <v>0.02130614779889584</v>
       </c>
       <c r="P19" s="1">
         <v>0.01497500017285347</v>
@@ -2290,7 +2290,7 @@
         <v>0.07300156354904175</v>
       </c>
       <c r="S19" s="1">
-        <v>0.1939984411001205</v>
+        <v>0.1939984112977982</v>
       </c>
       <c r="T19" s="1">
         <v>0.0143224261701107</v>
@@ -2302,13 +2302,13 @@
         <v>0.02127053029835224</v>
       </c>
       <c r="W19" s="1">
-        <v>0.005154026206582785</v>
+        <v>0.00515402527526021</v>
       </c>
       <c r="X19" s="1">
         <v>0.0009039876749739051</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.02001063339412212</v>
+        <v>0.02001063525676727</v>
       </c>
       <c r="Z19" s="1">
         <v>0.03636428341269493</v>
@@ -2385,7 +2385,7 @@
         <v>0.006777714006602764</v>
       </c>
       <c r="S20" s="1">
-        <v>0.008398466743528843</v>
+        <v>0.008398464880883694</v>
       </c>
       <c r="T20" s="1">
         <v>0.007874010130763054</v>
@@ -2480,7 +2480,7 @@
         <v>0.02911822870373726</v>
       </c>
       <c r="S21" s="1">
-        <v>0.01672786846756935</v>
+        <v>0.01672786474227905</v>
       </c>
       <c r="T21" s="1">
         <v>0.02597445622086525</v>
@@ -2575,7 +2575,7 @@
         <v>0.01281952485442162</v>
       </c>
       <c r="S22" s="1">
-        <v>0.007723398506641388</v>
+        <v>0.007723397575318813</v>
       </c>
       <c r="T22" s="1">
         <v>0.008853872306644917</v>
@@ -2670,7 +2670,7 @@
         <v>0.0672740638256073</v>
       </c>
       <c r="S23" s="1">
-        <v>0.02609537541866302</v>
+        <v>0.02609536983072758</v>
       </c>
       <c r="T23" s="1">
         <v>0.07789309322834015</v>
@@ -2765,7 +2765,7 @@
         <v>0.0004033923905808479</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0001560477103339508</v>
+        <v>0.0001560476812301204</v>
       </c>
       <c r="T24" s="1">
         <v>0.0004680415149778128</v>
@@ -2860,7 +2860,7 @@
         <v>0.0392477735877037</v>
       </c>
       <c r="S25" s="1">
-        <v>0.01541176531463861</v>
+        <v>0.01541176252067089</v>
       </c>
       <c r="T25" s="1">
         <v>0.02242311835289001</v>
@@ -2955,7 +2955,7 @@
         <v>0.02841692231595516</v>
       </c>
       <c r="S26" s="1">
-        <v>0.02506571635603905</v>
+        <v>0.02506571263074875</v>
       </c>
       <c r="T26" s="1">
         <v>0.04291261360049248</v>
@@ -3050,7 +3050,7 @@
         <v>0.01006039883941412</v>
       </c>
       <c r="S27" s="1">
-        <v>0.007632407359778881</v>
+        <v>0.007632406428456306</v>
       </c>
       <c r="T27" s="1">
         <v>0.005047513172030449</v>
@@ -3145,7 +3145,7 @@
         <v>0.003332298249006271</v>
       </c>
       <c r="S28" s="1">
-        <v>0.00144108897075057</v>
+        <v>0.001441088621504605</v>
       </c>
       <c r="T28" s="1">
         <v>0.002145524369552732</v>
@@ -3240,7 +3240,7 @@
         <v>0.001321851974353194</v>
       </c>
       <c r="S29" s="1">
-        <v>0.002087854780256748</v>
+        <v>0.002087854314595461</v>
       </c>
       <c r="T29" s="1">
         <v>0.0007290642824955285</v>
@@ -3335,7 +3335,7 @@
         <v>0.004995617084205151</v>
       </c>
       <c r="S30" s="1">
-        <v>0.006105809472501278</v>
+        <v>0.006105808541178703</v>
       </c>
       <c r="T30" s="1">
         <v>0.01853082329034805</v>
@@ -3525,7 +3525,7 @@
         <v>0.3967511355876923</v>
       </c>
       <c r="S32" s="1">
-        <v>0.5117055177688599</v>
+        <v>0.5117054581642151</v>
       </c>
       <c r="T32" s="1">
         <v>0.4386748671531677</v>
@@ -3620,7 +3620,7 @@
         <v>0.02745732478797436</v>
       </c>
       <c r="S33" s="1">
-        <v>0.02994283102452755</v>
+        <v>0.02994282729923725</v>
       </c>
       <c r="T33" s="1">
         <v>0.06258665025234222</v>
@@ -3715,7 +3715,7 @@
         <v>0.07514690607786179</v>
       </c>
       <c r="S34" s="1">
-        <v>0.07970280200242996</v>
+        <v>0.07970279455184937</v>
       </c>
       <c r="T34" s="1">
         <v>0.07242916524410248</v>
@@ -3810,7 +3810,7 @@
         <v>0.003654670435935259</v>
       </c>
       <c r="S35" s="1">
-        <v>0.05632678046822548</v>
+        <v>0.05632677301764488</v>
       </c>
       <c r="T35" s="1">
         <v>0.03545689582824707</v>
@@ -3905,7 +3905,7 @@
         <v>0.5030100345611572</v>
       </c>
       <c r="S36" s="1">
-        <v>0.6776779890060425</v>
+        <v>0.6776779294013977</v>
       </c>
       <c r="T36" s="1">
         <v>0.6091476082801819</v>
@@ -4000,7 +4000,7 @@
         <v>0.3098962306976318</v>
       </c>
       <c r="S37" s="1">
-        <v>0.2112651169300079</v>
+        <v>0.2112651467323303</v>
       </c>
       <c r="T37" s="1">
         <v>0.3161481320858002</v>
@@ -4285,7 +4285,7 @@
         <v>-0.0008944463334046304</v>
       </c>
       <c r="S40" s="1">
-        <v>-0.002042674226686358</v>
+        <v>-0.002042673761025071</v>
       </c>
       <c r="T40" s="1">
         <v>-0.002615225501358509</v>
@@ -4380,7 +4380,7 @@
         <v>0.4969896972179413</v>
       </c>
       <c r="S41" s="1">
-        <v>0.3223218619823456</v>
+        <v>0.322321891784668</v>
       </c>
       <c r="T41" s="1">
         <v>0.3908526301383972</v>
@@ -4475,7 +4475,7 @@
         <v>0.9999997615814209</v>
       </c>
       <c r="S42" s="1">
-        <v>0.9999998807907104</v>
+        <v>0.9999998211860657</v>
       </c>
       <c r="T42" s="1">
         <v>1.000000238418579</v>
@@ -4678,7 +4678,7 @@
         <v>0.002178174443542957</v>
       </c>
       <c r="S2" s="1">
-        <v>0.001662003342062235</v>
+        <v>0.001662003225646913</v>
       </c>
       <c r="T2" s="1">
         <v>0.01269699539989233</v>
@@ -4773,7 +4773,7 @@
         <v>0.00032074935734272</v>
       </c>
       <c r="S3" s="1">
-        <v>0.0001809894747566432</v>
+        <v>0.0001809894602047279</v>
       </c>
       <c r="T3" s="1">
         <v>0.004678594414144754</v>
@@ -4868,7 +4868,7 @@
         <v>0.0002590181829873472</v>
       </c>
       <c r="S4" s="1">
-        <v>0.0001098088905564509</v>
+        <v>0.0001098088832804933</v>
       </c>
       <c r="T4" s="1">
         <v>0.000268733041593805</v>
@@ -4927,7 +4927,7 @@
         <v>0.004175091162323952</v>
       </c>
       <c r="G5" s="1">
-        <v>0.001708504511043429</v>
+        <v>0.001708504394628108</v>
       </c>
       <c r="H5" s="1">
         <v>0.005145214032381773</v>
@@ -4963,7 +4963,7 @@
         <v>0.002432394307106733</v>
       </c>
       <c r="S5" s="1">
-        <v>0.003411783836781979</v>
+        <v>0.003411783603951335</v>
       </c>
       <c r="T5" s="1">
         <v>0.08143313974142075</v>
@@ -5153,7 +5153,7 @@
         <v>0.002091575181111693</v>
       </c>
       <c r="S7" s="1">
-        <v>0.00112709344830364</v>
+        <v>0.001127093331888318</v>
       </c>
       <c r="T7" s="1">
         <v>0.000892840966116637</v>
@@ -5248,7 +5248,7 @@
         <v>0.0107186259701848</v>
       </c>
       <c r="S8" s="1">
-        <v>0.002600496634840965</v>
+        <v>0.002600496402010322</v>
       </c>
       <c r="T8" s="1">
         <v>0.00206532166339457</v>
@@ -5343,13 +5343,13 @@
         <v>0.004561957437545061</v>
       </c>
       <c r="S9" s="1">
-        <v>0.02508611418306828</v>
+        <v>0.02508611232042313</v>
       </c>
       <c r="T9" s="1">
         <v>0.001706413691863418</v>
       </c>
       <c r="U9" s="1">
-        <v>0.001944954739883542</v>
+        <v>0.00194495462346822</v>
       </c>
       <c r="V9" s="1">
         <v>0.002279041334986687</v>
@@ -5405,7 +5405,7 @@
         <v>0.004631360061466694</v>
       </c>
       <c r="H10" s="1">
-        <v>0.000659008277580142</v>
+        <v>0.0006590082193724811</v>
       </c>
       <c r="I10" s="1">
         <v>0.002247780095785856</v>
@@ -5438,7 +5438,7 @@
         <v>0.001805491163395345</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0004770829400513321</v>
+        <v>0.0004770829109475017</v>
       </c>
       <c r="T10" s="1">
         <v>0.0004151155008003116</v>
@@ -5533,7 +5533,7 @@
         <v>0.001896998146548867</v>
       </c>
       <c r="S11" s="1">
-        <v>0.001782929408363998</v>
+        <v>0.001782929291948676</v>
       </c>
       <c r="T11" s="1">
         <v>0.001405135961249471</v>
@@ -5723,7 +5723,7 @@
         <v>0.007486548274755478</v>
       </c>
       <c r="S13" s="1">
-        <v>0.006611852906644344</v>
+        <v>0.006611852440983057</v>
       </c>
       <c r="T13" s="1">
         <v>0.0062503507360816</v>
@@ -5773,13 +5773,13 @@
         <v>0.0003648613346740603</v>
       </c>
       <c r="D14" s="1">
-        <v>0.000310857460135594</v>
+        <v>0.0003108574310317636</v>
       </c>
       <c r="E14" s="1">
         <v>0.000187760524568148</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0001707925694063306</v>
+        <v>0.0001707925548544154</v>
       </c>
       <c r="G14" s="1">
         <v>0.0001238507247762755</v>
@@ -5818,7 +5818,7 @@
         <v>0.001429693773388863</v>
       </c>
       <c r="S14" s="1">
-        <v>0.001177416881546378</v>
+        <v>0.001177416765131056</v>
       </c>
       <c r="T14" s="1">
         <v>0.000147872677189298</v>
@@ -5913,7 +5913,7 @@
         <v>0.00233717099763453</v>
       </c>
       <c r="S15" s="1">
-        <v>0.007697370834648609</v>
+        <v>0.007697370368987322</v>
       </c>
       <c r="T15" s="1">
         <v>0.003467536764219403</v>
@@ -6008,7 +6008,7 @@
         <v>0.01949102059006691</v>
       </c>
       <c r="S16" s="1">
-        <v>0.00901100505143404</v>
+        <v>0.009011004120111465</v>
       </c>
       <c r="T16" s="1">
         <v>0.02704094164073467</v>
@@ -6103,7 +6103,7 @@
         <v>0.007252203766256571</v>
       </c>
       <c r="S17" s="1">
-        <v>0.01542892772704363</v>
+        <v>0.01542892679572105</v>
       </c>
       <c r="T17" s="1">
         <v>0.002952086040750146</v>
@@ -6198,7 +6198,7 @@
         <v>0.02301888912916183</v>
       </c>
       <c r="S18" s="1">
-        <v>0.02934876456856728</v>
+        <v>0.02934876270592213</v>
       </c>
       <c r="T18" s="1">
         <v>0.0344247967004776</v>
@@ -6245,22 +6245,22 @@
         <v>0.00508392695337534</v>
       </c>
       <c r="C19" s="1">
-        <v>0.005053819622844458</v>
+        <v>0.00505381915718317</v>
       </c>
       <c r="D19" s="1">
-        <v>0.05833171680569649</v>
+        <v>0.05833171308040619</v>
       </c>
       <c r="E19" s="1">
         <v>0.03522147983312607</v>
       </c>
       <c r="F19" s="1">
-        <v>0.02664510160684586</v>
+        <v>0.02664509974420071</v>
       </c>
       <c r="G19" s="1">
-        <v>0.05465161427855492</v>
+        <v>0.05465161055326462</v>
       </c>
       <c r="H19" s="1">
-        <v>0.08081879466772079</v>
+        <v>0.0808187872171402</v>
       </c>
       <c r="I19" s="1">
         <v>0.01925600506365299</v>
@@ -6272,10 +6272,10 @@
         <v>0.01344955898821354</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01394594367593527</v>
+        <v>0.01394594274461269</v>
       </c>
       <c r="M19" s="1">
-        <v>0.0215452928096056</v>
+        <v>0.02154529094696045</v>
       </c>
       <c r="N19" s="1">
         <v>0.0117025338113308</v>
@@ -6284,7 +6284,7 @@
         <v>0.01183014735579491</v>
       </c>
       <c r="P19" s="1">
-        <v>0.01166216935962439</v>
+        <v>0.01166217215359211</v>
       </c>
       <c r="Q19" s="1">
         <v>0.008587646298110485</v>
@@ -6293,25 +6293,25 @@
         <v>0.04338708147406578</v>
       </c>
       <c r="S19" s="1">
-        <v>0.09849832952022552</v>
+        <v>0.09849832206964493</v>
       </c>
       <c r="T19" s="1">
         <v>0.008339385502040386</v>
       </c>
       <c r="U19" s="1">
-        <v>0.01480943337082863</v>
+        <v>0.01480943150818348</v>
       </c>
       <c r="V19" s="1">
-        <v>0.01239389926195145</v>
+        <v>0.01239390019327402</v>
       </c>
       <c r="W19" s="1">
-        <v>0.005714212078601122</v>
+        <v>0.005714211147278547</v>
       </c>
       <c r="X19" s="1">
         <v>0.0005466201691888273</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.009827334433794022</v>
+        <v>0.009827333502471447</v>
       </c>
       <c r="Z19" s="1">
         <v>0.01872908696532249</v>
@@ -6326,7 +6326,7 @@
         <v>0.0152503764256835</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.02920816838741302</v>
+        <v>0.02920816652476788</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>0.004674708470702171</v>
       </c>
       <c r="S20" s="1">
-        <v>0.004828899167478085</v>
+        <v>0.004828898701816797</v>
       </c>
       <c r="T20" s="1">
         <v>0.005303044803440571</v>
@@ -6483,7 +6483,7 @@
         <v>0.008189198561012745</v>
       </c>
       <c r="S21" s="1">
-        <v>0.003837464610114694</v>
+        <v>0.00383746437728405</v>
       </c>
       <c r="T21" s="1">
         <v>0.006964491214603186</v>
@@ -6578,7 +6578,7 @@
         <v>0.005992088466882706</v>
       </c>
       <c r="S22" s="1">
-        <v>0.003073643893003464</v>
+        <v>0.00307364366017282</v>
       </c>
       <c r="T22" s="1">
         <v>0.004094012081623077</v>
@@ -6673,7 +6673,7 @@
         <v>0.04348042979836464</v>
       </c>
       <c r="S23" s="1">
-        <v>0.01442454662173986</v>
+        <v>0.01442454569041729</v>
       </c>
       <c r="T23" s="1">
         <v>0.0495942234992981</v>
@@ -6768,7 +6768,7 @@
         <v>0.0006593439029529691</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0002184218901675195</v>
+        <v>0.0002184218756156042</v>
       </c>
       <c r="T24" s="1">
         <v>0.0007530222064815462</v>
@@ -6863,7 +6863,7 @@
         <v>0.02751799486577511</v>
       </c>
       <c r="S25" s="1">
-        <v>0.009179359301924706</v>
+        <v>0.009179358370602131</v>
       </c>
       <c r="T25" s="1">
         <v>0.01532477512955666</v>
@@ -7053,7 +7053,7 @@
         <v>0.01022215373814106</v>
       </c>
       <c r="S27" s="1">
-        <v>0.006133942399173975</v>
+        <v>0.006133941933512688</v>
       </c>
       <c r="T27" s="1">
         <v>0.006080181803554296</v>
@@ -7148,7 +7148,7 @@
         <v>0.005196141079068184</v>
       </c>
       <c r="S28" s="1">
-        <v>0.001832370297051966</v>
+        <v>0.001832370180636644</v>
       </c>
       <c r="T28" s="1">
         <v>0.003126041265204549</v>
@@ -7338,7 +7338,7 @@
         <v>0.003239907091483474</v>
       </c>
       <c r="S30" s="1">
-        <v>0.002842847723513842</v>
+        <v>0.002842847490683198</v>
       </c>
       <c r="T30" s="1">
         <v>0.009756307117640972</v>
@@ -7581,7 +7581,7 @@
         <v>0.1557454466819763</v>
       </c>
       <c r="E33" s="1">
-        <v>0.2219805121421814</v>
+        <v>0.2219805270433426</v>
       </c>
       <c r="F33" s="1">
         <v>0.1750552803277969</v>
@@ -7593,10 +7593,10 @@
         <v>0.1889596283435822</v>
       </c>
       <c r="I33" s="1">
-        <v>0.1637807935476303</v>
+        <v>0.1637808084487915</v>
       </c>
       <c r="J33" s="1">
-        <v>0.1936847716569901</v>
+        <v>0.1936847865581512</v>
       </c>
       <c r="K33" s="1">
         <v>0.1475363969802856</v>
@@ -7605,7 +7605,7 @@
         <v>0.1564818918704987</v>
       </c>
       <c r="M33" s="1">
-        <v>0.1823554337024689</v>
+        <v>0.1823554486036301</v>
       </c>
       <c r="N33" s="1">
         <v>0.1991250216960907</v>
@@ -7623,7 +7623,7 @@
         <v>0.1282345056533813</v>
       </c>
       <c r="S33" s="1">
-        <v>0.1623778492212296</v>
+        <v>0.1623778343200684</v>
       </c>
       <c r="T33" s="1">
         <v>0.1347054541110992</v>
@@ -7647,7 +7647,7 @@
         <v>0.1073048785328865</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.1306594461202621</v>
+        <v>0.1306594610214233</v>
       </c>
       <c r="AB33" s="1">
         <v>0.0647004097700119</v>
@@ -7813,7 +7813,7 @@
         <v>0.003399157896637917</v>
       </c>
       <c r="S35" s="1">
-        <v>0.04486343637108803</v>
+        <v>0.04486343264579773</v>
       </c>
       <c r="T35" s="1">
         <v>0.03246108815073967</v>
@@ -7890,7 +7890,7 @@
         <v>0.5537313222885132</v>
       </c>
       <c r="M36" s="1">
-        <v>0.7052595615386963</v>
+        <v>0.7052596807479858</v>
       </c>
       <c r="N36" s="1">
         <v>0.739543616771698</v>
@@ -8098,7 +8098,7 @@
         <v>0.1789817810058594</v>
       </c>
       <c r="S38" s="1">
-        <v>0.1703835278749466</v>
+        <v>0.1703835129737854</v>
       </c>
       <c r="T38" s="1">
         <v>0.1480951905250549</v>
@@ -8122,7 +8122,7 @@
         <v>0.1240639612078667</v>
       </c>
       <c r="AA38" s="1">
-        <v>0.09033657610416412</v>
+        <v>0.09033658355474472</v>
       </c>
       <c r="AB38" s="1">
         <v>0.1646230518817902</v>
@@ -8288,7 +8288,7 @@
         <v>-0.0008515950758010149</v>
       </c>
       <c r="S40" s="1">
-        <v>-0.003077272092923522</v>
+        <v>-0.003077271860092878</v>
       </c>
       <c r="T40" s="1">
         <v>-0.005009103566408157</v>
@@ -8383,7 +8383,7 @@
         <v>0.5321475267410278</v>
       </c>
       <c r="S41" s="1">
-        <v>0.4601068496704102</v>
+        <v>0.4601068198680878</v>
       </c>
       <c r="T41" s="1">
         <v>0.4426113665103912</v>
@@ -8460,7 +8460,7 @@
         <v>0.9999998807907104</v>
       </c>
       <c r="M42" s="1">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="N42" s="1">
         <v>1.000000596046448</v>
@@ -9126,7 +9126,7 @@
         <v>0.02041035145521164</v>
       </c>
       <c r="I7" s="1">
-        <v>0.002099039033055305</v>
+        <v>0.002099039265885949</v>
       </c>
       <c r="J7" s="1">
         <v>0.003626701887696981</v>
@@ -9221,7 +9221,7 @@
         <v>0.1265211552381516</v>
       </c>
       <c r="I8" s="1">
-        <v>0.004767266102135181</v>
+        <v>0.004767266567796469</v>
       </c>
       <c r="J8" s="1">
         <v>0.006989873945713043</v>
@@ -9438,7 +9438,7 @@
         <v>0.03061775490641594</v>
       </c>
       <c r="R10" s="1">
-        <v>0.001866911887191236</v>
+        <v>0.001866912003606558</v>
       </c>
       <c r="S10" s="1">
         <v>0.00052760069957003</v>
@@ -9759,7 +9759,7 @@
         <v>0.003741356078535318</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.005890519358217716</v>
+        <v>0.005890519823879004</v>
       </c>
       <c r="AE13" s="1">
         <v>0</v>
@@ -9794,7 +9794,7 @@
         <v>2.96943289868068e-05</v>
       </c>
       <c r="J14" s="1">
-        <v>8.047930168686435e-05</v>
+        <v>8.047930896282196e-05</v>
       </c>
       <c r="K14" s="1">
         <v>0.0001788360241334885</v>
@@ -9931,7 +9931,7 @@
         <v>0.0002767243422567844</v>
       </c>
       <c r="X15" s="1">
-        <v>2.549051896494348e-05</v>
+        <v>2.549052078393288e-05</v>
       </c>
       <c r="Y15" s="1">
         <v>0.001985568320378661</v>
@@ -10171,7 +10171,7 @@
         <v>0.02192234806716442</v>
       </c>
       <c r="I18" s="1">
-        <v>0.01759838499128819</v>
+        <v>0.01759838685393333</v>
       </c>
       <c r="J18" s="1">
         <v>0.01811955124139786</v>
@@ -10245,91 +10245,91 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.003386399243026972</v>
+        <v>0.003386399941518903</v>
       </c>
       <c r="C19" s="1">
-        <v>0.003422737587243319</v>
+        <v>0.003422738052904606</v>
       </c>
       <c r="D19" s="1">
-        <v>0.04227998107671738</v>
+        <v>0.04227998480200768</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01995460316538811</v>
+        <v>0.01995460689067841</v>
       </c>
       <c r="F19" s="1">
-        <v>0.01699290610849857</v>
+        <v>0.01699290797114372</v>
       </c>
       <c r="G19" s="1">
-        <v>0.03750072419643402</v>
+        <v>0.03750072792172432</v>
       </c>
       <c r="H19" s="1">
-        <v>0.06422197073698044</v>
+        <v>0.06422198563814163</v>
       </c>
       <c r="I19" s="1">
-        <v>0.01102369837462902</v>
+        <v>0.0110236993059516</v>
       </c>
       <c r="J19" s="1">
-        <v>0.02739915624260902</v>
+        <v>0.02739915996789932</v>
       </c>
       <c r="K19" s="1">
-        <v>0.008989840745925903</v>
+        <v>0.008989841677248478</v>
       </c>
       <c r="L19" s="1">
-        <v>0.009304206818342209</v>
+        <v>0.009304208680987358</v>
       </c>
       <c r="M19" s="1">
-        <v>0.01614773273468018</v>
+        <v>0.01614773459732533</v>
       </c>
       <c r="N19" s="1">
-        <v>0.007195504382252693</v>
+        <v>0.00719550484791398</v>
       </c>
       <c r="O19" s="1">
-        <v>0.008993289433419704</v>
+        <v>0.008993291296064854</v>
       </c>
       <c r="P19" s="1">
-        <v>0.008849075995385647</v>
+        <v>0.008849077858030796</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.005996376276016235</v>
+        <v>0.00599637720733881</v>
       </c>
       <c r="R19" s="1">
-        <v>0.02426898293197155</v>
+        <v>0.02426898665726185</v>
       </c>
       <c r="S19" s="1">
-        <v>0.06371144950389862</v>
+        <v>0.06371145695447922</v>
       </c>
       <c r="T19" s="1">
-        <v>0.005824451334774494</v>
+        <v>0.005824452266097069</v>
       </c>
       <c r="U19" s="1">
-        <v>0.009538565762341022</v>
+        <v>0.009538568556308746</v>
       </c>
       <c r="V19" s="1">
         <v>0.008746539242565632</v>
       </c>
       <c r="W19" s="1">
-        <v>0.004169175866991282</v>
+        <v>0.004169176332652569</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0004026150854770094</v>
+        <v>0.0004026151145808399</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.007402746938169003</v>
+        <v>0.00740274740383029</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.01256956718862057</v>
+        <v>0.01256956811994314</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.02372319623827934</v>
+        <v>0.02372319996356964</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01155552361160517</v>
+        <v>0.01155552454292774</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01114812213927507</v>
+        <v>0.01114812400192022</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.02323441952466965</v>
+        <v>0.0232344213873148</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0.008259478956460953</v>
       </c>
       <c r="H27" s="1">
-        <v>0.005973242688924074</v>
+        <v>0.005973243620246649</v>
       </c>
       <c r="I27" s="1">
         <v>0.003248026361688972</v>
@@ -11489,7 +11489,7 @@
         <v>0.2762739956378937</v>
       </c>
       <c r="E32" s="1">
-        <v>0.3981570303440094</v>
+        <v>0.3981570601463318</v>
       </c>
       <c r="F32" s="1">
         <v>0.2546627521514893</v>
@@ -11510,7 +11510,7 @@
         <v>0.2585085928440094</v>
       </c>
       <c r="L32" s="1">
-        <v>0.2148414552211761</v>
+        <v>0.2148414701223373</v>
       </c>
       <c r="M32" s="1">
         <v>0.3553909361362457</v>
@@ -11519,10 +11519,10 @@
         <v>0.2471316009759903</v>
       </c>
       <c r="O32" s="1">
-        <v>0.2543072700500488</v>
+        <v>0.2543072998523712</v>
       </c>
       <c r="P32" s="1">
-        <v>0.2759613990783691</v>
+        <v>0.2759614288806915</v>
       </c>
       <c r="Q32" s="1">
         <v>0.325813889503479</v>
@@ -11558,7 +11558,7 @@
         <v>0.238147035241127</v>
       </c>
       <c r="AB32" s="1">
-        <v>0.1421708315610886</v>
+        <v>0.1421708464622498</v>
       </c>
       <c r="AC32" s="1">
         <v>0.1935786157846451</v>
@@ -11584,7 +11584,7 @@
         <v>0.1980040371417999</v>
       </c>
       <c r="E33" s="1">
-        <v>0.2103985697031021</v>
+        <v>0.2103985548019409</v>
       </c>
       <c r="F33" s="1">
         <v>0.2203357517719269</v>
@@ -11623,10 +11623,10 @@
         <v>0.1559397429227829</v>
       </c>
       <c r="R33" s="1">
-        <v>0.1310570687055588</v>
+        <v>0.1310570538043976</v>
       </c>
       <c r="S33" s="1">
-        <v>0.2049811333417892</v>
+        <v>0.2049811184406281</v>
       </c>
       <c r="T33" s="1">
         <v>0.1496923267841339</v>
@@ -11656,7 +11656,7 @@
         <v>0.08522824198007584</v>
       </c>
       <c r="AC33" s="1">
-        <v>0.09615308046340942</v>
+        <v>0.09615307301282883</v>
       </c>
       <c r="AD33" s="1">
         <v>0.1838991641998291</v>
@@ -11869,7 +11869,7 @@
         <v>0.7255988121032715</v>
       </c>
       <c r="E36" s="1">
-        <v>0.709928035736084</v>
+        <v>0.7099279761314392</v>
       </c>
       <c r="F36" s="1">
         <v>0.6487076282501221</v>
@@ -11899,16 +11899,16 @@
         <v>0.6572681069374084</v>
       </c>
       <c r="O36" s="1">
-        <v>0.5774243474006653</v>
+        <v>0.5774244070053101</v>
       </c>
       <c r="P36" s="1">
-        <v>0.5922293663024902</v>
+        <v>0.5922294855117798</v>
       </c>
       <c r="Q36" s="1">
         <v>0.5829954147338867</v>
       </c>
       <c r="R36" s="1">
-        <v>0.3770900964736938</v>
+        <v>0.3770900368690491</v>
       </c>
       <c r="S36" s="1">
         <v>0.5056262016296387</v>
@@ -12469,16 +12469,16 @@
         <v>1.000000238418579</v>
       </c>
       <c r="O42" s="1">
-        <v>0.9999997615814209</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="Q42" s="1">
         <v>1.000000238418579</v>
       </c>
       <c r="R42" s="1">
-        <v>0.9999997615814209</v>
+        <v>0.9999997019767761</v>
       </c>
       <c r="S42" s="1">
         <v>0.9999998807907104</v>
@@ -12969,7 +12969,7 @@
         <v>0.001029308303259313</v>
       </c>
       <c r="S5" s="1">
-        <v>0.001742289052344859</v>
+        <v>0.001742288819514215</v>
       </c>
       <c r="T5" s="1">
         <v>0.04774193838238716</v>
@@ -12978,7 +12978,7 @@
         <v>0.002129384083673358</v>
       </c>
       <c r="V5" s="1">
-        <v>0.001672102371230721</v>
+        <v>0.001672102138400078</v>
       </c>
       <c r="W5" s="1">
         <v>0.002411326393485069</v>
@@ -12999,7 +12999,7 @@
         <v>0.001378548098728061</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.001837573596276343</v>
+        <v>0.001837573247030377</v>
       </c>
       <c r="AD5" s="1">
         <v>0.003156876424327493</v>
@@ -14213,7 +14213,7 @@
         <v>0.01590624451637268</v>
       </c>
       <c r="V18" s="1">
-        <v>0.007430162280797958</v>
+        <v>0.007430161815136671</v>
       </c>
       <c r="W18" s="1">
         <v>0.007328910287469625</v>
@@ -14272,7 +14272,7 @@
         <v>0.0139417452737689</v>
       </c>
       <c r="J19" s="1">
-        <v>0.0284481942653656</v>
+        <v>0.02844819240272045</v>
       </c>
       <c r="K19" s="1">
         <v>0.01076910365372896</v>
@@ -14290,7 +14290,7 @@
         <v>0.009235966950654984</v>
       </c>
       <c r="P19" s="1">
-        <v>0.01033585146069527</v>
+        <v>0.01033585052937269</v>
       </c>
       <c r="Q19" s="1">
         <v>0.006547411438077688</v>
@@ -14314,7 +14314,7 @@
         <v>0.00364970788359642</v>
       </c>
       <c r="X19" s="1">
-        <v>0.000420128955738619</v>
+        <v>0.0004201289266347885</v>
       </c>
       <c r="Y19" s="1">
         <v>0.00973170530050993</v>
@@ -15564,7 +15564,7 @@
         <v>0.1557182818651199</v>
       </c>
       <c r="AC32" s="1">
-        <v>0.2246031612157822</v>
+        <v>0.2246031314134598</v>
       </c>
       <c r="AD32" s="1">
         <v>0.2442957311868668</v>
@@ -16009,7 +16009,7 @@
         <v>0.4154491722583771</v>
       </c>
       <c r="S37" s="1">
-        <v>0.2737401723861694</v>
+        <v>0.273740142583847</v>
       </c>
       <c r="T37" s="1">
         <v>0.2987682223320007</v>
@@ -16104,7 +16104,7 @@
         <v>0.1414479166269302</v>
       </c>
       <c r="S38" s="1">
-        <v>0.1878963112831116</v>
+        <v>0.1878962963819504</v>
       </c>
       <c r="T38" s="1">
         <v>0.1119726449251175</v>
@@ -16389,7 +16389,7 @@
         <v>0.5562241077423096</v>
       </c>
       <c r="S41" s="1">
-        <v>0.4582429230213165</v>
+        <v>0.4582428634166718</v>
       </c>
       <c r="T41" s="1">
         <v>0.4069535434246063</v>
@@ -16484,7 +16484,7 @@
         <v>0.9999998807907104</v>
       </c>
       <c r="S42" s="1">
-        <v>0.9999998807907104</v>
+        <v>0.9999997615814209</v>
       </c>
       <c r="T42" s="1">
         <v>1.00000011920929</v>
@@ -17002,7 +17002,7 @@
         <v>0.004466764628887177</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.005068914033472538</v>
+        <v>0.005068913567811251</v>
       </c>
       <c r="AD5" s="1">
         <v>0.009703394025564194</v>
@@ -20690,7 +20690,7 @@
         <v>0.002268943469971418</v>
       </c>
       <c r="S2" s="1">
-        <v>0.002418619114905596</v>
+        <v>0.002418618882074952</v>
       </c>
       <c r="T2" s="1">
         <v>0.01560206338763237</v>
@@ -20785,7 +20785,7 @@
         <v>0.0001277483825106174</v>
       </c>
       <c r="S3" s="1">
-        <v>0.0001050355494953692</v>
+        <v>0.000105035534943454</v>
       </c>
       <c r="T3" s="1">
         <v>0.003335897345095873</v>
@@ -20880,7 +20880,7 @@
         <v>4.413791248225607e-05</v>
       </c>
       <c r="S4" s="1">
-        <v>2.400977791694459e-05</v>
+        <v>2.400977427896578e-05</v>
       </c>
       <c r="T4" s="1">
         <v>6.171745189931244e-05</v>
@@ -20933,7 +20933,7 @@
         <v>0.001002268050797284</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1305318027734756</v>
+        <v>0.1305318176746368</v>
       </c>
       <c r="F5" s="1">
         <v>0.003572336165234447</v>
@@ -20975,7 +20975,7 @@
         <v>0.001535103423520923</v>
       </c>
       <c r="S5" s="1">
-        <v>0.003520936472341418</v>
+        <v>0.003520936006680131</v>
       </c>
       <c r="T5" s="1">
         <v>0.08761395514011383</v>
@@ -21070,7 +21070,7 @@
         <v>0.0003263816179241985</v>
       </c>
       <c r="S6" s="1">
-        <v>0.000175264329300262</v>
+        <v>0.0001752643001964316</v>
       </c>
       <c r="T6" s="1">
         <v>9.726321877678856e-05</v>
@@ -21165,7 +21165,7 @@
         <v>0.0005230153910815716</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0002877231454476714</v>
+        <v>0.000287723116343841</v>
       </c>
       <c r="T7" s="1">
         <v>0.0002291536657139659</v>
@@ -21260,7 +21260,7 @@
         <v>0.01027046516537666</v>
       </c>
       <c r="S8" s="1">
-        <v>0.004036005586385727</v>
+        <v>0.00403600512072444</v>
       </c>
       <c r="T8" s="1">
         <v>0.003487973473966122</v>
@@ -21355,7 +21355,7 @@
         <v>0.002336595673114061</v>
       </c>
       <c r="S9" s="1">
-        <v>0.01673831976950169</v>
+        <v>0.01673831790685654</v>
       </c>
       <c r="T9" s="1">
         <v>0.001358829787932336</v>
@@ -21450,7 +21450,7 @@
         <v>0.002235474297776818</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0007849912508390844</v>
+        <v>0.0007849911926314235</v>
       </c>
       <c r="T10" s="1">
         <v>0.000681982550304383</v>
@@ -21483,7 +21483,7 @@
         <v>0.000693147536367178</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.0008586368057876825</v>
+        <v>0.0008586368639953434</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
@@ -21545,7 +21545,7 @@
         <v>0.001832364010624588</v>
       </c>
       <c r="S11" s="1">
-        <v>0.001943317241966724</v>
+        <v>0.001943317009136081</v>
       </c>
       <c r="T11" s="1">
         <v>0.001956327585503459</v>
@@ -21607,7 +21607,7 @@
         <v>0.005666810087859631</v>
       </c>
       <c r="H12" s="1">
-        <v>0.00810569990426302</v>
+        <v>0.008105700835585594</v>
       </c>
       <c r="I12" s="1">
         <v>0.00596767570823431</v>
@@ -21640,7 +21640,7 @@
         <v>0.01673944853246212</v>
       </c>
       <c r="S12" s="1">
-        <v>0.01209617964923382</v>
+        <v>0.01209617778658867</v>
       </c>
       <c r="T12" s="1">
         <v>0.01881342381238937</v>
@@ -21735,7 +21735,7 @@
         <v>0.01308925729244947</v>
       </c>
       <c r="S13" s="1">
-        <v>0.01537891291081905</v>
+        <v>0.0153789110481739</v>
       </c>
       <c r="T13" s="1">
         <v>0.01539723109453917</v>
@@ -21830,7 +21830,7 @@
         <v>0.002456393558532</v>
       </c>
       <c r="S14" s="1">
-        <v>0.002671608701348305</v>
+        <v>0.002671608235687017</v>
       </c>
       <c r="T14" s="1">
         <v>0.0005856928182765841</v>
@@ -21925,7 +21925,7 @@
         <v>0.00198755064047873</v>
       </c>
       <c r="S15" s="1">
-        <v>0.008754238486289978</v>
+        <v>0.008754237554967403</v>
       </c>
       <c r="T15" s="1">
         <v>0.003743575187399983</v>
@@ -22020,7 +22020,7 @@
         <v>0.02055043540894985</v>
       </c>
       <c r="S16" s="1">
-        <v>0.01316922903060913</v>
+        <v>0.01316922809928656</v>
       </c>
       <c r="T16" s="1">
         <v>0.03695724532008171</v>
@@ -22115,7 +22115,7 @@
         <v>0.005554212722927332</v>
       </c>
       <c r="S17" s="1">
-        <v>0.01647594012320042</v>
+        <v>0.01647593826055527</v>
       </c>
       <c r="T17" s="1">
         <v>0.002915333025157452</v>
@@ -22210,7 +22210,7 @@
         <v>0.01059014070779085</v>
       </c>
       <c r="S18" s="1">
-        <v>0.01724306680262089</v>
+        <v>0.01724306493997574</v>
       </c>
       <c r="T18" s="1">
         <v>0.02012030407786369</v>
@@ -22254,73 +22254,73 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.002738432958722115</v>
+        <v>0.002738433191552758</v>
       </c>
       <c r="C19" s="1">
-        <v>0.003997806459665298</v>
+        <v>0.003997807390987873</v>
       </c>
       <c r="D19" s="1">
-        <v>0.04681122303009033</v>
+        <v>0.04681122675538063</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02239201031625271</v>
+        <v>0.02239201217889786</v>
       </c>
       <c r="F19" s="1">
-        <v>0.02033364214003086</v>
+        <v>0.02033364772796631</v>
       </c>
       <c r="G19" s="1">
-        <v>0.03227142617106438</v>
+        <v>0.03227142989635468</v>
       </c>
       <c r="H19" s="1">
-        <v>0.06646419316530228</v>
+        <v>0.06646420806646347</v>
       </c>
       <c r="I19" s="1">
-        <v>0.01303150225430727</v>
+        <v>0.01303150504827499</v>
       </c>
       <c r="J19" s="1">
         <v>0.0264762919396162</v>
       </c>
       <c r="K19" s="1">
-        <v>0.0115304458886385</v>
+        <v>0.01153044775128365</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01211607083678246</v>
+        <v>0.01211607176810503</v>
       </c>
       <c r="M19" s="1">
-        <v>0.0153532549738884</v>
+        <v>0.01535325683653355</v>
       </c>
       <c r="N19" s="1">
-        <v>0.007857294753193855</v>
+        <v>0.00785729568451643</v>
       </c>
       <c r="O19" s="1">
-        <v>0.01062037330120802</v>
+        <v>0.01062037423253059</v>
       </c>
       <c r="P19" s="1">
         <v>0.009351693093776703</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.00639271130785346</v>
+        <v>0.006392711773514748</v>
       </c>
       <c r="R19" s="1">
-        <v>0.02559230104088783</v>
+        <v>0.02559230476617813</v>
       </c>
       <c r="S19" s="1">
-        <v>0.0803699716925621</v>
+        <v>0.0803699791431427</v>
       </c>
       <c r="T19" s="1">
-        <v>0.006632252596318722</v>
+        <v>0.006632253061980009</v>
       </c>
       <c r="U19" s="1">
-        <v>0.0092130396515131</v>
+        <v>0.009213041514158249</v>
       </c>
       <c r="V19" s="1">
-        <v>0.009189441800117493</v>
+        <v>0.009189442731440067</v>
       </c>
       <c r="W19" s="1">
-        <v>0.004310277290642262</v>
+        <v>0.004310277756303549</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0004385589272715151</v>
+        <v>0.000438558985479176</v>
       </c>
       <c r="Y19" s="1">
         <v>0.008421365171670914</v>
@@ -22329,16 +22329,16 @@
         <v>0.01550932787358761</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.02037590555846691</v>
+        <v>0.02037590742111206</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01106647029519081</v>
+        <v>0.01106647215783596</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01162336673587561</v>
+        <v>0.01162336766719818</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.0198946762830019</v>
+        <v>0.0198946800082922</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -22400,7 +22400,7 @@
         <v>0.003340658964589238</v>
       </c>
       <c r="S20" s="1">
-        <v>0.004848336335271597</v>
+        <v>0.004848335403949022</v>
       </c>
       <c r="T20" s="1">
         <v>0.004929748363792896</v>
@@ -22495,7 +22495,7 @@
         <v>0.006874718703329563</v>
       </c>
       <c r="S21" s="1">
-        <v>0.004496151581406593</v>
+        <v>0.004496151115745306</v>
       </c>
       <c r="T21" s="1">
         <v>0.007797607220709324</v>
@@ -22590,7 +22590,7 @@
         <v>0.003544287290424109</v>
       </c>
       <c r="S22" s="1">
-        <v>0.002524152398109436</v>
+        <v>0.002524151932448149</v>
       </c>
       <c r="T22" s="1">
         <v>0.003151694545522332</v>
@@ -22685,7 +22685,7 @@
         <v>0.03408583253622055</v>
       </c>
       <c r="S23" s="1">
-        <v>0.01571427285671234</v>
+        <v>0.01571427099406719</v>
       </c>
       <c r="T23" s="1">
         <v>0.05012829974293709</v>
@@ -22780,7 +22780,7 @@
         <v>0.000505778647493571</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0002328675909666345</v>
+        <v>0.000232867561862804</v>
       </c>
       <c r="T24" s="1">
         <v>0.0007446046220138669</v>
@@ -22875,7 +22875,7 @@
         <v>0.0115171130746603</v>
       </c>
       <c r="S25" s="1">
-        <v>0.005387139040976763</v>
+        <v>0.005387138109654188</v>
       </c>
       <c r="T25" s="1">
         <v>0.008449611254036427</v>
@@ -22970,7 +22970,7 @@
         <v>0.01295155100524426</v>
       </c>
       <c r="S26" s="1">
-        <v>0.01352635025978088</v>
+        <v>0.01352634839713573</v>
       </c>
       <c r="T26" s="1">
         <v>0.02478963881731033</v>
@@ -23065,7 +23065,7 @@
         <v>0.005432353354990482</v>
       </c>
       <c r="S27" s="1">
-        <v>0.00449850270524621</v>
+        <v>0.004498502239584923</v>
       </c>
       <c r="T27" s="1">
         <v>0.004325482994318008</v>
@@ -23160,7 +23160,7 @@
         <v>0.002435489092022181</v>
       </c>
       <c r="S28" s="1">
-        <v>0.001256381045095623</v>
+        <v>0.001256380812264979</v>
       </c>
       <c r="T28" s="1">
         <v>0.002030333271250129</v>
@@ -23255,7 +23255,7 @@
         <v>0.001447000890038908</v>
       </c>
       <c r="S29" s="1">
-        <v>0.002146993763744831</v>
+        <v>0.002146993530914187</v>
       </c>
       <c r="T29" s="1">
         <v>0.001322491094470024</v>
@@ -23350,7 +23350,7 @@
         <v>0.002557351952418685</v>
       </c>
       <c r="S30" s="1">
-        <v>0.003073780098930001</v>
+        <v>0.003073779866099358</v>
       </c>
       <c r="T30" s="1">
         <v>0.01017445884644985</v>
@@ -23504,10 +23504,10 @@
         <v>0.2426600009202957</v>
       </c>
       <c r="G32" s="1">
-        <v>0.3423689007759094</v>
+        <v>0.3423689305782318</v>
       </c>
       <c r="H32" s="1">
-        <v>0.398015558719635</v>
+        <v>0.3980155885219574</v>
       </c>
       <c r="I32" s="1">
         <v>0.1561610996723175</v>
@@ -23573,7 +23573,7 @@
         <v>0.2045691907405853</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.2216897308826447</v>
+        <v>0.221689760684967</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -23590,7 +23590,7 @@
         <v>0.1275244504213333</v>
       </c>
       <c r="D33" s="1">
-        <v>0.2262733578681946</v>
+        <v>0.2262733727693558</v>
       </c>
       <c r="E33" s="1">
         <v>0.2258607298135757</v>
@@ -23730,7 +23730,7 @@
         <v>0.05797761678695679</v>
       </c>
       <c r="S34" s="1">
-        <v>0.07354482263326645</v>
+        <v>0.07354480773210526</v>
       </c>
       <c r="T34" s="1">
         <v>0.07111789286136627</v>
@@ -23825,7 +23825,7 @@
         <v>0.002805149182677269</v>
       </c>
       <c r="S35" s="1">
-        <v>0.05145666748285294</v>
+        <v>0.05145666003227234</v>
       </c>
       <c r="T35" s="1">
         <v>0.03453163802623749</v>
@@ -23884,10 +23884,10 @@
         <v>0.7487151026725769</v>
       </c>
       <c r="G36" s="1">
-        <v>0.7156944870948792</v>
+        <v>0.7156944274902344</v>
       </c>
       <c r="H36" s="1">
-        <v>0.7743576169013977</v>
+        <v>0.7743575572967529</v>
       </c>
       <c r="I36" s="1">
         <v>0.7439335584640503</v>
@@ -23953,7 +23953,7 @@
         <v>0.3718297779560089</v>
       </c>
       <c r="AD36" s="1">
-        <v>0.4497735202312469</v>
+        <v>0.4497735500335693</v>
       </c>
       <c r="AE36" s="1">
         <v>0</v>
@@ -24015,7 +24015,7 @@
         <v>0.3786345720291138</v>
       </c>
       <c r="S37" s="1">
-        <v>0.2424720674753189</v>
+        <v>0.2424720972776413</v>
       </c>
       <c r="T37" s="1">
         <v>0.2963498532772064</v>
@@ -24300,7 +24300,7 @@
         <v>-0.001124670845456421</v>
       </c>
       <c r="S40" s="1">
-        <v>-0.002541132504120469</v>
+        <v>-0.002541132038459182</v>
       </c>
       <c r="T40" s="1">
         <v>-0.003869564039632678</v>
@@ -24395,7 +24395,7 @@
         <v>0.6138847470283508</v>
       </c>
       <c r="S41" s="1">
-        <v>0.3806292712688446</v>
+        <v>0.380629301071167</v>
       </c>
       <c r="T41" s="1">
         <v>0.4068848192691803</v>
@@ -24454,7 +24454,7 @@
         <v>1.000000953674316</v>
       </c>
       <c r="G42" s="1">
-        <v>0.9999995827674866</v>
+        <v>0.9999995231628418</v>
       </c>
       <c r="H42" s="1">
         <v>1.000000238418579</v>
@@ -25011,7 +25011,7 @@
         <v>0.00265303929336369</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.004905554000288248</v>
+        <v>0.004905554931610823</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>0.007909374311566353</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.006062855012714863</v>
+        <v>0.00606285547837615</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
@@ -25420,7 +25420,7 @@
         <v>0.002908647060394287</v>
       </c>
       <c r="H10" s="1">
-        <v>0.000361053564120084</v>
+        <v>0.000361053622327745</v>
       </c>
       <c r="I10" s="1">
         <v>0.00128633133135736</v>
@@ -25453,7 +25453,7 @@
         <v>0.001331605017185211</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0003631796280387789</v>
+        <v>0.0003631796571426094</v>
       </c>
       <c r="T10" s="1">
         <v>0.000332908210111782</v>
@@ -25797,7 +25797,7 @@
         <v>0.0002990977955050766</v>
       </c>
       <c r="G14" s="1">
-        <v>0.0001539237564429641</v>
+        <v>0.0001539237709948793</v>
       </c>
       <c r="H14" s="1">
         <v>0.0001512836752226576</v>
@@ -26257,88 +26257,88 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.005841403733938932</v>
+        <v>0.005841404665261507</v>
       </c>
       <c r="C19" s="1">
-        <v>0.006652325391769409</v>
+        <v>0.006652326323091984</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0801195427775383</v>
+        <v>0.0801195502281189</v>
       </c>
       <c r="E19" s="1">
-        <v>0.04475065320730209</v>
+        <v>0.04475065693259239</v>
       </c>
       <c r="F19" s="1">
-        <v>0.03664398938417435</v>
+        <v>0.03664399310946465</v>
       </c>
       <c r="G19" s="1">
-        <v>0.06449524313211441</v>
+        <v>0.06449525058269501</v>
       </c>
       <c r="H19" s="1">
-        <v>0.08853018283843994</v>
+        <v>0.08853019028902054</v>
       </c>
       <c r="I19" s="1">
-        <v>0.02350860647857189</v>
+        <v>0.02350860834121704</v>
       </c>
       <c r="J19" s="1">
-        <v>0.04607623443007469</v>
+        <v>0.04607624188065529</v>
       </c>
       <c r="K19" s="1">
-        <v>0.02276234515011311</v>
+        <v>0.02276235073804855</v>
       </c>
       <c r="L19" s="1">
-        <v>0.02731458656489849</v>
+        <v>0.02731459215283394</v>
       </c>
       <c r="M19" s="1">
-        <v>0.02798741869628429</v>
+        <v>0.02798742428421974</v>
       </c>
       <c r="N19" s="1">
-        <v>0.01588771119713783</v>
+        <v>0.01588771305978298</v>
       </c>
       <c r="O19" s="1">
-        <v>0.01643598265945911</v>
+        <v>0.01643598824739456</v>
       </c>
       <c r="P19" s="1">
-        <v>0.01726493425667286</v>
+        <v>0.01726493798196316</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.01215412560850382</v>
+        <v>0.01215412653982639</v>
       </c>
       <c r="R19" s="1">
-        <v>0.05952674150466919</v>
+        <v>0.05952675268054008</v>
       </c>
       <c r="S19" s="1">
-        <v>0.152727410197258</v>
+        <v>0.1527274399995804</v>
       </c>
       <c r="T19" s="1">
-        <v>0.01308583468198776</v>
+        <v>0.01308583561331034</v>
       </c>
       <c r="U19" s="1">
-        <v>0.01781468279659748</v>
+        <v>0.01781468465924263</v>
       </c>
       <c r="V19" s="1">
-        <v>0.01732896082103252</v>
+        <v>0.01732896268367767</v>
       </c>
       <c r="W19" s="1">
-        <v>0.009347319602966309</v>
+        <v>0.009347320534288883</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0009341174154542387</v>
+        <v>0.0009341174736618996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.01497785747051239</v>
+        <v>0.01497786026448011</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.02220121584832668</v>
+        <v>0.02220121771097183</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.04361415281891823</v>
+        <v>0.04361416772007942</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.02175952680408955</v>
+        <v>0.02175953052937984</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.02220525592565536</v>
+        <v>0.02220525965094566</v>
       </c>
       <c r="AD19" s="1">
         <v>0.03898383304476738</v>
@@ -27507,10 +27507,10 @@
         <v>0.2665019631385803</v>
       </c>
       <c r="G32" s="1">
-        <v>0.4639671146869659</v>
+        <v>0.4639671444892883</v>
       </c>
       <c r="H32" s="1">
-        <v>0.2291969060897827</v>
+        <v>0.2291969209909439</v>
       </c>
       <c r="I32" s="1">
         <v>0.1695418357849121</v>
@@ -27540,10 +27540,10 @@
         <v>0.2872308790683746</v>
       </c>
       <c r="R32" s="1">
-        <v>0.2162659913301468</v>
+        <v>0.2162660211324692</v>
       </c>
       <c r="S32" s="1">
-        <v>0.3086040616035461</v>
+        <v>0.3086041212081909</v>
       </c>
       <c r="T32" s="1">
         <v>0.2758983075618744</v>
@@ -27552,7 +27552,7 @@
         <v>0.1266913115978241</v>
       </c>
       <c r="V32" s="1">
-        <v>0.1426060348749161</v>
+        <v>0.1426060497760773</v>
       </c>
       <c r="W32" s="1">
         <v>0.2986701726913452</v>
@@ -27567,7 +27567,7 @@
         <v>0.1299335807561874</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.2046691328287125</v>
+        <v>0.2046691477298737</v>
       </c>
       <c r="AB32" s="1">
         <v>0.1255321353673935</v>
@@ -27593,34 +27593,34 @@
         <v>0.08209714293479919</v>
       </c>
       <c r="D33" s="1">
-        <v>0.218281164765358</v>
+        <v>0.2182811498641968</v>
       </c>
       <c r="E33" s="1">
         <v>0.2617426812648773</v>
       </c>
       <c r="F33" s="1">
-        <v>0.2283286452293396</v>
+        <v>0.2283286303281784</v>
       </c>
       <c r="G33" s="1">
-        <v>0.2174186706542969</v>
+        <v>0.2174186557531357</v>
       </c>
       <c r="H33" s="1">
-        <v>0.2401342242956161</v>
+        <v>0.240134209394455</v>
       </c>
       <c r="I33" s="1">
         <v>0.1896792203187943</v>
       </c>
       <c r="J33" s="1">
-        <v>0.1815502792596817</v>
+        <v>0.1815502643585205</v>
       </c>
       <c r="K33" s="1">
-        <v>0.1742294579744339</v>
+        <v>0.1742294430732727</v>
       </c>
       <c r="L33" s="1">
         <v>0.3412039577960968</v>
       </c>
       <c r="M33" s="1">
-        <v>0.2757322192192078</v>
+        <v>0.2757321894168854</v>
       </c>
       <c r="N33" s="1">
         <v>0.2416035085916519</v>
@@ -27635,10 +27635,10 @@
         <v>0.1982197910547256</v>
       </c>
       <c r="R33" s="1">
-        <v>0.1807157099246979</v>
+        <v>0.1807156950235367</v>
       </c>
       <c r="S33" s="1">
-        <v>0.1851790100336075</v>
+        <v>0.1851789802312851</v>
       </c>
       <c r="T33" s="1">
         <v>0.2098455131053925</v>
@@ -27665,7 +27665,7 @@
         <v>0.1696537435054779</v>
       </c>
       <c r="AB33" s="1">
-        <v>0.09062144905328751</v>
+        <v>0.09062144160270691</v>
       </c>
       <c r="AC33" s="1">
         <v>0.1016020998358727</v>
@@ -27878,7 +27878,7 @@
         <v>0.2707969546318054</v>
       </c>
       <c r="D36" s="1">
-        <v>0.7017863988876343</v>
+        <v>0.7017863392829895</v>
       </c>
       <c r="E36" s="1">
         <v>0.7960942983627319</v>
@@ -27887,7 +27887,7 @@
         <v>0.6927105188369751</v>
       </c>
       <c r="G36" s="1">
-        <v>0.7471966743469238</v>
+        <v>0.7471967339515686</v>
       </c>
       <c r="H36" s="1">
         <v>0.5418897867202759</v>
@@ -27896,7 +27896,7 @@
         <v>0.69901442527771</v>
       </c>
       <c r="J36" s="1">
-        <v>0.5255276560783386</v>
+        <v>0.5255275964736938</v>
       </c>
       <c r="K36" s="1">
         <v>0.6979655623435974</v>
@@ -27905,7 +27905,7 @@
         <v>0.8001010417938232</v>
       </c>
       <c r="M36" s="1">
-        <v>0.6741397380828857</v>
+        <v>0.674139678478241</v>
       </c>
       <c r="N36" s="1">
         <v>0.7326157093048096</v>
@@ -27923,7 +27923,7 @@
         <v>0.4714851975440979</v>
       </c>
       <c r="S36" s="1">
-        <v>0.6193389296531677</v>
+        <v>0.6193389892578125</v>
       </c>
       <c r="T36" s="1">
         <v>0.5914192199707031</v>
@@ -27932,7 +27932,7 @@
         <v>0.4254893958568573</v>
       </c>
       <c r="V36" s="1">
-        <v>0.4971485137939453</v>
+        <v>0.4971484839916229</v>
       </c>
       <c r="W36" s="1">
         <v>0.6493123173713684</v>
@@ -27947,7 +27947,7 @@
         <v>0.3282711505889893</v>
       </c>
       <c r="AA36" s="1">
-        <v>0.4752397537231445</v>
+        <v>0.4752397239208221</v>
       </c>
       <c r="AB36" s="1">
         <v>0.2609629034996033</v>
@@ -28457,7 +28457,7 @@
         <v>1.000000834465027</v>
       </c>
       <c r="G42" s="1">
-        <v>0.9999992847442627</v>
+        <v>0.9999994039535522</v>
       </c>
       <c r="H42" s="1">
         <v>1.000000238418579</v>
@@ -28466,7 +28466,7 @@
         <v>1.000000238418579</v>
       </c>
       <c r="J42" s="1">
-        <v>0.9999997615814209</v>
+        <v>0.9999996423721313</v>
       </c>
       <c r="K42" s="1">
         <v>0.9999998807907104</v>
@@ -28475,7 +28475,7 @@
         <v>0.9999997615814209</v>
       </c>
       <c r="M42" s="1">
-        <v>1.00000011920929</v>
+        <v>1</v>
       </c>
       <c r="N42" s="1">
         <v>1.000000238418579</v>
@@ -29008,7 +29008,7 @@
         <v>0.002610433381050825</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.002135792979970574</v>
+        <v>0.002135793212801218</v>
       </c>
       <c r="AC5" s="1">
         <v>0.002555996412411332</v>
@@ -29768,13 +29768,13 @@
         <v>0.000579252140596509</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.0002220723399659619</v>
+        <v>0.0002220723254140466</v>
       </c>
       <c r="AC13" s="1">
         <v>0.0003834533854387701</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.0005021443939767778</v>
+        <v>0.0005021443357691169</v>
       </c>
       <c r="AE13" s="1">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>9.98660980258137e-05</v>
       </c>
       <c r="J14" s="1">
-        <v>0.0001868952967924997</v>
+        <v>0.0001868952822405845</v>
       </c>
       <c r="K14" s="1">
         <v>0.0004597004735842347</v>
@@ -30260,13 +30260,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.005399171262979507</v>
+        <v>0.005399171728640795</v>
       </c>
       <c r="C19" s="1">
-        <v>0.005216632038354874</v>
+        <v>0.005216632969677448</v>
       </c>
       <c r="D19" s="1">
-        <v>0.05555038899183273</v>
+        <v>0.05555039271712303</v>
       </c>
       <c r="E19" s="1">
         <v>0.03588476032018661</v>
@@ -30281,7 +30281,7 @@
         <v>0.1025502681732178</v>
       </c>
       <c r="I19" s="1">
-        <v>0.02152230031788349</v>
+        <v>0.02152230218052864</v>
       </c>
       <c r="J19" s="1">
         <v>0.04496414959430695</v>
@@ -30290,7 +30290,7 @@
         <v>0.01843877509236336</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01754946261644363</v>
+        <v>0.01754946634173393</v>
       </c>
       <c r="M19" s="1">
         <v>0.02041851915419102</v>
@@ -30299,10 +30299,10 @@
         <v>0.01208258513361216</v>
       </c>
       <c r="O19" s="1">
-        <v>0.0135069414973259</v>
+        <v>0.01350694242864847</v>
       </c>
       <c r="P19" s="1">
-        <v>0.01032215263694525</v>
+        <v>0.01032215356826782</v>
       </c>
       <c r="Q19" s="1">
         <v>0.009359460324048996</v>
@@ -30326,22 +30326,22 @@
         <v>0.004973303526639938</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0005664327763952315</v>
+        <v>0.0005664328346028924</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.01146917045116425</v>
+        <v>0.01146917231380939</v>
       </c>
       <c r="Z19" s="1">
         <v>0.01908978819847107</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.03098832443356514</v>
+        <v>0.03098832815885544</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01641672477126122</v>
+        <v>0.01641672290861607</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01596440374851227</v>
+        <v>0.01596440561115742</v>
       </c>
       <c r="AD19" s="1">
         <v>0.02985609881579876</v>
@@ -31602,19 +31602,19 @@
         <v>0.192429706454277</v>
       </c>
       <c r="F33" s="1">
-        <v>0.1494243592023849</v>
+        <v>0.1494243443012238</v>
       </c>
       <c r="G33" s="1">
         <v>0.1787081807851791</v>
       </c>
       <c r="H33" s="1">
-        <v>0.2079520523548126</v>
+        <v>0.2079520374536514</v>
       </c>
       <c r="I33" s="1">
         <v>0.1772925704717636</v>
       </c>
       <c r="J33" s="1">
-        <v>0.1634216457605362</v>
+        <v>0.163421630859375</v>
       </c>
       <c r="K33" s="1">
         <v>0.124277725815773</v>
@@ -31629,19 +31629,19 @@
         <v>0.1876006573438644</v>
       </c>
       <c r="O33" s="1">
-        <v>0.1343581527471542</v>
+        <v>0.134358137845993</v>
       </c>
       <c r="P33" s="1">
         <v>0.0873931497335434</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.1146956235170364</v>
+        <v>0.1146956160664558</v>
       </c>
       <c r="R33" s="1">
-        <v>0.1073707863688469</v>
+        <v>0.1073707789182663</v>
       </c>
       <c r="S33" s="1">
-        <v>0.1505486518144608</v>
+        <v>0.1505486369132996</v>
       </c>
       <c r="T33" s="1">
         <v>0.1216153651475906</v>
@@ -31662,13 +31662,13 @@
         <v>0.07890035212039948</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.08274205029010773</v>
+        <v>0.08274204283952713</v>
       </c>
       <c r="AA33" s="1">
         <v>0.08010534942150116</v>
       </c>
       <c r="AB33" s="1">
-        <v>0.04608676955103874</v>
+        <v>0.04608676582574844</v>
       </c>
       <c r="AC33" s="1">
         <v>0.05740439891815186</v>
@@ -31700,7 +31700,7 @@
         <v>0.1750077456235886</v>
       </c>
       <c r="G34" s="1">
-        <v>0.0661429688334465</v>
+        <v>0.06614296138286591</v>
       </c>
       <c r="H34" s="1">
         <v>0.1039931625127792</v>
@@ -31736,7 +31736,7 @@
         <v>0.07240132242441177</v>
       </c>
       <c r="S34" s="1">
-        <v>0.06350330263376236</v>
+        <v>0.06350329518318176</v>
       </c>
       <c r="T34" s="1">
         <v>0.07016859203577042</v>
@@ -31757,10 +31757,10 @@
         <v>0.06392147392034531</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.05277402698993683</v>
+        <v>0.05277402326464653</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.04166781157255173</v>
+        <v>0.04166780784726143</v>
       </c>
       <c r="AB34" s="1">
         <v>0.01968608051538467</v>
@@ -32021,7 +32021,7 @@
         <v>0.3262217342853546</v>
       </c>
       <c r="S37" s="1">
-        <v>0.2974963188171387</v>
+        <v>0.2974963784217834</v>
       </c>
       <c r="T37" s="1">
         <v>0.3083424270153046</v>
@@ -32116,7 +32116,7 @@
         <v>0.1869618147611618</v>
       </c>
       <c r="S38" s="1">
-        <v>0.1549992710351944</v>
+        <v>0.1549993008375168</v>
       </c>
       <c r="T38" s="1">
         <v>0.09833446145057678</v>
@@ -32401,7 +32401,7 @@
         <v>0.5122939944267273</v>
       </c>
       <c r="S41" s="1">
-        <v>0.4496961534023285</v>
+        <v>0.449696272611618</v>
       </c>
       <c r="T41" s="1">
         <v>0.4033508598804474</v>
@@ -32496,7 +32496,7 @@
         <v>0.9999997019767761</v>
       </c>
       <c r="S42" s="1">
-        <v>0.9999998807907104</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>1.00000011920929</v>
@@ -32699,7 +32699,7 @@
         <v>0.001300540054216981</v>
       </c>
       <c r="S2" s="1">
-        <v>0.001107706455513835</v>
+        <v>0.001107706571929157</v>
       </c>
       <c r="T2" s="1">
         <v>0.0133865000680089</v>
@@ -32945,10 +32945,10 @@
         <v>0.00902798306196928</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0003950642130803317</v>
+        <v>0.0003950642421841621</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0001802762853913009</v>
+        <v>0.0001802763144951314</v>
       </c>
       <c r="H5" s="1">
         <v>0.0003979831817559898</v>
@@ -32981,10 +32981,10 @@
         <v>0.0002802773960866034</v>
       </c>
       <c r="R5" s="1">
-        <v>0.0002562999434303492</v>
+        <v>0.0002562999725341797</v>
       </c>
       <c r="S5" s="1">
-        <v>0.0003394204250071198</v>
+        <v>0.0003394204541109502</v>
       </c>
       <c r="T5" s="1">
         <v>0.008543205447494984</v>
@@ -32999,10 +32999,10 @@
         <v>0.0004046603571623564</v>
       </c>
       <c r="X5" s="1">
-        <v>2.080119884340093e-05</v>
+        <v>2.080120066239033e-05</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000909109425265342</v>
+        <v>0.0009091094834730029</v>
       </c>
       <c r="Z5" s="1">
         <v>0.0007994943298399448</v>
@@ -33017,7 +33017,7 @@
         <v>0.0003373030922375619</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.0005973366205580533</v>
+        <v>0.0005973366787657142</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>5.562392743740929e-06</v>
+        <v>5.562392288993578e-06</v>
       </c>
       <c r="C6" s="1">
         <v>2.266798674099846e-06</v>
@@ -33079,7 +33079,7 @@
         <v>2.452129592711572e-05</v>
       </c>
       <c r="S6" s="1">
-        <v>1.134651301981648e-05</v>
+        <v>1.134651392931119e-05</v>
       </c>
       <c r="T6" s="1">
         <v>9.28222289076075e-06</v>
@@ -33156,7 +33156,7 @@
         <v>0.0006947527872398496</v>
       </c>
       <c r="M7" s="1">
-        <v>0.0004864661314059049</v>
+        <v>0.0004864661605097353</v>
       </c>
       <c r="N7" s="1">
         <v>0.001634931424632668</v>
@@ -33174,7 +33174,7 @@
         <v>0.001438041683286428</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0006492939428426325</v>
+        <v>0.0006492940010502934</v>
       </c>
       <c r="T7" s="1">
         <v>0.0006668441346846521</v>
@@ -33198,7 +33198,7 @@
         <v>0.0009887331398203969</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.000490601290948689</v>
+        <v>0.0004906013491563499</v>
       </c>
       <c r="AB7" s="1">
         <v>0.0004209294565953314</v>
@@ -33218,7 +33218,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0001786770008038729</v>
+        <v>0.0001786769717000425</v>
       </c>
       <c r="C8" s="1">
         <v>0.0001149084928329103</v>
@@ -33269,10 +33269,10 @@
         <v>0.0006654083845205605</v>
       </c>
       <c r="S8" s="1">
-        <v>0.0001655725354794413</v>
+        <v>0.0001655725500313565</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000173531414475292</v>
+        <v>0.0001735313999233767</v>
       </c>
       <c r="U8" s="1">
         <v>0.001584897865541279</v>
@@ -33337,7 +33337,7 @@
         <v>0.0001420951157342643</v>
       </c>
       <c r="J9" s="1">
-        <v>0.0002302844659425318</v>
+        <v>0.0002302844950463623</v>
       </c>
       <c r="K9" s="1">
         <v>8.556433749618009e-05</v>
@@ -33408,10 +33408,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0005575768300332129</v>
+        <v>0.000557576771825552</v>
       </c>
       <c r="C10" s="1">
-        <v>9.02164974831976e-05</v>
+        <v>9.021651203511283e-05</v>
       </c>
       <c r="D10" s="1">
         <v>0.01423768047243357</v>
@@ -33459,10 +33459,10 @@
         <v>0.001267894171178341</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0003307170991320163</v>
+        <v>0.0003307171573396772</v>
       </c>
       <c r="T10" s="1">
-        <v>0.0004179234092589468</v>
+        <v>0.0004179233801551163</v>
       </c>
       <c r="U10" s="1">
         <v>0.0006064504268579185</v>
@@ -33492,7 +33492,7 @@
         <v>0.0003774650976993144</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.0004797579313162714</v>
+        <v>0.0004797578731086105</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
@@ -33503,7 +33503,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0006794804940000176</v>
+        <v>0.0006794804357923567</v>
       </c>
       <c r="C11" s="1">
         <v>5.320373384165578e-05</v>
@@ -33554,7 +33554,7 @@
         <v>0.000478951318655163</v>
       </c>
       <c r="S11" s="1">
-        <v>0.0004608448944054544</v>
+        <v>0.0004608449235092849</v>
       </c>
       <c r="T11" s="1">
         <v>0.0004574046470224857</v>
@@ -33699,7 +33699,7 @@
         <v>7.865451334509999e-05</v>
       </c>
       <c r="D13" s="1">
-        <v>0.001554366666823626</v>
+        <v>0.001554366783238947</v>
       </c>
       <c r="E13" s="1">
         <v>0.0003657601773738861</v>
@@ -33714,7 +33714,7 @@
         <v>0.0003527258231770247</v>
       </c>
       <c r="I13" s="1">
-        <v>4.691187496064231e-05</v>
+        <v>4.691187859862112e-05</v>
       </c>
       <c r="J13" s="1">
         <v>0.0006821296410635114</v>
@@ -33744,7 +33744,7 @@
         <v>0.0004543572431430221</v>
       </c>
       <c r="S13" s="1">
-        <v>0.0004461918724700809</v>
+        <v>0.0004461919015739113</v>
       </c>
       <c r="T13" s="1">
         <v>0.0004914972232654691</v>
@@ -33806,7 +33806,7 @@
         <v>0.0005826842389069498</v>
       </c>
       <c r="H14" s="1">
-        <v>0.0004134500049985945</v>
+        <v>0.000413450034102425</v>
       </c>
       <c r="I14" s="1">
         <v>0.0001084924442693591</v>
@@ -33839,7 +33839,7 @@
         <v>0.00353462970815599</v>
       </c>
       <c r="S14" s="1">
-        <v>0.003119749715551734</v>
+        <v>0.003119749948382378</v>
       </c>
       <c r="T14" s="1">
         <v>0.0008449050947092474</v>
@@ -33934,7 +33934,7 @@
         <v>0.001168395858258009</v>
       </c>
       <c r="S15" s="1">
-        <v>0.004247164353728294</v>
+        <v>0.004247164819389582</v>
       </c>
       <c r="T15" s="1">
         <v>0.002216165419667959</v>
@@ -34029,7 +34029,7 @@
         <v>0.02403995580971241</v>
       </c>
       <c r="S16" s="1">
-        <v>0.01249108742922544</v>
+        <v>0.01249108836054802</v>
       </c>
       <c r="T16" s="1">
         <v>0.0419822558760643</v>
@@ -34124,7 +34124,7 @@
         <v>0.005996820982545614</v>
       </c>
       <c r="S17" s="1">
-        <v>0.01431679725646973</v>
+        <v>0.01431679911911488</v>
       </c>
       <c r="T17" s="1">
         <v>0.003101751208305359</v>
@@ -34168,7 +34168,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.03970148414373398</v>
+        <v>0.03970147669315338</v>
       </c>
       <c r="C18" s="1">
         <v>0.01268170215189457</v>
@@ -34219,7 +34219,7 @@
         <v>0.01519053056836128</v>
       </c>
       <c r="S18" s="1">
-        <v>0.02154158987104893</v>
+        <v>0.02154159173369408</v>
       </c>
       <c r="T18" s="1">
         <v>0.03029408119618893</v>
@@ -34252,7 +34252,7 @@
         <v>0.008664296939969063</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.01391527522355318</v>
+        <v>0.01391527429223061</v>
       </c>
       <c r="AE18" s="1">
         <v>0</v>
@@ -34263,91 +34263,91 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.004996606148779392</v>
+        <v>0.00499660661444068</v>
       </c>
       <c r="C19" s="1">
-        <v>0.004477716982364655</v>
+        <v>0.004477717913687229</v>
       </c>
       <c r="D19" s="1">
-        <v>0.06500257551670074</v>
+        <v>0.06500258296728134</v>
       </c>
       <c r="E19" s="1">
         <v>0.02270259521901608</v>
       </c>
       <c r="F19" s="1">
-        <v>0.02273494377732277</v>
+        <v>0.02273494563996792</v>
       </c>
       <c r="G19" s="1">
-        <v>0.04957814514636993</v>
+        <v>0.04957814887166023</v>
       </c>
       <c r="H19" s="1">
-        <v>0.06097657233476639</v>
+        <v>0.06097657978534698</v>
       </c>
       <c r="I19" s="1">
-        <v>0.00365526438690722</v>
+        <v>0.003655264852568507</v>
       </c>
       <c r="J19" s="1">
-        <v>0.03574754297733307</v>
+        <v>0.03574755042791367</v>
       </c>
       <c r="K19" s="1">
-        <v>0.01236326061189175</v>
+        <v>0.01236326154321432</v>
       </c>
       <c r="L19" s="1">
-        <v>0.007397391833364964</v>
+        <v>0.007397392764687538</v>
       </c>
       <c r="M19" s="1">
-        <v>0.01481328438967466</v>
+        <v>0.01481328625231981</v>
       </c>
       <c r="N19" s="1">
-        <v>0.01091244537383318</v>
+        <v>0.01091244630515575</v>
       </c>
       <c r="O19" s="1">
-        <v>0.01268777903169394</v>
+        <v>0.01268777996301651</v>
       </c>
       <c r="P19" s="1">
-        <v>0.0101309260353446</v>
+        <v>0.01013092696666718</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.008268403820693493</v>
+        <v>0.008268404752016068</v>
       </c>
       <c r="R19" s="1">
-        <v>0.03585898131132126</v>
+        <v>0.03585898503661156</v>
       </c>
       <c r="S19" s="1">
-        <v>0.0909392312169075</v>
+        <v>0.0909392461180687</v>
       </c>
       <c r="T19" s="1">
-        <v>0.009368720464408398</v>
+        <v>0.009368718601763248</v>
       </c>
       <c r="U19" s="1">
-        <v>0.01459186431020498</v>
+        <v>0.01459186524152756</v>
       </c>
       <c r="V19" s="1">
-        <v>0.01177455484867096</v>
+        <v>0.01177455577999353</v>
       </c>
       <c r="W19" s="1">
-        <v>0.004200899973511696</v>
+        <v>0.004200900439172983</v>
       </c>
       <c r="X19" s="1">
         <v>0.000518643471878022</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.01317252684384584</v>
+        <v>0.01317252870649099</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.01733683049678802</v>
+        <v>0.01733683235943317</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.02180592343211174</v>
+        <v>0.02180592715740204</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01528829522430897</v>
+        <v>0.01528829615563154</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01651231944561005</v>
+        <v>0.0165123213082552</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.02725725993514061</v>
+        <v>0.02725726366043091</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -34409,7 +34409,7 @@
         <v>0.003596898168325424</v>
       </c>
       <c r="S20" s="1">
-        <v>0.00411180080845952</v>
+        <v>0.004111801274120808</v>
       </c>
       <c r="T20" s="1">
         <v>0.005208219401538372</v>
@@ -34453,7 +34453,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.00101823837030679</v>
+        <v>0.001018238253891468</v>
       </c>
       <c r="C21" s="1">
         <v>0.0003893228713423014</v>
@@ -34504,7 +34504,7 @@
         <v>0.004260297864675522</v>
       </c>
       <c r="S21" s="1">
-        <v>0.002221007365733385</v>
+        <v>0.002221007598564029</v>
       </c>
       <c r="T21" s="1">
         <v>0.004631548188626766</v>
@@ -34599,7 +34599,7 @@
         <v>0.002584730507805943</v>
       </c>
       <c r="S22" s="1">
-        <v>0.00146691664122045</v>
+        <v>0.001466916757635772</v>
       </c>
       <c r="T22" s="1">
         <v>0.002285909838974476</v>
@@ -34694,7 +34694,7 @@
         <v>0.04945934563875198</v>
       </c>
       <c r="S23" s="1">
-        <v>0.01833461783826351</v>
+        <v>0.01833461970090866</v>
       </c>
       <c r="T23" s="1">
         <v>0.07219273597002029</v>
@@ -34789,7 +34789,7 @@
         <v>0.000637990131508559</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0002362570958212018</v>
+        <v>0.0002362571249250323</v>
       </c>
       <c r="T24" s="1">
         <v>0.0009321823017671704</v>
@@ -34884,7 +34884,7 @@
         <v>0.02212422154843807</v>
       </c>
       <c r="S25" s="1">
-        <v>0.00823783315718174</v>
+        <v>0.008237834088504314</v>
       </c>
       <c r="T25" s="1">
         <v>0.01573668234050274</v>
@@ -34979,7 +34979,7 @@
         <v>0.02139368653297424</v>
       </c>
       <c r="S26" s="1">
-        <v>0.01793835684657097</v>
+        <v>0.01793835870921612</v>
       </c>
       <c r="T26" s="1">
         <v>0.04074867814779282</v>
@@ -35074,7 +35074,7 @@
         <v>0.01353878527879715</v>
       </c>
       <c r="S27" s="1">
-        <v>0.008738108910620213</v>
+        <v>0.008738109841942787</v>
       </c>
       <c r="T27" s="1">
         <v>0.01126451976597309</v>
@@ -35169,7 +35169,7 @@
         <v>0.002905862173065543</v>
       </c>
       <c r="S28" s="1">
-        <v>0.001142643042840064</v>
+        <v>0.001142643159255385</v>
       </c>
       <c r="T28" s="1">
         <v>0.002232077531516552</v>
@@ -35264,7 +35264,7 @@
         <v>0.001635150169022381</v>
       </c>
       <c r="S29" s="1">
-        <v>0.001797780860215425</v>
+        <v>0.001797780976630747</v>
       </c>
       <c r="T29" s="1">
         <v>0.001539105898700655</v>
@@ -35359,7 +35359,7 @@
         <v>0.00437703775241971</v>
       </c>
       <c r="S30" s="1">
-        <v>0.00431491993367672</v>
+        <v>0.004314920399338007</v>
       </c>
       <c r="T30" s="1">
         <v>0.01720784604549408</v>
@@ -35510,19 +35510,19 @@
         <v>0.2288089841604233</v>
       </c>
       <c r="F32" s="1">
-        <v>0.1815921664237976</v>
+        <v>0.1815921813249588</v>
       </c>
       <c r="G32" s="1">
         <v>0.5586360096931458</v>
       </c>
       <c r="H32" s="1">
-        <v>0.2177706658840179</v>
+        <v>0.2177706807851791</v>
       </c>
       <c r="I32" s="1">
         <v>0.02997968904674053</v>
       </c>
       <c r="J32" s="1">
-        <v>0.2234078049659729</v>
+        <v>0.2234078198671341</v>
       </c>
       <c r="K32" s="1">
         <v>0.1868171095848083</v>
@@ -35537,7 +35537,7 @@
         <v>0.2371021211147308</v>
       </c>
       <c r="O32" s="1">
-        <v>0.2377871721982956</v>
+        <v>0.237787202000618</v>
       </c>
       <c r="P32" s="1">
         <v>0.2181146144866943</v>
@@ -35549,7 +35549,7 @@
         <v>0.2302150726318359</v>
       </c>
       <c r="S32" s="1">
-        <v>0.2251465618610382</v>
+        <v>0.2251465916633606</v>
       </c>
       <c r="T32" s="1">
         <v>0.3036690950393677</v>
@@ -35593,7 +35593,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.2946290671825409</v>
+        <v>0.2946290373802185</v>
       </c>
       <c r="C33" s="1">
         <v>0.07922058552503586</v>
@@ -35602,13 +35602,13 @@
         <v>0.2546237707138062</v>
       </c>
       <c r="E33" s="1">
-        <v>0.2839554846286774</v>
+        <v>0.283955454826355</v>
       </c>
       <c r="F33" s="1">
         <v>0.2862663567066193</v>
       </c>
       <c r="G33" s="1">
-        <v>0.2226286828517914</v>
+        <v>0.2226286679506302</v>
       </c>
       <c r="H33" s="1">
         <v>0.2654594480991364</v>
@@ -35617,7 +35617,7 @@
         <v>0.05381641909480095</v>
       </c>
       <c r="J33" s="1">
-        <v>0.2378957569599152</v>
+        <v>0.237895742058754</v>
       </c>
       <c r="K33" s="1">
         <v>0.2235030978918076</v>
@@ -35635,16 +35635,16 @@
         <v>0.2376801073551178</v>
       </c>
       <c r="P33" s="1">
-        <v>0.1379183977842331</v>
+        <v>0.1379183828830719</v>
       </c>
       <c r="Q33" s="1">
         <v>0.2146236449480057</v>
       </c>
       <c r="R33" s="1">
-        <v>0.1293571144342422</v>
+        <v>0.1293570995330811</v>
       </c>
       <c r="S33" s="1">
-        <v>0.2157432734966278</v>
+        <v>0.215743288397789</v>
       </c>
       <c r="T33" s="1">
         <v>0.2329497337341309</v>
@@ -35674,10 +35674,10 @@
         <v>0.08687571436166763</v>
       </c>
       <c r="AC33" s="1">
-        <v>0.1133738458156586</v>
+        <v>0.113373838365078</v>
       </c>
       <c r="AD33" s="1">
-        <v>0.1589845269918442</v>
+        <v>0.158984512090683</v>
       </c>
       <c r="AE33" s="1">
         <v>0</v>
@@ -35834,7 +35834,7 @@
         <v>0.003092088969424367</v>
       </c>
       <c r="S35" s="1">
-        <v>0.04562048614025116</v>
+        <v>0.04562048986554146</v>
       </c>
       <c r="T35" s="1">
         <v>0.0377776212990284</v>
@@ -35890,7 +35890,7 @@
         <v>0.5965391993522644</v>
       </c>
       <c r="F36" s="1">
-        <v>0.6338086724281311</v>
+        <v>0.6338087320327759</v>
       </c>
       <c r="G36" s="1">
         <v>0.854401171207428</v>
@@ -35902,7 +35902,7 @@
         <v>0.159255251288414</v>
       </c>
       <c r="J36" s="1">
-        <v>0.6055702567100525</v>
+        <v>0.6055703163146973</v>
       </c>
       <c r="K36" s="1">
         <v>0.5596704483032227</v>
@@ -35920,7 +35920,7 @@
         <v>0.6033161282539368</v>
       </c>
       <c r="P36" s="1">
-        <v>0.5070376992225647</v>
+        <v>0.5070376396179199</v>
       </c>
       <c r="Q36" s="1">
         <v>0.5948410034179688</v>
@@ -35929,7 +35929,7 @@
         <v>0.4256901741027832</v>
       </c>
       <c r="S36" s="1">
-        <v>0.549258828163147</v>
+        <v>0.5492589473724365</v>
       </c>
       <c r="T36" s="1">
         <v>0.6501673460006714</v>
@@ -35959,7 +35959,7 @@
         <v>0.2778112292289734</v>
       </c>
       <c r="AC36" s="1">
-        <v>0.4187533855438232</v>
+        <v>0.4187533259391785</v>
       </c>
       <c r="AD36" s="1">
         <v>0.4859181642532349</v>
@@ -36024,7 +36024,7 @@
         <v>0.4045542180538177</v>
       </c>
       <c r="S37" s="1">
-        <v>0.3051758408546448</v>
+        <v>0.3051758110523224</v>
       </c>
       <c r="T37" s="1">
         <v>0.3498329818248749</v>
@@ -36119,7 +36119,7 @@
         <v>0.1705668866634369</v>
       </c>
       <c r="S38" s="1">
-        <v>0.1482425183057785</v>
+        <v>0.1482425034046173</v>
       </c>
       <c r="T38" s="1">
         <v>0</v>
@@ -36309,7 +36309,7 @@
         <v>-0.00081155716907233</v>
       </c>
       <c r="S40" s="1">
-        <v>-0.002677386160939932</v>
+        <v>-0.002677386393770576</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
@@ -36404,7 +36404,7 @@
         <v>0.5743095278739929</v>
       </c>
       <c r="S41" s="1">
-        <v>0.4507409930229187</v>
+        <v>0.4507409334182739</v>
       </c>
       <c r="T41" s="1">
         <v>0.3498329818248749</v>
@@ -36490,7 +36490,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>1.000000238418579</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="Q42" s="1">
         <v>1.00000011920929</v>
@@ -36499,7 +36499,7 @@
         <v>0.9999997019767761</v>
       </c>
       <c r="S42" s="1">
-        <v>0.9999998211860657</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="T42" s="1">
         <v>1.000000357627869</v>
@@ -36936,7 +36936,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.009644933976233006</v>
+        <v>0.00964493490755558</v>
       </c>
       <c r="C5" s="1">
         <v>0.0001905749668367207</v>
@@ -36957,7 +36957,7 @@
         <v>0.0009190514101646841</v>
       </c>
       <c r="I5" s="1">
-        <v>0.001931401435285807</v>
+        <v>0.001931401551701128</v>
       </c>
       <c r="J5" s="1">
         <v>0.0001486907567596063</v>
@@ -36996,13 +36996,13 @@
         <v>0.0006535280845128</v>
       </c>
       <c r="V5" s="1">
-        <v>0.0004630983457900584</v>
+        <v>0.0004630983748938888</v>
       </c>
       <c r="W5" s="1">
         <v>0.0006930518429726362</v>
       </c>
       <c r="X5" s="1">
-        <v>2.756150934146717e-05</v>
+        <v>2.756151116045658e-05</v>
       </c>
       <c r="Y5" s="1">
         <v>0.0009327654261142015</v>
@@ -37489,7 +37489,7 @@
         <v>0.000325178902130574</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.0001111119854613207</v>
+        <v>0.0001111119927372783</v>
       </c>
       <c r="AC10" s="1">
         <v>0.0002961382269859314</v>
@@ -37587,7 +37587,7 @@
         <v>0.004514351487159729</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.003703352529555559</v>
+        <v>0.003703352762386203</v>
       </c>
       <c r="AD11" s="1">
         <v>0.009619761258363724</v>
@@ -38269,19 +38269,19 @@
         <v>0.004637180361896753</v>
       </c>
       <c r="C19" s="1">
-        <v>0.00341378222219646</v>
+        <v>0.003413782455027103</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03956527262926102</v>
+        <v>0.03956527635455132</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02492930367588997</v>
+        <v>0.02492930553853512</v>
       </c>
       <c r="F19" s="1">
-        <v>0.01751234568655491</v>
+        <v>0.01751234754920006</v>
       </c>
       <c r="G19" s="1">
-        <v>0.03987444564700127</v>
+        <v>0.03987444937229156</v>
       </c>
       <c r="H19" s="1">
         <v>0.0726504772901535</v>
@@ -38290,28 +38290,28 @@
         <v>0.01116149500012398</v>
       </c>
       <c r="J19" s="1">
-        <v>0.0290509108453989</v>
+        <v>0.0290509145706892</v>
       </c>
       <c r="K19" s="1">
         <v>0.01557844504714012</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01171448081731796</v>
+        <v>0.01171448174864054</v>
       </c>
       <c r="M19" s="1">
         <v>0.01375178340822458</v>
       </c>
       <c r="N19" s="1">
-        <v>0.009035863913595676</v>
+        <v>0.009035864844918251</v>
       </c>
       <c r="O19" s="1">
-        <v>0.00946040078997612</v>
+        <v>0.009460401721298695</v>
       </c>
       <c r="P19" s="1">
-        <v>0.008774520829319954</v>
+        <v>0.008774521760642529</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.006722030695527792</v>
+        <v>0.006722031161189079</v>
       </c>
       <c r="R19" s="1">
         <v>0.03120333887636662</v>
@@ -38320,10 +38320,10 @@
         <v>0.07081706076860428</v>
       </c>
       <c r="T19" s="1">
-        <v>0.007839291356503963</v>
+        <v>0.007839292287826538</v>
       </c>
       <c r="U19" s="1">
-        <v>0.01157709956169128</v>
+        <v>0.01157710049301386</v>
       </c>
       <c r="V19" s="1">
         <v>0.00974138081073761</v>
@@ -38335,22 +38335,22 @@
         <v>0.0004692337533924729</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.008434244431555271</v>
+        <v>0.008434245362877846</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.01562797278165817</v>
+        <v>0.01562797464430332</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.02157862856984138</v>
+        <v>0.02157863043248653</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01174458581954241</v>
+        <v>0.01174458675086498</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01125486008822918</v>
+        <v>0.01125486101955175</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.021093575283885</v>
+        <v>0.02109357714653015</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -39041,7 +39041,7 @@
         <v>0.0157237071543932</v>
       </c>
       <c r="G27" s="1">
-        <v>0.0110862934961915</v>
+        <v>0.01108629442751408</v>
       </c>
       <c r="H27" s="1">
         <v>0.008504386991262436</v>
@@ -39608,7 +39608,7 @@
         <v>0.3877029120922089</v>
       </c>
       <c r="F33" s="1">
-        <v>0.2471278607845306</v>
+        <v>0.2471278458833694</v>
       </c>
       <c r="G33" s="1">
         <v>0.2802414000034332</v>
@@ -39617,7 +39617,7 @@
         <v>0.2923856973648071</v>
       </c>
       <c r="I33" s="1">
-        <v>0.1932981610298157</v>
+        <v>0.1932981759309769</v>
       </c>
       <c r="J33" s="1">
         <v>0.2251359075307846</v>
@@ -39671,10 +39671,10 @@
         <v>0.1786615699529648</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.1489073485136032</v>
+        <v>0.148907333612442</v>
       </c>
       <c r="AB33" s="1">
-        <v>0.08058758825063705</v>
+        <v>0.08058758080005646</v>
       </c>
       <c r="AC33" s="1">
         <v>0.08807568997144699</v>
@@ -39959,7 +39959,7 @@
         <v>0.4301963746547699</v>
       </c>
       <c r="AB36" s="1">
-        <v>0.2585494518280029</v>
+        <v>0.2585494220256805</v>
       </c>
       <c r="AC36" s="1">
         <v>0.3453450798988342</v>
@@ -44954,7 +44954,7 @@
         <v>0.1144814193248749</v>
       </c>
       <c r="F5" s="1">
-        <v>0.003177989739924669</v>
+        <v>0.003177989972755313</v>
       </c>
       <c r="G5" s="1">
         <v>0.001607526210136712</v>
@@ -44972,7 +44972,7 @@
         <v>0.0005030548782087862</v>
       </c>
       <c r="L5" s="1">
-        <v>0.002283466747030616</v>
+        <v>0.002283466979861259</v>
       </c>
       <c r="M5" s="1">
         <v>0.0008292899001389742</v>
@@ -45023,10 +45023,10 @@
         <v>0.002188998972997069</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.00261871493421495</v>
+        <v>0.002618715167045593</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.005195933394134045</v>
+        <v>0.005195933859795332</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -45590,7 +45590,7 @@
         <v>0.002144892234355211</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.001071762526407838</v>
+        <v>0.001071762409992516</v>
       </c>
       <c r="AC11" s="1">
         <v>0.0005495920777320862</v>
@@ -45685,7 +45685,7 @@
         <v>0.007003987673670053</v>
       </c>
       <c r="AB12" s="1">
-        <v>0.003428481984883547</v>
+        <v>0.003428481752052903</v>
       </c>
       <c r="AC12" s="1">
         <v>0.003479926148429513</v>
@@ -46255,7 +46255,7 @@
         <v>0.01001694612205029</v>
       </c>
       <c r="AB18" s="1">
-        <v>0.007029060274362564</v>
+        <v>0.007029059808701277</v>
       </c>
       <c r="AC18" s="1">
         <v>0.01157104969024658</v>
@@ -46272,13 +46272,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.006982912309467793</v>
+        <v>0.006982911843806505</v>
       </c>
       <c r="C19" s="1">
-        <v>0.007300585508346558</v>
+        <v>0.00730058504268527</v>
       </c>
       <c r="D19" s="1">
-        <v>0.07909760624170303</v>
+        <v>0.07909759879112244</v>
       </c>
       <c r="E19" s="1">
         <v>0.04312344267964363</v>
@@ -46290,37 +46290,37 @@
         <v>0.0693148672580719</v>
       </c>
       <c r="H19" s="1">
-        <v>0.09718083590269089</v>
+        <v>0.09718082100152969</v>
       </c>
       <c r="I19" s="1">
         <v>0.0200516115874052</v>
       </c>
       <c r="J19" s="1">
-        <v>0.05731987580657005</v>
+        <v>0.05731987208127975</v>
       </c>
       <c r="K19" s="1">
-        <v>0.02122251875698566</v>
+        <v>0.02122251503169537</v>
       </c>
       <c r="L19" s="1">
-        <v>0.02130869217216969</v>
+        <v>0.02130869030952454</v>
       </c>
       <c r="M19" s="1">
         <v>0.02754223346710205</v>
       </c>
       <c r="N19" s="1">
-        <v>0.0163256898522377</v>
+        <v>0.01632568798959255</v>
       </c>
       <c r="O19" s="1">
         <v>0.01801440306007862</v>
       </c>
       <c r="P19" s="1">
-        <v>0.01552579458802938</v>
+        <v>0.01552579272538424</v>
       </c>
       <c r="Q19" s="1">
         <v>0.01163963321596384</v>
       </c>
       <c r="R19" s="1">
-        <v>0.051187913864851</v>
+        <v>0.0511879101395607</v>
       </c>
       <c r="S19" s="1">
         <v>0.1484950929880142</v>
@@ -46329,10 +46329,10 @@
         <v>0.01206597220152617</v>
       </c>
       <c r="U19" s="1">
-        <v>0.01831617206335068</v>
+        <v>0.01831616833806038</v>
       </c>
       <c r="V19" s="1">
-        <v>0.01644790358841419</v>
+        <v>0.01644789986312389</v>
       </c>
       <c r="W19" s="1">
         <v>0.006064068526029587</v>
@@ -46347,7 +46347,7 @@
         <v>0.02646998316049576</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.03639926388859749</v>
+        <v>0.03639926016330719</v>
       </c>
       <c r="AB19" s="1">
         <v>0.02132553234696388</v>
@@ -46356,7 +46356,7 @@
         <v>0.02079290524125099</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.03934484347701073</v>
+        <v>0.03934483975172043</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -47525,7 +47525,7 @@
         <v>0.5177764296531677</v>
       </c>
       <c r="H32" s="1">
-        <v>0.3112814128398895</v>
+        <v>0.3112813830375671</v>
       </c>
       <c r="I32" s="1">
         <v>0.2340124547481537</v>
@@ -47564,7 +47564,7 @@
         <v>0.3666039407253265</v>
       </c>
       <c r="U32" s="1">
-        <v>0.2278740704059601</v>
+        <v>0.2278740406036377</v>
       </c>
       <c r="V32" s="1">
         <v>0.2423688620328903</v>
@@ -47591,7 +47591,7 @@
         <v>0.2289542704820633</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.2727089822292328</v>
+        <v>0.2727089524269104</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -47608,7 +47608,7 @@
         <v>0.06111077219247818</v>
       </c>
       <c r="D33" s="1">
-        <v>0.1092914193868637</v>
+        <v>0.1092914044857025</v>
       </c>
       <c r="E33" s="1">
         <v>0.1832979619503021</v>
@@ -47653,7 +47653,7 @@
         <v>0.08573427051305771</v>
       </c>
       <c r="S33" s="1">
-        <v>0.1027418076992035</v>
+        <v>0.1027418002486229</v>
       </c>
       <c r="T33" s="1">
         <v>0.1234743073582649</v>
@@ -47697,7 +47697,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0.1314821988344193</v>
+        <v>0.1314821839332581</v>
       </c>
       <c r="C34" s="1">
         <v>0.03774331882596016</v>
@@ -47748,7 +47748,7 @@
         <v>0.06227811053395271</v>
       </c>
       <c r="S34" s="1">
-        <v>0.07181935757398605</v>
+        <v>0.07181935012340546</v>
       </c>
       <c r="T34" s="1">
         <v>0.07052737474441528</v>
@@ -47887,7 +47887,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0.7332158088684082</v>
+        <v>0.7332156896591187</v>
       </c>
       <c r="C36" s="1">
         <v>0.3083401322364807</v>
@@ -47944,7 +47944,7 @@
         <v>0.5952368974685669</v>
       </c>
       <c r="U36" s="1">
-        <v>0.4496227204799652</v>
+        <v>0.4496226906776428</v>
       </c>
       <c r="V36" s="1">
         <v>0.4888699650764465</v>
@@ -47971,7 +47971,7 @@
         <v>0.3614915013313293</v>
       </c>
       <c r="AD36" s="1">
-        <v>0.4811417162418365</v>
+        <v>0.4811416864395142</v>
       </c>
       <c r="AE36" s="1">
         <v>0</v>
@@ -48033,7 +48033,7 @@
         <v>0.3677488267421722</v>
       </c>
       <c r="S37" s="1">
-        <v>0.2494874894618988</v>
+        <v>0.2494874000549316</v>
       </c>
       <c r="T37" s="1">
         <v>0.3028503954410553</v>
@@ -48128,7 +48128,7 @@
         <v>0.2161255329847336</v>
       </c>
       <c r="S38" s="1">
-        <v>0.1388681828975677</v>
+        <v>0.1388681530952454</v>
       </c>
       <c r="T38" s="1">
         <v>0.1054806932806969</v>
@@ -48413,7 +48413,7 @@
         <v>0.5828460454940796</v>
       </c>
       <c r="S41" s="1">
-        <v>0.3858475983142853</v>
+        <v>0.3858474791049957</v>
       </c>
       <c r="T41" s="1">
         <v>0.4047633707523346</v>
@@ -48457,7 +48457,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>1.000000953674316</v>
+        <v>1.000000834465027</v>
       </c>
       <c r="C42" s="1">
         <v>0.9999998211860657</v>
@@ -48508,7 +48508,7 @@
         <v>0.9999996423721313</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="T42" s="1">
         <v>1.000000238418579</v>
@@ -48806,7 +48806,7 @@
         <v>0.000129007501527667</v>
       </c>
       <c r="S3" s="1">
-        <v>7.789688243065029e-05</v>
+        <v>7.789688970660791e-05</v>
       </c>
       <c r="T3" s="1">
         <v>0.002469168510288</v>
@@ -48901,7 +48901,7 @@
         <v>0.0001020081181195565</v>
       </c>
       <c r="S4" s="1">
-        <v>4.225466545904055e-05</v>
+        <v>4.225466909701936e-05</v>
       </c>
       <c r="T4" s="1">
         <v>0.0001304709148826078</v>
@@ -48951,7 +48951,7 @@
         <v>0.001484953914768994</v>
       </c>
       <c r="D5" s="1">
-        <v>0.001082114176824689</v>
+        <v>0.001082114293240011</v>
       </c>
       <c r="E5" s="1">
         <v>0.1286026388406754</v>
@@ -48963,7 +48963,7 @@
         <v>0.001513010472990572</v>
       </c>
       <c r="H5" s="1">
-        <v>0.006030289921909571</v>
+        <v>0.006030290387570858</v>
       </c>
       <c r="I5" s="1">
         <v>0.01613331586122513</v>
@@ -48996,7 +48996,7 @@
         <v>0.002146358834579587</v>
       </c>
       <c r="S5" s="1">
-        <v>0.003259534481912851</v>
+        <v>0.003259535180404782</v>
       </c>
       <c r="T5" s="1">
         <v>0.09528717398643494</v>
@@ -49091,7 +49091,7 @@
         <v>0.001051194849424064</v>
       </c>
       <c r="S6" s="1">
-        <v>0.0004527378478087485</v>
+        <v>0.0004527378769125789</v>
       </c>
       <c r="T6" s="1">
         <v>0.0003207987465430051</v>
@@ -49186,7 +49186,7 @@
         <v>0.0009809627663344145</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0004372843832243234</v>
+        <v>0.0004372844123281538</v>
       </c>
       <c r="T7" s="1">
         <v>0.0004364343185443431</v>
@@ -49281,7 +49281,7 @@
         <v>0.01162533927708864</v>
       </c>
       <c r="S8" s="1">
-        <v>0.003712653648108244</v>
+        <v>0.003712654113769531</v>
       </c>
       <c r="T8" s="1">
         <v>0.003912875894457102</v>
@@ -49376,7 +49376,7 @@
         <v>0.004677361343055964</v>
       </c>
       <c r="S9" s="1">
-        <v>0.02477570250630379</v>
+        <v>0.02477570436894894</v>
       </c>
       <c r="T9" s="1">
         <v>0.002504431875422597</v>
@@ -49471,7 +49471,7 @@
         <v>0.001236038282513618</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0003360756963957101</v>
+        <v>0.0003360757254995406</v>
       </c>
       <c r="T10" s="1">
         <v>0.0003737413208000362</v>
@@ -49566,7 +49566,7 @@
         <v>0.007380279712378979</v>
       </c>
       <c r="S11" s="1">
-        <v>0.005300985649228096</v>
+        <v>0.005300986114889383</v>
       </c>
       <c r="T11" s="1">
         <v>0.007035292219370604</v>
@@ -49628,7 +49628,7 @@
         <v>0.0007071167347021401</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0008406283450312912</v>
+        <v>0.0008406284032389522</v>
       </c>
       <c r="I12" s="1">
         <v>0.0006256700726225972</v>
@@ -49661,7 +49661,7 @@
         <v>0.001987606985494494</v>
       </c>
       <c r="S12" s="1">
-        <v>0.001053897780366242</v>
+        <v>0.001053897896781564</v>
       </c>
       <c r="T12" s="1">
         <v>0.001984718721359968</v>
@@ -49851,7 +49851,7 @@
         <v>0.002016437472775578</v>
       </c>
       <c r="S14" s="1">
-        <v>0.001678486354649067</v>
+        <v>0.001678486587479711</v>
       </c>
       <c r="T14" s="1">
         <v>0.0003843765007331967</v>
@@ -49946,7 +49946,7 @@
         <v>0.002332917647436261</v>
       </c>
       <c r="S15" s="1">
-        <v>0.007735108025372028</v>
+        <v>0.007735108956694603</v>
       </c>
       <c r="T15" s="1">
         <v>0.004086729604750872</v>
@@ -50041,7 +50041,7 @@
         <v>0.02481655962765217</v>
       </c>
       <c r="S16" s="1">
-        <v>0.01224293280392885</v>
+        <v>0.01224293373525143</v>
       </c>
       <c r="T16" s="1">
         <v>0.04090309888124466</v>
@@ -50136,7 +50136,7 @@
         <v>0.006754379719495773</v>
       </c>
       <c r="S17" s="1">
-        <v>0.01538903173059225</v>
+        <v>0.0153890335932374</v>
       </c>
       <c r="T17" s="1">
         <v>0.003309189109131694</v>
@@ -50231,7 +50231,7 @@
         <v>0.01238515321165323</v>
       </c>
       <c r="S18" s="1">
-        <v>0.01478966139256954</v>
+        <v>0.01478966232389212</v>
       </c>
       <c r="T18" s="1">
         <v>0.02161679603159428</v>
@@ -50278,82 +50278,82 @@
         <v>0.004197337199002504</v>
       </c>
       <c r="C19" s="1">
-        <v>0.004143660422414541</v>
+        <v>0.004143660888075829</v>
       </c>
       <c r="D19" s="1">
         <v>0.04373133927583694</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02544963918626308</v>
+        <v>0.02544964104890823</v>
       </c>
       <c r="F19" s="1">
         <v>0.02282099984586239</v>
       </c>
       <c r="G19" s="1">
-        <v>0.04558664932847023</v>
+        <v>0.04558665305376053</v>
       </c>
       <c r="H19" s="1">
         <v>0.080942302942276</v>
       </c>
       <c r="I19" s="1">
-        <v>0.01537841651588678</v>
+        <v>0.01537841837853193</v>
       </c>
       <c r="J19" s="1">
-        <v>0.03277506306767464</v>
+        <v>0.03277506679296494</v>
       </c>
       <c r="K19" s="1">
         <v>0.01622381247580051</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01415934227406979</v>
+        <v>0.01415934320539236</v>
       </c>
       <c r="M19" s="1">
-        <v>0.01684574037790298</v>
+        <v>0.01684574224054813</v>
       </c>
       <c r="N19" s="1">
-        <v>0.007057088892906904</v>
+        <v>0.007057089358568192</v>
       </c>
       <c r="O19" s="1">
         <v>0.01127510517835617</v>
       </c>
       <c r="P19" s="1">
-        <v>0.01155621465295553</v>
+        <v>0.01155621558427811</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.00731795746833086</v>
+        <v>0.007317957933992147</v>
       </c>
       <c r="R19" s="1">
         <v>0.03466316685080528</v>
       </c>
       <c r="S19" s="1">
-        <v>0.08304811269044876</v>
+        <v>0.08304812759160995</v>
       </c>
       <c r="T19" s="1">
         <v>0.008345258422195911</v>
       </c>
       <c r="U19" s="1">
-        <v>0.01272701565176249</v>
+        <v>0.01272701658308506</v>
       </c>
       <c r="V19" s="1">
-        <v>0.01101520843803883</v>
+        <v>0.0110152093693614</v>
       </c>
       <c r="W19" s="1">
         <v>0.004973823204636574</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0005146599723957479</v>
+        <v>0.0005146600306034088</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.01041877642273903</v>
+        <v>0.0104187773540616</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.01630085334181786</v>
+        <v>0.01630085520446301</v>
       </c>
       <c r="AA19" s="1">
         <v>0.02405761182308197</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01418561208993196</v>
+        <v>0.01418561302125454</v>
       </c>
       <c r="AC19" s="1">
         <v>0.01387366559356451</v>
@@ -50421,7 +50421,7 @@
         <v>0.003999908920377493</v>
       </c>
       <c r="S20" s="1">
-        <v>0.004425926599651575</v>
+        <v>0.004425927065312862</v>
       </c>
       <c r="T20" s="1">
         <v>0.005547246895730495</v>
@@ -50516,7 +50516,7 @@
         <v>0.003287230618298054</v>
       </c>
       <c r="S21" s="1">
-        <v>0.001598519505932927</v>
+        <v>0.001598519622348249</v>
       </c>
       <c r="T21" s="1">
         <v>0.003359382273629308</v>
@@ -50611,7 +50611,7 @@
         <v>0.002311378484591842</v>
       </c>
       <c r="S22" s="1">
-        <v>0.001248588785529137</v>
+        <v>0.001248588901944458</v>
       </c>
       <c r="T22" s="1">
         <v>0.001950068981386721</v>
@@ -50706,7 +50706,7 @@
         <v>0.04094548150897026</v>
       </c>
       <c r="S23" s="1">
-        <v>0.01444289274513721</v>
+        <v>0.01444289367645979</v>
       </c>
       <c r="T23" s="1">
         <v>0.05676864832639694</v>
@@ -50801,7 +50801,7 @@
         <v>0.0006008032360114157</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0002116342948284</v>
+        <v>0.0002116343093803152</v>
       </c>
       <c r="T24" s="1">
         <v>0.0008339373162016273</v>
@@ -50991,7 +50991,7 @@
         <v>0.01313776988536119</v>
       </c>
       <c r="S26" s="1">
-        <v>0.01049359142780304</v>
+        <v>0.01049359235912561</v>
       </c>
       <c r="T26" s="1">
         <v>0.02370323054492474</v>
@@ -51086,7 +51086,7 @@
         <v>0.008820698596537113</v>
       </c>
       <c r="S27" s="1">
-        <v>0.005527434404939413</v>
+        <v>0.0055274348706007</v>
       </c>
       <c r="T27" s="1">
         <v>0.006518248468637466</v>
@@ -51181,7 +51181,7 @@
         <v>0.002952834358438849</v>
       </c>
       <c r="S28" s="1">
-        <v>0.001138821011409163</v>
+        <v>0.001138821127824485</v>
       </c>
       <c r="T28" s="1">
         <v>0.00224517029710114</v>
@@ -51276,7 +51276,7 @@
         <v>0.001672062091529369</v>
       </c>
       <c r="S29" s="1">
-        <v>0.001880432013422251</v>
+        <v>0.001880432246252894</v>
       </c>
       <c r="T29" s="1">
         <v>0.001438276609405875</v>
@@ -51371,7 +51371,7 @@
         <v>0.003006934188306332</v>
       </c>
       <c r="S30" s="1">
-        <v>0.002728919265791774</v>
+        <v>0.002728919498622417</v>
       </c>
       <c r="T30" s="1">
         <v>0.01105677336454391</v>
@@ -51561,7 +51561,7 @@
         <v>0.2186642289161682</v>
       </c>
       <c r="S32" s="1">
-        <v>0.2320264875888824</v>
+        <v>0.2320265173912048</v>
       </c>
       <c r="T32" s="1">
         <v>0.3370145559310913</v>
@@ -51576,19 +51576,19 @@
         <v>0.3293963968753815</v>
       </c>
       <c r="X32" s="1">
-        <v>0.1272192597389221</v>
+        <v>0.1272192746400833</v>
       </c>
       <c r="Y32" s="1">
         <v>0.1866873949766159</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.1753318160772324</v>
+        <v>0.1753318309783936</v>
       </c>
       <c r="AA32" s="1">
         <v>0.190927192568779</v>
       </c>
       <c r="AB32" s="1">
-        <v>0.1374378204345703</v>
+        <v>0.1374378353357315</v>
       </c>
       <c r="AC32" s="1">
         <v>0.1978391855955124</v>
@@ -51641,7 +51641,7 @@
         <v>0.164596900343895</v>
       </c>
       <c r="N33" s="1">
-        <v>0.1272595226764679</v>
+        <v>0.1272595375776291</v>
       </c>
       <c r="O33" s="1">
         <v>0.1854434162378311</v>
@@ -51656,7 +51656,7 @@
         <v>0.1514352560043335</v>
       </c>
       <c r="S33" s="1">
-        <v>0.1981488615274429</v>
+        <v>0.1981488913297653</v>
       </c>
       <c r="T33" s="1">
         <v>0.1856848150491714</v>
@@ -51751,7 +51751,7 @@
         <v>0.06598314642906189</v>
       </c>
       <c r="S34" s="1">
-        <v>0.06400299817323685</v>
+        <v>0.06400300562381744</v>
       </c>
       <c r="T34" s="1">
         <v>0.07619931548833847</v>
@@ -51846,7 +51846,7 @@
         <v>0.003191952593624592</v>
       </c>
       <c r="S35" s="1">
-        <v>0.04479682072997093</v>
+        <v>0.04479682818055153</v>
       </c>
       <c r="T35" s="1">
         <v>0.03704702109098434</v>
@@ -51941,7 +51941,7 @@
         <v>0.4392746090888977</v>
       </c>
       <c r="S36" s="1">
-        <v>0.5389751195907593</v>
+        <v>0.5389752388000488</v>
       </c>
       <c r="T36" s="1">
         <v>0.6359456777572632</v>
@@ -51956,7 +51956,7 @@
         <v>0.5619308948516846</v>
       </c>
       <c r="X36" s="1">
-        <v>0.2652340531349182</v>
+        <v>0.265234112739563</v>
       </c>
       <c r="Y36" s="1">
         <v>0.4199758172035217</v>
@@ -52036,7 +52036,7 @@
         <v>0.3691575527191162</v>
       </c>
       <c r="S37" s="1">
-        <v>0.288871169090271</v>
+        <v>0.2888711988925934</v>
       </c>
       <c r="T37" s="1">
         <v>0.2986724376678467</v>
@@ -52321,7 +52321,7 @@
         <v>-0.0009158366010524333</v>
       </c>
       <c r="S40" s="1">
-        <v>-0.003166427602991462</v>
+        <v>-0.003166427835822105</v>
       </c>
       <c r="T40" s="1">
         <v>-0.002288869116455317</v>
@@ -52416,7 +52416,7 @@
         <v>0.5607252717018127</v>
       </c>
       <c r="S41" s="1">
-        <v>0.461024671792984</v>
+        <v>0.4610247015953064</v>
       </c>
       <c r="T41" s="1">
         <v>0.3640545010566711</v>
@@ -52511,7 +52511,7 @@
         <v>0.9999998807907104</v>
       </c>
       <c r="S42" s="1">
-        <v>0.9999997615814209</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="T42" s="1">
         <v>1.000000238418579</v>
@@ -52526,7 +52526,7 @@
         <v>1.00000011920929</v>
       </c>
       <c r="X42" s="1">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="Y42" s="1">
         <v>0.9999994039535522</v>
@@ -52714,7 +52714,7 @@
         <v>0.0009391760104335845</v>
       </c>
       <c r="S2" s="1">
-        <v>0.0008454085327684879</v>
+        <v>0.0008454085909761488</v>
       </c>
       <c r="T2" s="1">
         <v>0.005726892966777086</v>
@@ -52809,7 +52809,7 @@
         <v>0.0001727486669551581</v>
       </c>
       <c r="S3" s="1">
-        <v>0.000121399738418404</v>
+        <v>0.0001213997456943616</v>
       </c>
       <c r="T3" s="1">
         <v>0.004122004378587008</v>
@@ -52904,7 +52904,7 @@
         <v>6.605293310713023e-05</v>
       </c>
       <c r="S4" s="1">
-        <v>3.175755045958795e-05</v>
+        <v>3.175755409756675e-05</v>
       </c>
       <c r="T4" s="1">
         <v>8.293754945043474e-05</v>
@@ -52960,19 +52960,19 @@
         <v>0.1521031558513641</v>
       </c>
       <c r="F5" s="1">
-        <v>0.005334777757525444</v>
+        <v>0.005334778223186731</v>
       </c>
       <c r="G5" s="1">
         <v>0.003031729720532894</v>
       </c>
       <c r="H5" s="1">
-        <v>0.006529662758111954</v>
+        <v>0.006529663689434528</v>
       </c>
       <c r="I5" s="1">
-        <v>0.01661848276853561</v>
+        <v>0.01661848463118076</v>
       </c>
       <c r="J5" s="1">
-        <v>0.002133909612894058</v>
+        <v>0.002133909380063415</v>
       </c>
       <c r="K5" s="1">
         <v>0.00159880390856415</v>
@@ -52990,7 +52990,7 @@
         <v>0.002097178250551224</v>
       </c>
       <c r="P5" s="1">
-        <v>0.003239038167521358</v>
+        <v>0.003239038400352001</v>
       </c>
       <c r="Q5" s="1">
         <v>0.003716590348631144</v>
@@ -52999,7 +52999,7 @@
         <v>0.003562651108950377</v>
       </c>
       <c r="S5" s="1">
-        <v>0.00464549008756876</v>
+        <v>0.004645490553230047</v>
       </c>
       <c r="T5" s="1">
         <v>0.09612303227186203</v>
@@ -53023,7 +53023,7 @@
         <v>0.01019323710352182</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.00443496135994792</v>
+        <v>0.004434961825609207</v>
       </c>
       <c r="AB5" s="1">
         <v>0.003540413687005639</v>
@@ -53049,7 +53049,7 @@
         <v>2.921625491580926e-05</v>
       </c>
       <c r="D6" s="1">
-        <v>5.107543620397337e-05</v>
+        <v>5.107544347993098e-05</v>
       </c>
       <c r="E6" s="1">
         <v>7.8277473221533e-05</v>
@@ -53094,7 +53094,7 @@
         <v>0.0002971222857013345</v>
       </c>
       <c r="S6" s="1">
-        <v>0.0001409281103406101</v>
+        <v>0.0001409281248925254</v>
       </c>
       <c r="T6" s="1">
         <v>8.754865848459303e-05</v>
@@ -53189,7 +53189,7 @@
         <v>0.001026221201755106</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0004676399112213403</v>
+        <v>0.0004676399694290012</v>
       </c>
       <c r="T7" s="1">
         <v>0.0003877221897710115</v>
@@ -53284,10 +53284,10 @@
         <v>0.00449193362146616</v>
       </c>
       <c r="S8" s="1">
-        <v>0.001417242106981575</v>
+        <v>0.001417242223396897</v>
       </c>
       <c r="T8" s="1">
-        <v>0.001289934734813869</v>
+        <v>0.001289934618398547</v>
       </c>
       <c r="U8" s="1">
         <v>0.008842640556395054</v>
@@ -53379,7 +53379,7 @@
         <v>0.0008208139333873987</v>
       </c>
       <c r="S9" s="1">
-        <v>0.004458695184439421</v>
+        <v>0.004458695650100708</v>
       </c>
       <c r="T9" s="1">
         <v>0.0004519077483564615</v>
@@ -53474,7 +53474,7 @@
         <v>0.002883821725845337</v>
       </c>
       <c r="S10" s="1">
-        <v>0.001090029487386346</v>
+        <v>0.001090029603801668</v>
       </c>
       <c r="T10" s="1">
         <v>0.001084755989722908</v>
@@ -53501,7 +53501,7 @@
         <v>0.0009688953286968172</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.0003731832839548588</v>
+        <v>0.0003731833130586892</v>
       </c>
       <c r="AC10" s="1">
         <v>0.0008750717388466001</v>
@@ -53569,7 +53569,7 @@
         <v>0.005762009881436825</v>
       </c>
       <c r="S11" s="1">
-        <v>0.004758834838867188</v>
+        <v>0.004758835304528475</v>
       </c>
       <c r="T11" s="1">
         <v>0.005250698886811733</v>
@@ -53664,7 +53664,7 @@
         <v>0.001976987579837441</v>
       </c>
       <c r="S12" s="1">
-        <v>0.001168714486993849</v>
+        <v>0.001168714603409171</v>
       </c>
       <c r="T12" s="1">
         <v>0.001907611731439829</v>
@@ -53759,7 +53759,7 @@
         <v>0.003388922195881605</v>
       </c>
       <c r="S13" s="1">
-        <v>0.003511538030579686</v>
+        <v>0.00351153826341033</v>
       </c>
       <c r="T13" s="1">
         <v>0.003478550352156162</v>
@@ -53854,7 +53854,7 @@
         <v>0.002972801448777318</v>
       </c>
       <c r="S14" s="1">
-        <v>0.002743686782196164</v>
+        <v>0.002743687015026808</v>
       </c>
       <c r="T14" s="1">
         <v>0.0006603372748941183</v>
@@ -53949,7 +53949,7 @@
         <v>0.001763996435329318</v>
       </c>
       <c r="S15" s="1">
-        <v>0.006724148988723755</v>
+        <v>0.006724149454385042</v>
       </c>
       <c r="T15" s="1">
         <v>0.003072522347792983</v>
@@ -54044,7 +54044,7 @@
         <v>0.02168396301567554</v>
       </c>
       <c r="S16" s="1">
-        <v>0.01186680141836405</v>
+        <v>0.01186680234968662</v>
       </c>
       <c r="T16" s="1">
         <v>0.03536941111087799</v>
@@ -54139,7 +54139,7 @@
         <v>0.006754098460078239</v>
       </c>
       <c r="S17" s="1">
-        <v>0.01714478060603142</v>
+        <v>0.01714478246867657</v>
       </c>
       <c r="T17" s="1">
         <v>0.00319319125264883</v>
@@ -54234,10 +54234,10 @@
         <v>0.01779931969940662</v>
       </c>
       <c r="S18" s="1">
-        <v>0.02577875182032585</v>
+        <v>0.025778753682971</v>
       </c>
       <c r="T18" s="1">
-        <v>0.0304957814514637</v>
+        <v>0.03049577586352825</v>
       </c>
       <c r="U18" s="1">
         <v>0.01519531663507223</v>
@@ -54278,88 +54278,88 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.003247753251343966</v>
+        <v>0.003247752320021391</v>
       </c>
       <c r="C19" s="1">
-        <v>0.003199032740667462</v>
+        <v>0.003199032275006175</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03428535535931587</v>
+        <v>0.03428535163402557</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02046446688473225</v>
+        <v>0.02046446315944195</v>
       </c>
       <c r="F19" s="1">
-        <v>0.01483673788607121</v>
+        <v>0.01483673602342606</v>
       </c>
       <c r="G19" s="1">
-        <v>0.03405798971652985</v>
+        <v>0.03405798599123955</v>
       </c>
       <c r="H19" s="1">
-        <v>0.05292076244950294</v>
+        <v>0.05292075872421265</v>
       </c>
       <c r="I19" s="1">
-        <v>0.01051260158419609</v>
+        <v>0.01051260065287352</v>
       </c>
       <c r="J19" s="1">
         <v>0.02487134374678135</v>
       </c>
       <c r="K19" s="1">
-        <v>0.0122767211869359</v>
+        <v>0.01227672025561333</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01061741355806589</v>
+        <v>0.01061741262674332</v>
       </c>
       <c r="M19" s="1">
         <v>0.01467710733413696</v>
       </c>
       <c r="N19" s="1">
-        <v>0.006959313992410898</v>
+        <v>0.006959313526749611</v>
       </c>
       <c r="O19" s="1">
-        <v>0.00789063423871994</v>
+        <v>0.007890633307397366</v>
       </c>
       <c r="P19" s="1">
-        <v>0.007772525306791067</v>
+        <v>0.007772524375468493</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.005364540033042431</v>
+        <v>0.005364539567381144</v>
       </c>
       <c r="R19" s="1">
-        <v>0.02419216930866241</v>
+        <v>0.02419216744601727</v>
       </c>
       <c r="S19" s="1">
         <v>0.06459998339414597</v>
       </c>
       <c r="T19" s="1">
-        <v>0.005509390030056238</v>
+        <v>0.005509388633072376</v>
       </c>
       <c r="U19" s="1">
         <v>0.008315105922520161</v>
       </c>
       <c r="V19" s="1">
-        <v>0.007902286946773529</v>
+        <v>0.007902286015450954</v>
       </c>
       <c r="W19" s="1">
-        <v>0.002535483567044139</v>
+        <v>0.002535483334213495</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0003694214974530041</v>
+        <v>0.0003694214683491737</v>
       </c>
       <c r="Y19" s="1">
         <v>0.006888187490403652</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.0119101470336318</v>
+        <v>0.01191014517098665</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.01726001128554344</v>
+        <v>0.01726000942289829</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01133046951144934</v>
+        <v>0.01133046764880419</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01078022643923759</v>
+        <v>0.01078022550791502</v>
       </c>
       <c r="AD19" s="1">
         <v>0.01955805346369743</v>
@@ -54424,7 +54424,7 @@
         <v>0.003993116319179535</v>
       </c>
       <c r="S20" s="1">
-        <v>0.004880440887063742</v>
+        <v>0.004880441352725029</v>
       </c>
       <c r="T20" s="1">
         <v>0.00537573080509901</v>
@@ -54519,7 +54519,7 @@
         <v>0.00504464702680707</v>
       </c>
       <c r="S21" s="1">
-        <v>0.002764732809737325</v>
+        <v>0.002764733042567968</v>
       </c>
       <c r="T21" s="1">
         <v>0.005024191457778215</v>
@@ -54614,7 +54614,7 @@
         <v>0.002755602356046438</v>
       </c>
       <c r="S22" s="1">
-        <v>0.00165469094645232</v>
+        <v>0.001654691062867641</v>
       </c>
       <c r="T22" s="1">
         <v>0.002251472091302276</v>
@@ -54709,7 +54709,7 @@
         <v>0.05298889428377151</v>
       </c>
       <c r="S23" s="1">
-        <v>0.02073571085929871</v>
+        <v>0.02073571272194386</v>
       </c>
       <c r="T23" s="1">
         <v>0.07155519723892212</v>
@@ -54804,7 +54804,7 @@
         <v>0.0005651545361615717</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0002208600053563714</v>
+        <v>0.0002208600344602019</v>
       </c>
       <c r="T24" s="1">
         <v>0.0007640798576176167</v>
@@ -54899,7 +54899,7 @@
         <v>0.01963751018047333</v>
       </c>
       <c r="S25" s="1">
-        <v>0.007711974438279867</v>
+        <v>0.007711974903941154</v>
       </c>
       <c r="T25" s="1">
         <v>0.0129264434799552</v>
@@ -54994,7 +54994,7 @@
         <v>0.01182308048009872</v>
       </c>
       <c r="S26" s="1">
-        <v>0.01047777850180864</v>
+        <v>0.01047777943313122</v>
       </c>
       <c r="T26" s="1">
         <v>0.0208116602152586</v>
@@ -55089,7 +55089,7 @@
         <v>0.009639300405979156</v>
       </c>
       <c r="S27" s="1">
-        <v>0.006730976980179548</v>
+        <v>0.006730977911502123</v>
       </c>
       <c r="T27" s="1">
         <v>0.006946752779185772</v>
@@ -55107,7 +55107,7 @@
         <v>0.003276760457083583</v>
       </c>
       <c r="Y27" s="1">
-        <v>0.0117249358445406</v>
+        <v>0.01172493677586317</v>
       </c>
       <c r="Z27" s="1">
         <v>0.008232887834310532</v>
@@ -55184,7 +55184,7 @@
         <v>0.003043974982574582</v>
       </c>
       <c r="S28" s="1">
-        <v>0.001284564612433314</v>
+        <v>0.001284564728848636</v>
       </c>
       <c r="T28" s="1">
         <v>0.002207625890150666</v>
@@ -55279,7 +55279,7 @@
         <v>0.001479139435105026</v>
       </c>
       <c r="S29" s="1">
-        <v>0.001858310424722731</v>
+        <v>0.001858310541138053</v>
       </c>
       <c r="T29" s="1">
         <v>0.001220233854837716</v>
@@ -55374,7 +55374,7 @@
         <v>0.003095806343480945</v>
       </c>
       <c r="S30" s="1">
-        <v>0.003152268240228295</v>
+        <v>0.003152268473058939</v>
       </c>
       <c r="T30" s="1">
         <v>0.01096926536411047</v>
@@ -55513,7 +55513,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.3259839117527008</v>
+        <v>0.3259838819503784</v>
       </c>
       <c r="C32" s="1">
         <v>0.1465309709310532</v>
@@ -55522,13 +55522,13 @@
         <v>0.2163784205913544</v>
       </c>
       <c r="E32" s="1">
-        <v>0.3828057050704956</v>
+        <v>0.3828056752681732</v>
       </c>
       <c r="F32" s="1">
-        <v>0.2055425345897675</v>
+        <v>0.2055425196886063</v>
       </c>
       <c r="G32" s="1">
-        <v>0.4985242784023285</v>
+        <v>0.4985242187976837</v>
       </c>
       <c r="H32" s="1">
         <v>0.2902983725070953</v>
@@ -55656,10 +55656,10 @@
         <v>0.1618807166814804</v>
       </c>
       <c r="R33" s="1">
-        <v>0.1351474821567535</v>
+        <v>0.1351474970579147</v>
       </c>
       <c r="S33" s="1">
-        <v>0.2386254519224167</v>
+        <v>0.2386254668235779</v>
       </c>
       <c r="T33" s="1">
         <v>0.1424839943647385</v>
@@ -55849,7 +55849,7 @@
         <v>0.003013053210452199</v>
       </c>
       <c r="S35" s="1">
-        <v>0.04691303893923759</v>
+        <v>0.04691304266452789</v>
       </c>
       <c r="T35" s="1">
         <v>0.03406230732798576</v>
@@ -55905,10 +55905,10 @@
         <v>0.8078973293304443</v>
       </c>
       <c r="F36" s="1">
-        <v>0.6287147998809814</v>
+        <v>0.6287147402763367</v>
       </c>
       <c r="G36" s="1">
-        <v>0.8601667881011963</v>
+        <v>0.8601666688919067</v>
       </c>
       <c r="H36" s="1">
         <v>0.6995354890823364</v>
@@ -55944,7 +55944,7 @@
         <v>0.4146774411201477</v>
       </c>
       <c r="S36" s="1">
-        <v>0.5644799470901489</v>
+        <v>0.5644800066947937</v>
       </c>
       <c r="T36" s="1">
         <v>0.5846070051193237</v>
@@ -56478,7 +56478,7 @@
         <v>1.000000953674316</v>
       </c>
       <c r="G42" s="1">
-        <v>0.9999992847442627</v>
+        <v>0.9999991655349731</v>
       </c>
       <c r="H42" s="1">
         <v>1.000000238418579</v>
@@ -56514,7 +56514,7 @@
         <v>0.9999997615814209</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="T42" s="1">
         <v>1.00000011920929</v>
@@ -56812,7 +56812,7 @@
         <v>0.0001320753508480266</v>
       </c>
       <c r="S3" s="1">
-        <v>9.879285789793357e-05</v>
+        <v>9.879285062197596e-05</v>
       </c>
       <c r="T3" s="1">
         <v>0.00362193095497787</v>
@@ -56907,7 +56907,7 @@
         <v>5.518651960301213e-05</v>
       </c>
       <c r="S4" s="1">
-        <v>2.819391374941915e-05</v>
+        <v>2.819391011144035e-05</v>
       </c>
       <c r="T4" s="1">
         <v>7.167823059717193e-05</v>
@@ -56963,7 +56963,7 @@
         <v>0.07192545384168625</v>
       </c>
       <c r="F5" s="1">
-        <v>0.002092445502057672</v>
+        <v>0.002092445269227028</v>
       </c>
       <c r="G5" s="1">
         <v>0.0008251728722825646</v>
@@ -57002,7 +57002,7 @@
         <v>0.0009457115666009486</v>
       </c>
       <c r="S5" s="1">
-        <v>0.001923722214996815</v>
+        <v>0.001923722098581493</v>
       </c>
       <c r="T5" s="1">
         <v>0.0503450445830822</v>
@@ -57017,7 +57017,7 @@
         <v>0.001994085963815451</v>
       </c>
       <c r="X5" s="1">
-        <v>0.0001020064810290933</v>
+        <v>0.000102006466477178</v>
       </c>
       <c r="Y5" s="1">
         <v>0.003530153073370457</v>
@@ -57094,10 +57094,10 @@
         <v>0.001122858375310898</v>
       </c>
       <c r="R6" s="1">
-        <v>0.001284425728954375</v>
+        <v>0.001284425612539053</v>
       </c>
       <c r="S6" s="1">
-        <v>0.0007462269277311862</v>
+        <v>0.0007462268695235252</v>
       </c>
       <c r="T6" s="1">
         <v>0.000439521943917498</v>
@@ -57192,7 +57192,7 @@
         <v>0.0007919069030322134</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0004013106808997691</v>
+        <v>0.0004013106517959386</v>
       </c>
       <c r="T7" s="1">
         <v>0.0003038772265426815</v>
@@ -57287,7 +57287,7 @@
         <v>0.01291617099195719</v>
       </c>
       <c r="S8" s="1">
-        <v>0.005161354318261147</v>
+        <v>0.005161353852599859</v>
       </c>
       <c r="T8" s="1">
         <v>0.004583287052810192</v>
@@ -57382,7 +57382,7 @@
         <v>0.005399453453719616</v>
       </c>
       <c r="S9" s="1">
-        <v>0.03751068934798241</v>
+        <v>0.03751068562269211</v>
       </c>
       <c r="T9" s="1">
         <v>0.00246344436891377</v>
@@ -57438,7 +57438,7 @@
         <v>0.001080157468095422</v>
       </c>
       <c r="F10" s="1">
-        <v>0.001175964367575943</v>
+        <v>0.001175964251160622</v>
       </c>
       <c r="G10" s="1">
         <v>0.004857159685343504</v>
@@ -57477,7 +57477,7 @@
         <v>0.001799330930225551</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0005664408672600985</v>
+        <v>0.0005664408090524375</v>
       </c>
       <c r="T10" s="1">
         <v>0.0004830853431485593</v>
@@ -57539,7 +57539,7 @@
         <v>0.006370865274220705</v>
       </c>
       <c r="H11" s="1">
-        <v>0.001899736234918237</v>
+        <v>0.001899736118502915</v>
       </c>
       <c r="I11" s="1">
         <v>0.003223929321393371</v>
@@ -57572,7 +57572,7 @@
         <v>0.001736073871143162</v>
       </c>
       <c r="S11" s="1">
-        <v>0.001919310074299574</v>
+        <v>0.001919309957884252</v>
       </c>
       <c r="T11" s="1">
         <v>0.001656384090892971</v>
@@ -57667,7 +57667,7 @@
         <v>0.008241895586252213</v>
       </c>
       <c r="S12" s="1">
-        <v>0.004993984010070562</v>
+        <v>0.004993983544409275</v>
       </c>
       <c r="T12" s="1">
         <v>0.008193186484277248</v>
@@ -57762,7 +57762,7 @@
         <v>0.008522133342921734</v>
       </c>
       <c r="S13" s="1">
-        <v>0.009029857814311981</v>
+        <v>0.009029856882989407</v>
       </c>
       <c r="T13" s="1">
         <v>0.00916711613535881</v>
@@ -57821,7 +57821,7 @@
         <v>0.000406667502829805</v>
       </c>
       <c r="G14" s="1">
-        <v>0.0002601171436253935</v>
+        <v>0.0002601171145215631</v>
       </c>
       <c r="H14" s="1">
         <v>0.0002853562764357775</v>
@@ -57857,7 +57857,7 @@
         <v>0.002503990894183517</v>
       </c>
       <c r="S14" s="1">
-        <v>0.002466693986207247</v>
+        <v>0.002466693753376603</v>
       </c>
       <c r="T14" s="1">
         <v>0.0004066912515554577</v>
@@ -57881,7 +57881,7 @@
         <v>0.0008390977745875716</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.0003821229329332709</v>
+        <v>0.0003821229038294405</v>
       </c>
       <c r="AB14" s="1">
         <v>0.00011532776261447</v>
@@ -57890,7 +57890,7 @@
         <v>0.0001242347934748977</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.0002991664514411241</v>
+        <v>0.0002991664223372936</v>
       </c>
       <c r="AE14" s="1">
         <v>0</v>
@@ -57952,7 +57952,7 @@
         <v>0.002611811039969325</v>
       </c>
       <c r="S15" s="1">
-        <v>0.01013796497136354</v>
+        <v>0.01013796404004097</v>
       </c>
       <c r="T15" s="1">
         <v>0.004699718672782183</v>
@@ -58047,7 +58047,7 @@
         <v>0.02248316444456577</v>
       </c>
       <c r="S16" s="1">
-        <v>0.01255441270768642</v>
+        <v>0.01255441177636385</v>
       </c>
       <c r="T16" s="1">
         <v>0.03852786868810654</v>
@@ -58142,7 +58142,7 @@
         <v>0.007083251606673002</v>
       </c>
       <c r="S17" s="1">
-        <v>0.01834877580404282</v>
+        <v>0.01834877394139767</v>
       </c>
       <c r="T17" s="1">
         <v>0.003513808595016599</v>
@@ -58237,7 +58237,7 @@
         <v>0.02142271026968956</v>
       </c>
       <c r="S18" s="1">
-        <v>0.03405461087822914</v>
+        <v>0.03405460715293884</v>
       </c>
       <c r="T18" s="1">
         <v>0.04172298684716225</v>
@@ -58305,7 +58305,7 @@
         <v>0.01640036143362522</v>
       </c>
       <c r="J19" s="1">
-        <v>0.0402110181748867</v>
+        <v>0.040211021900177</v>
       </c>
       <c r="K19" s="1">
         <v>0.01527272909879684</v>
@@ -58332,7 +58332,7 @@
         <v>0.03804077208042145</v>
       </c>
       <c r="S19" s="1">
-        <v>0.1046347767114639</v>
+        <v>0.1046347692608833</v>
       </c>
       <c r="T19" s="1">
         <v>0.009111730381846428</v>
@@ -58344,7 +58344,7 @@
         <v>0.01209660992026329</v>
       </c>
       <c r="W19" s="1">
-        <v>0.003831156063824892</v>
+        <v>0.003831156529486179</v>
       </c>
       <c r="X19" s="1">
         <v>0.0005326060345396399</v>
@@ -58427,7 +58427,7 @@
         <v>0.005511622410267591</v>
       </c>
       <c r="S20" s="1">
-        <v>0.006957634817808867</v>
+        <v>0.006957634352147579</v>
       </c>
       <c r="T20" s="1">
         <v>0.007731796707957983</v>
@@ -58522,7 +58522,7 @@
         <v>0.01508623734116554</v>
       </c>
       <c r="S21" s="1">
-        <v>0.008706483989953995</v>
+        <v>0.00870648305863142</v>
       </c>
       <c r="T21" s="1">
         <v>0.0162664670497179</v>
@@ -58617,7 +58617,7 @@
         <v>0.004851120989769697</v>
       </c>
       <c r="S22" s="1">
-        <v>0.003020546166226268</v>
+        <v>0.003020545933395624</v>
       </c>
       <c r="T22" s="1">
         <v>0.004075309727340937</v>
@@ -58712,7 +58712,7 @@
         <v>0.05535472556948662</v>
       </c>
       <c r="S23" s="1">
-        <v>0.02221670746803284</v>
+        <v>0.02221670560538769</v>
       </c>
       <c r="T23" s="1">
         <v>0.07767629623413086</v>
@@ -58807,7 +58807,7 @@
         <v>0.0005649697850458324</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0002263906644657254</v>
+        <v>0.0002263906499138102</v>
       </c>
       <c r="T24" s="1">
         <v>0.0007938445778563619</v>
@@ -58902,7 +58902,7 @@
         <v>0.02193982154130936</v>
       </c>
       <c r="S25" s="1">
-        <v>0.008915909565985203</v>
+        <v>0.008915908634662628</v>
       </c>
       <c r="T25" s="1">
         <v>0.01521899830549955</v>
@@ -58997,7 +58997,7 @@
         <v>0.01932826265692711</v>
       </c>
       <c r="S26" s="1">
-        <v>0.01758293062448502</v>
+        <v>0.01758292876183987</v>
       </c>
       <c r="T26" s="1">
         <v>0.03539002686738968</v>
@@ -59092,7 +59092,7 @@
         <v>0.00640504714101553</v>
       </c>
       <c r="S27" s="1">
-        <v>0.004780672024935484</v>
+        <v>0.004780671559274197</v>
       </c>
       <c r="T27" s="1">
         <v>0.004550328478217125</v>
@@ -59187,7 +59187,7 @@
         <v>0.00376990670338273</v>
       </c>
       <c r="S28" s="1">
-        <v>0.00163948000408709</v>
+        <v>0.001639479887671769</v>
       </c>
       <c r="T28" s="1">
         <v>0.002865116577595472</v>
@@ -59377,7 +59377,7 @@
         <v>0.003356565954163671</v>
       </c>
       <c r="S30" s="1">
-        <v>0.003725307527929544</v>
+        <v>0.003725307295098901</v>
       </c>
       <c r="T30" s="1">
         <v>0.01328087784349918</v>
@@ -59528,7 +59528,7 @@
         <v>0.3883163034915924</v>
       </c>
       <c r="F32" s="1">
-        <v>0.3729196488857269</v>
+        <v>0.3729196190834045</v>
       </c>
       <c r="G32" s="1">
         <v>0.4520507156848907</v>
@@ -59567,7 +59567,7 @@
         <v>0.2744283974170685</v>
       </c>
       <c r="S32" s="1">
-        <v>0.3250329494476318</v>
+        <v>0.3250329196453094</v>
       </c>
       <c r="T32" s="1">
         <v>0.3663695752620697</v>
@@ -59662,7 +59662,7 @@
         <v>0.0802023857831955</v>
       </c>
       <c r="S33" s="1">
-        <v>0.1444857567548752</v>
+        <v>0.144485741853714</v>
       </c>
       <c r="T33" s="1">
         <v>0.1416963934898376</v>
@@ -59852,7 +59852,7 @@
         <v>0.003055062377825379</v>
       </c>
       <c r="S35" s="1">
-        <v>0.04877424240112305</v>
+        <v>0.04877423495054245</v>
       </c>
       <c r="T35" s="1">
         <v>0.03589435294270515</v>
@@ -59908,7 +59908,7 @@
         <v>0.7640249729156494</v>
       </c>
       <c r="F36" s="1">
-        <v>0.7145825624465942</v>
+        <v>0.714582622051239</v>
       </c>
       <c r="G36" s="1">
         <v>0.7891877889633179</v>
@@ -60042,7 +60042,7 @@
         <v>0.3776037991046906</v>
       </c>
       <c r="S37" s="1">
-        <v>0.2535275220870972</v>
+        <v>0.2535275518894196</v>
       </c>
       <c r="T37" s="1">
         <v>0.2749704420566559</v>
@@ -60137,7 +60137,7 @@
         <v>0.2028997242450714</v>
       </c>
       <c r="S38" s="1">
-        <v>0.1625010967254639</v>
+        <v>0.1625011116266251</v>
       </c>
       <c r="T38" s="1">
         <v>0.1119464486837387</v>
@@ -60327,7 +60327,7 @@
         <v>-0.0009653966408222914</v>
       </c>
       <c r="S40" s="1">
-        <v>-0.002934908494353294</v>
+        <v>-0.002934908261522651</v>
       </c>
       <c r="T40" s="1">
         <v>-0.00378642394207418</v>
@@ -60422,7 +60422,7 @@
         <v>0.579538106918335</v>
       </c>
       <c r="S41" s="1">
-        <v>0.4130937159061432</v>
+        <v>0.413093775510788</v>
       </c>
       <c r="T41" s="1">
         <v>0.3831304609775543</v>
@@ -60478,7 +60478,7 @@
         <v>0.9999998807907104</v>
       </c>
       <c r="F42" s="1">
-        <v>1.000000715255737</v>
+        <v>1.000000834465027</v>
       </c>
       <c r="G42" s="1">
         <v>0.9999993443489075</v>
@@ -60517,7 +60517,7 @@
         <v>0.9999998807907104</v>
       </c>
       <c r="S42" s="1">
-        <v>0.9999998807907104</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>1.000000238418579</v>
@@ -64990,7 +64990,7 @@
         <v>0.000622040475718677</v>
       </c>
       <c r="M5" s="1">
-        <v>0.0003581591590773314</v>
+        <v>0.0003581591881811619</v>
       </c>
       <c r="N5" s="1">
         <v>0.0002542012080084532</v>
@@ -65379,7 +65379,7 @@
         <v>0.005303798709064722</v>
       </c>
       <c r="P9" s="1">
-        <v>0.007377360947430134</v>
+        <v>0.007377361413091421</v>
       </c>
       <c r="Q9" s="1">
         <v>0.01147469878196716</v>
@@ -65510,7 +65510,7 @@
         <v>0.0003013845125678927</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.0001336994027951732</v>
+        <v>0.0001336994173470885</v>
       </c>
       <c r="AC10" s="1">
         <v>0.0003477193822618574</v>
@@ -65735,7 +65735,7 @@
         <v>0.001502760220319033</v>
       </c>
       <c r="H13" s="1">
-        <v>0.00260917516425252</v>
+        <v>0.002609175629913807</v>
       </c>
       <c r="I13" s="1">
         <v>0.001290906453505158</v>
@@ -65854,7 +65854,7 @@
         <v>0.0006320934044197202</v>
       </c>
       <c r="P14" s="1">
-        <v>3.12124248011969e-05</v>
+        <v>3.121242843917571e-05</v>
       </c>
       <c r="Q14" s="1">
         <v>6.46252156002447e-05</v>
@@ -66287,91 +66287,91 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.005982035771012306</v>
+        <v>0.005982036702334881</v>
       </c>
       <c r="C19" s="1">
-        <v>0.005829116329550743</v>
+        <v>0.005829117260873318</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0547640360891819</v>
+        <v>0.0547640435397625</v>
       </c>
       <c r="E19" s="1">
-        <v>0.04042701795697212</v>
+        <v>0.04042702168226242</v>
       </c>
       <c r="F19" s="1">
-        <v>0.02963455393910408</v>
+        <v>0.02963455952703953</v>
       </c>
       <c r="G19" s="1">
-        <v>0.05634307116270065</v>
+        <v>0.05634308233857155</v>
       </c>
       <c r="H19" s="1">
-        <v>0.1058671101927757</v>
+        <v>0.1058671399950981</v>
       </c>
       <c r="I19" s="1">
-        <v>0.02207505516707897</v>
+        <v>0.02207505889236927</v>
       </c>
       <c r="J19" s="1">
-        <v>0.05151290446519852</v>
+        <v>0.05151291564106941</v>
       </c>
       <c r="K19" s="1">
-        <v>0.01701124384999275</v>
+        <v>0.01701124757528305</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01185006368905306</v>
+        <v>0.01185006648302078</v>
       </c>
       <c r="M19" s="1">
-        <v>0.02523601613938808</v>
+        <v>0.02523602172732353</v>
       </c>
       <c r="N19" s="1">
-        <v>0.009993189014494419</v>
+        <v>0.009993190877139568</v>
       </c>
       <c r="O19" s="1">
-        <v>0.01264978852123022</v>
+        <v>0.01264979038387537</v>
       </c>
       <c r="P19" s="1">
-        <v>0.0121037270873785</v>
+        <v>0.01210372988134623</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.01078507024794817</v>
+        <v>0.01078507211059332</v>
       </c>
       <c r="R19" s="1">
-        <v>0.04479948803782463</v>
+        <v>0.04479949921369553</v>
       </c>
       <c r="S19" s="1">
-        <v>0.1180084943771362</v>
+        <v>0.118008516728878</v>
       </c>
       <c r="T19" s="1">
-        <v>0.01100749056786299</v>
+        <v>0.01100749243050814</v>
       </c>
       <c r="U19" s="1">
-        <v>0.01000160165131092</v>
+        <v>0.01000160351395607</v>
       </c>
       <c r="V19" s="1">
-        <v>0.01484581083059311</v>
+        <v>0.01484581362456083</v>
       </c>
       <c r="W19" s="1">
-        <v>0.007866191677749157</v>
+        <v>0.007866192609071732</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0007107419078238308</v>
+        <v>0.0007107419660314918</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.01436524372547865</v>
+        <v>0.01436524651944637</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.02452127262949944</v>
+        <v>0.02452127635478973</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.03026904538273811</v>
+        <v>0.03026905097067356</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.02057172358036041</v>
+        <v>0.02057172730565071</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01915222033858299</v>
+        <v>0.01915222220122814</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.03341656923294067</v>
+        <v>0.03341657668352127</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -67098,7 +67098,7 @@
         <v>0.009094827808439732</v>
       </c>
       <c r="S27" s="1">
-        <v>0.006139534525573254</v>
+        <v>0.006139534991234541</v>
       </c>
       <c r="T27" s="1">
         <v>0.006818560417741537</v>
@@ -67540,22 +67540,22 @@
         <v>0.2935389876365662</v>
       </c>
       <c r="H32" s="1">
-        <v>0.3809201717376709</v>
+        <v>0.3809202015399933</v>
       </c>
       <c r="I32" s="1">
         <v>0.1368573307991028</v>
       </c>
       <c r="J32" s="1">
-        <v>0.2260722219944</v>
+        <v>0.2260722368955612</v>
       </c>
       <c r="K32" s="1">
         <v>0.1541280299425125</v>
       </c>
       <c r="L32" s="1">
-        <v>0.09660830348730087</v>
+        <v>0.09660831093788147</v>
       </c>
       <c r="M32" s="1">
-        <v>0.1522402912378311</v>
+        <v>0.1522403061389923</v>
       </c>
       <c r="N32" s="1">
         <v>0.09218840301036835</v>
@@ -67573,13 +67573,13 @@
         <v>0.1879272162914276</v>
       </c>
       <c r="S32" s="1">
-        <v>0.2391141057014465</v>
+        <v>0.2391141355037689</v>
       </c>
       <c r="T32" s="1">
         <v>0.2140569686889648</v>
       </c>
       <c r="U32" s="1">
-        <v>0.08647378534078598</v>
+        <v>0.08647379279136658</v>
       </c>
       <c r="V32" s="1">
         <v>0.120202548801899</v>
@@ -67597,7 +67597,7 @@
         <v>0.1607827991247177</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.1619511395692825</v>
+        <v>0.1619511544704437</v>
       </c>
       <c r="AB32" s="1">
         <v>0.1352715343236923</v>
@@ -67606,7 +67606,7 @@
         <v>0.1858006715774536</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.1866113096475601</v>
+        <v>0.1866113245487213</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -67632,13 +67632,13 @@
         <v>0.3315433263778687</v>
       </c>
       <c r="G33" s="1">
-        <v>0.4388754963874817</v>
+        <v>0.4388754665851593</v>
       </c>
       <c r="H33" s="1">
-        <v>0.3043810427188873</v>
+        <v>0.3043809831142426</v>
       </c>
       <c r="I33" s="1">
-        <v>0.279248833656311</v>
+        <v>0.2792488038539886</v>
       </c>
       <c r="J33" s="1">
         <v>0.315184623003006</v>
@@ -67650,7 +67650,7 @@
         <v>0.2150216549634933</v>
       </c>
       <c r="M33" s="1">
-        <v>0.4085773527622223</v>
+        <v>0.4085773229598999</v>
       </c>
       <c r="N33" s="1">
         <v>0.3031944930553436</v>
@@ -67665,10 +67665,10 @@
         <v>0.3021931350231171</v>
       </c>
       <c r="R33" s="1">
-        <v>0.172074630856514</v>
+        <v>0.1720746159553528</v>
       </c>
       <c r="S33" s="1">
-        <v>0.2243258059024811</v>
+        <v>0.2243257761001587</v>
       </c>
       <c r="T33" s="1">
         <v>0.2722069323062897</v>
@@ -67695,10 +67695,10 @@
         <v>0.1508199423551559</v>
       </c>
       <c r="AB33" s="1">
-        <v>0.1085782423615456</v>
+        <v>0.108578234910965</v>
       </c>
       <c r="AC33" s="1">
-        <v>0.1118109002709389</v>
+        <v>0.1118108853697777</v>
       </c>
       <c r="AD33" s="1">
         <v>0.1918466985225677</v>
@@ -67917,7 +67917,7 @@
         <v>0.7040966153144836</v>
       </c>
       <c r="G36" s="1">
-        <v>0.8032119870185852</v>
+        <v>0.8032118678092957</v>
       </c>
       <c r="H36" s="1">
         <v>0.7915623188018799</v>
@@ -67926,7 +67926,7 @@
         <v>0.8115984201431274</v>
       </c>
       <c r="J36" s="1">
-        <v>0.7182586193084717</v>
+        <v>0.7182585597038269</v>
       </c>
       <c r="K36" s="1">
         <v>0.6402085423469543</v>
@@ -67977,7 +67977,7 @@
         <v>0.4370179772377014</v>
       </c>
       <c r="AA36" s="1">
-        <v>0.3972799181938171</v>
+        <v>0.3972799479961395</v>
       </c>
       <c r="AB36" s="1">
         <v>0.2945223450660706</v>
@@ -67986,7 +67986,7 @@
         <v>0.3842347264289856</v>
       </c>
       <c r="AD36" s="1">
-        <v>0.4770467281341553</v>
+        <v>0.4770466983318329</v>
       </c>
       <c r="AE36" s="1">
         <v>0</v>
@@ -68487,7 +68487,7 @@
         <v>1.000000834465027</v>
       </c>
       <c r="G42" s="1">
-        <v>0.9999992847442627</v>
+        <v>0.9999991655349731</v>
       </c>
       <c r="H42" s="1">
         <v>1.000000357627869</v>
@@ -68496,7 +68496,7 @@
         <v>1.000000238418579</v>
       </c>
       <c r="J42" s="1">
-        <v>0.9999998807907104</v>
+        <v>0.9999998211860657</v>
       </c>
       <c r="K42" s="1">
         <v>0.9999997615814209</v>
@@ -68547,7 +68547,7 @@
         <v>1</v>
       </c>
       <c r="AA42" s="1">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="AB42" s="1">
         <v>0.9999995827674866</v>
@@ -68726,7 +68726,7 @@
         <v>0.0006987695815041661</v>
       </c>
       <c r="S2" s="1">
-        <v>0.0005800134385935962</v>
+        <v>0.000580013555008918</v>
       </c>
       <c r="T2" s="1">
         <v>0.008567482233047485</v>
@@ -68821,7 +68821,7 @@
         <v>0.0002221727190772071</v>
       </c>
       <c r="S3" s="1">
-        <v>0.0001314551336690784</v>
+        <v>0.0001314551627729088</v>
       </c>
       <c r="T3" s="1">
         <v>0.002783929696306586</v>
@@ -68916,7 +68916,7 @@
         <v>0.0001545960840303451</v>
       </c>
       <c r="S4" s="1">
-        <v>6.767475861124694e-05</v>
+        <v>6.767477316316217e-05</v>
       </c>
       <c r="T4" s="1">
         <v>0.0001907803962239996</v>
@@ -69005,13 +69005,13 @@
         <v>0.0008966004243120551</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.0009616136085242033</v>
+        <v>0.0009616134921088815</v>
       </c>
       <c r="R5" s="1">
         <v>0.0007472754223272204</v>
       </c>
       <c r="S5" s="1">
-        <v>0.001199134392663836</v>
+        <v>0.00119913462549448</v>
       </c>
       <c r="T5" s="1">
         <v>0.03311541303992271</v>
@@ -69106,7 +69106,7 @@
         <v>9.48826054809615e-05</v>
       </c>
       <c r="S6" s="1">
-        <v>4.227583121974021e-05</v>
+        <v>4.227584213367663e-05</v>
       </c>
       <c r="T6" s="1">
         <v>2.846493225661106e-05</v>
@@ -69201,7 +69201,7 @@
         <v>0.001579746953211725</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0007777164573781192</v>
+        <v>0.000777716632001102</v>
       </c>
       <c r="T7" s="1">
         <v>0.0007736217230558395</v>
@@ -69296,7 +69296,7 @@
         <v>0.02061646990478039</v>
       </c>
       <c r="S8" s="1">
-        <v>0.01271606236696243</v>
+        <v>0.01271606516093016</v>
       </c>
       <c r="T8" s="1">
         <v>0.01441942062228918</v>
@@ -69391,7 +69391,7 @@
         <v>0.002419650088995695</v>
       </c>
       <c r="S9" s="1">
-        <v>0.0129095371812582</v>
+        <v>0.01290953997522593</v>
       </c>
       <c r="T9" s="1">
         <v>0.001282226294279099</v>
@@ -69453,7 +69453,7 @@
         <v>0.006263525690883398</v>
       </c>
       <c r="H10" s="1">
-        <v>0.001331844134256244</v>
+        <v>0.001331844017840922</v>
       </c>
       <c r="I10" s="1">
         <v>0.004533190745860338</v>
@@ -69486,7 +69486,7 @@
         <v>0.002769294893369079</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0009429585770703852</v>
+        <v>0.0009429588099010289</v>
       </c>
       <c r="T10" s="1">
         <v>0.001061633578501642</v>
@@ -69581,7 +69581,7 @@
         <v>0.001725760870613158</v>
       </c>
       <c r="S11" s="1">
-        <v>0.00156940845772624</v>
+        <v>0.001569408806972206</v>
       </c>
       <c r="T11" s="1">
         <v>0.001540481811389327</v>
@@ -69676,7 +69676,7 @@
         <v>0.0007788564544171095</v>
       </c>
       <c r="S12" s="1">
-        <v>0.0004221384588163346</v>
+        <v>0.000422138546127826</v>
       </c>
       <c r="T12" s="1">
         <v>0.0007600971730425954</v>
@@ -69744,7 +69744,7 @@
         <v>0.001258464064449072</v>
       </c>
       <c r="J13" s="1">
-        <v>0.004054490011185408</v>
+        <v>0.00405448954552412</v>
       </c>
       <c r="K13" s="1">
         <v>0.004252992570400238</v>
@@ -69771,7 +69771,7 @@
         <v>0.002469791332259774</v>
       </c>
       <c r="S13" s="1">
-        <v>0.00216942629776895</v>
+        <v>0.002169426763430238</v>
       </c>
       <c r="T13" s="1">
         <v>0.002550249686464667</v>
@@ -69866,7 +69866,7 @@
         <v>8.190001972252503e-05</v>
       </c>
       <c r="S14" s="1">
-        <v>6.834661326138303e-05</v>
+        <v>6.834662781329826e-05</v>
       </c>
       <c r="T14" s="1">
         <v>1.90025930351112e-05</v>
@@ -69961,7 +69961,7 @@
         <v>0.002072968985885382</v>
       </c>
       <c r="S15" s="1">
-        <v>0.006645959336310625</v>
+        <v>0.006645960733294487</v>
       </c>
       <c r="T15" s="1">
         <v>0.003414215287193656</v>
@@ -69988,7 +69988,7 @@
         <v>0.00281528988853097</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.0009692831663414836</v>
+        <v>0.0009692830499261618</v>
       </c>
       <c r="AC15" s="1">
         <v>0.00479478994384408</v>
@@ -70056,7 +70056,7 @@
         <v>0.02321082167327404</v>
       </c>
       <c r="S16" s="1">
-        <v>0.01160451583564281</v>
+        <v>0.01160451862961054</v>
       </c>
       <c r="T16" s="1">
         <v>0.03658007085323334</v>
@@ -70151,7 +70151,7 @@
         <v>0.006771710235625505</v>
       </c>
       <c r="S17" s="1">
-        <v>0.01570702716708183</v>
+        <v>0.01570703089237213</v>
       </c>
       <c r="T17" s="1">
         <v>0.003206094261258841</v>
@@ -70246,7 +70246,7 @@
         <v>0.01685065589845181</v>
       </c>
       <c r="S18" s="1">
-        <v>0.02229015156626701</v>
+        <v>0.02229015715420246</v>
       </c>
       <c r="T18" s="1">
         <v>0.03021912835538387</v>
@@ -70290,91 +70290,91 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.004008038435131311</v>
+        <v>0.004008037038147449</v>
       </c>
       <c r="C19" s="1">
-        <v>0.003566672559827566</v>
+        <v>0.003566671162843704</v>
       </c>
       <c r="D19" s="1">
-        <v>0.04309666529297829</v>
+        <v>0.04309664666652679</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02050591818988323</v>
+        <v>0.02050591260194778</v>
       </c>
       <c r="F19" s="1">
-        <v>0.01786752417683601</v>
+        <v>0.01786751858890057</v>
       </c>
       <c r="G19" s="1">
-        <v>0.03171325102448463</v>
+        <v>0.03171323984861374</v>
       </c>
       <c r="H19" s="1">
-        <v>0.05886214971542358</v>
+        <v>0.05886213481426239</v>
       </c>
       <c r="I19" s="1">
-        <v>0.01303068548440933</v>
+        <v>0.01303068082779646</v>
       </c>
       <c r="J19" s="1">
-        <v>0.02979793027043343</v>
+        <v>0.02979791909456253</v>
       </c>
       <c r="K19" s="1">
-        <v>0.01123615074902773</v>
+        <v>0.01123614702373743</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01294959802180529</v>
+        <v>0.01294959336519241</v>
       </c>
       <c r="M19" s="1">
-        <v>0.01249048579484224</v>
+        <v>0.0124904802069068</v>
       </c>
       <c r="N19" s="1">
-        <v>0.007966834120452404</v>
+        <v>0.00796683132648468</v>
       </c>
       <c r="O19" s="1">
-        <v>0.008405867032706738</v>
+        <v>0.008405863307416439</v>
       </c>
       <c r="P19" s="1">
-        <v>0.009088875725865364</v>
+        <v>0.009088872000575066</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.006367765367031097</v>
+        <v>0.006367763038724661</v>
       </c>
       <c r="R19" s="1">
-        <v>0.02544796839356422</v>
+        <v>0.02544795721769333</v>
       </c>
       <c r="S19" s="1">
-        <v>0.06145428493618965</v>
+        <v>0.06145427748560905</v>
       </c>
       <c r="T19" s="1">
-        <v>0.006650461815297604</v>
+        <v>0.006650459952652454</v>
       </c>
       <c r="U19" s="1">
-        <v>0.009248255752027035</v>
+        <v>0.009248252958059311</v>
       </c>
       <c r="V19" s="1">
-        <v>0.009041018784046173</v>
+        <v>0.009041016921401024</v>
       </c>
       <c r="W19" s="1">
-        <v>0.004233548883348703</v>
+        <v>0.004233547486364841</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0004857525927945971</v>
+        <v>0.0004857524472754449</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.01017972361296415</v>
+        <v>0.01017972081899643</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.01091117411851883</v>
+        <v>0.01091117039322853</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.01974053494632244</v>
+        <v>0.01974052749574184</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01096502132713795</v>
+        <v>0.01096501760184765</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01145422551780939</v>
+        <v>0.01145422272384167</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.01838940382003784</v>
+        <v>0.01838939823210239</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -70436,7 +70436,7 @@
         <v>0.005013049580156803</v>
       </c>
       <c r="S20" s="1">
-        <v>0.005652670748531818</v>
+        <v>0.00565267214551568</v>
       </c>
       <c r="T20" s="1">
         <v>0.006689156871289015</v>
@@ -70531,7 +70531,7 @@
         <v>0.004361179191619158</v>
       </c>
       <c r="S21" s="1">
-        <v>0.002191437873989344</v>
+        <v>0.002191438339650631</v>
       </c>
       <c r="T21" s="1">
         <v>0.004330294206738472</v>
@@ -70626,7 +70626,7 @@
         <v>0.00192720873747021</v>
       </c>
       <c r="S22" s="1">
-        <v>0.001064129290170968</v>
+        <v>0.001064129523001611</v>
       </c>
       <c r="T22" s="1">
         <v>0.001560928532853723</v>
@@ -70721,7 +70721,7 @@
         <v>0.03832521289587021</v>
       </c>
       <c r="S23" s="1">
-        <v>0.01379721704870462</v>
+        <v>0.01379721984267235</v>
       </c>
       <c r="T23" s="1">
         <v>0.0512288473546505</v>
@@ -70816,7 +70816,7 @@
         <v>0.0005302708595991135</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0001906504039652646</v>
+        <v>0.0001906504476210102</v>
       </c>
       <c r="T24" s="1">
         <v>0.0007096283952705562</v>
@@ -70911,7 +70911,7 @@
         <v>0.02087141945958138</v>
       </c>
       <c r="S25" s="1">
-        <v>0.007545555476099253</v>
+        <v>0.007545556873083115</v>
       </c>
       <c r="T25" s="1">
         <v>0.01362788211554289</v>
@@ -71006,7 +71006,7 @@
         <v>0.01300670206546783</v>
       </c>
       <c r="S26" s="1">
-        <v>0.01060434523969889</v>
+        <v>0.01060434710234404</v>
       </c>
       <c r="T26" s="1">
         <v>0.02266930229961872</v>
@@ -71101,7 +71101,7 @@
         <v>0.01015091687440872</v>
       </c>
       <c r="S27" s="1">
-        <v>0.006279503460973501</v>
+        <v>0.006279504857957363</v>
       </c>
       <c r="T27" s="1">
         <v>0.007354549132287502</v>
@@ -71196,7 +71196,7 @@
         <v>0.00351464026607573</v>
       </c>
       <c r="S28" s="1">
-        <v>0.001369347446598113</v>
+        <v>0.001369347679428756</v>
       </c>
       <c r="T28" s="1">
         <v>0.00253584305755794</v>
@@ -71291,7 +71291,7 @@
         <v>0.001519494690001011</v>
       </c>
       <c r="S29" s="1">
-        <v>0.001745144953019917</v>
+        <v>0.001745145418681204</v>
       </c>
       <c r="T29" s="1">
         <v>0.00125042675063014</v>
@@ -71386,7 +71386,7 @@
         <v>0.002920973813161254</v>
       </c>
       <c r="S30" s="1">
-        <v>0.002750064013525844</v>
+        <v>0.002750064712017775</v>
       </c>
       <c r="T30" s="1">
         <v>0.01044670213013887</v>
@@ -71528,10 +71528,10 @@
         <v>0.3240087032318115</v>
       </c>
       <c r="C32" s="1">
-        <v>0.119769811630249</v>
+        <v>0.1197698041796684</v>
       </c>
       <c r="D32" s="1">
-        <v>0.2886557281017303</v>
+        <v>0.288655698299408</v>
       </c>
       <c r="E32" s="1">
         <v>0.3292890191078186</v>
@@ -71543,13 +71543,13 @@
         <v>0.3859511315822601</v>
       </c>
       <c r="H32" s="1">
-        <v>0.4051836729049683</v>
+        <v>0.4051836431026459</v>
       </c>
       <c r="I32" s="1">
         <v>0.1923793107271194</v>
       </c>
       <c r="J32" s="1">
-        <v>0.3188678324222565</v>
+        <v>0.3188678026199341</v>
       </c>
       <c r="K32" s="1">
         <v>0.3162305653095245</v>
@@ -71600,16 +71600,16 @@
         <v>0.1470349431037903</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.2046706229448318</v>
+        <v>0.2046706080436707</v>
       </c>
       <c r="AB32" s="1">
-        <v>0.1396173089742661</v>
+        <v>0.1396172940731049</v>
       </c>
       <c r="AC32" s="1">
         <v>0.2055457234382629</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.2045475989580154</v>
+        <v>0.2045475840568542</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -71626,19 +71626,19 @@
         <v>0.1285570561885834</v>
       </c>
       <c r="D33" s="1">
-        <v>0.215607687830925</v>
+        <v>0.2156077176332474</v>
       </c>
       <c r="E33" s="1">
         <v>0.307264506816864</v>
       </c>
       <c r="F33" s="1">
-        <v>0.2652142643928528</v>
+        <v>0.2652142941951752</v>
       </c>
       <c r="G33" s="1">
         <v>0.3037418127059937</v>
       </c>
       <c r="H33" s="1">
-        <v>0.2381497919559479</v>
+        <v>0.2381498068571091</v>
       </c>
       <c r="I33" s="1">
         <v>0.2180259376764297</v>
@@ -71671,7 +71671,7 @@
         <v>0.1327475607395172</v>
       </c>
       <c r="S33" s="1">
-        <v>0.2034761905670166</v>
+        <v>0.2034762352705002</v>
       </c>
       <c r="T33" s="1">
         <v>0.1994571685791016</v>
@@ -71692,10 +71692,10 @@
         <v>0.1647474765777588</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.1173745840787888</v>
+        <v>0.1173745915293694</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.1375271826982498</v>
+        <v>0.137527197599411</v>
       </c>
       <c r="AB33" s="1">
         <v>0.07891768962144852</v>
@@ -71763,10 +71763,10 @@
         <v>0.09508370608091354</v>
       </c>
       <c r="R34" s="1">
-        <v>0.06091976165771484</v>
+        <v>0.06091975793242455</v>
       </c>
       <c r="S34" s="1">
-        <v>0.06000365689396858</v>
+        <v>0.06000367179512978</v>
       </c>
       <c r="T34" s="1">
         <v>0.06751424074172974</v>
@@ -71861,7 +71861,7 @@
         <v>0.002960442332550883</v>
       </c>
       <c r="S35" s="1">
-        <v>0.04240662232041359</v>
+        <v>0.04240662977099419</v>
       </c>
       <c r="T35" s="1">
         <v>0.03312727436423302</v>
@@ -71908,10 +71908,10 @@
         <v>0.7438164949417114</v>
       </c>
       <c r="C36" s="1">
-        <v>0.29403355717659</v>
+        <v>0.2940335273742676</v>
       </c>
       <c r="D36" s="1">
-        <v>0.7738006114959717</v>
+        <v>0.7738006711006165</v>
       </c>
       <c r="E36" s="1">
         <v>0.7437365651130676</v>
@@ -71956,7 +71956,7 @@
         <v>0.4074821472167969</v>
       </c>
       <c r="S36" s="1">
-        <v>0.5103746056556702</v>
+        <v>0.5103747248649597</v>
       </c>
       <c r="T36" s="1">
         <v>0.5696649551391602</v>
@@ -71983,7 +71983,7 @@
         <v>0.4339393377304077</v>
       </c>
       <c r="AB36" s="1">
-        <v>0.2635200023651123</v>
+        <v>0.2635199725627899</v>
       </c>
       <c r="AC36" s="1">
         <v>0.3845018148422241</v>
@@ -72146,7 +72146,7 @@
         <v>0.1985705941915512</v>
       </c>
       <c r="S38" s="1">
-        <v>0.187316507101059</v>
+        <v>0.1873164921998978</v>
       </c>
       <c r="T38" s="1">
         <v>0.07578184455633163</v>
@@ -72336,7 +72336,7 @@
         <v>-0.0009447986958548427</v>
       </c>
       <c r="S40" s="1">
-        <v>-0.003383095376193523</v>
+        <v>-0.003383096074685454</v>
       </c>
       <c r="T40" s="1">
         <v>-0.002563209738582373</v>
@@ -72431,7 +72431,7 @@
         <v>0.5925174951553345</v>
       </c>
       <c r="S41" s="1">
-        <v>0.4896252453327179</v>
+        <v>0.4896252155303955</v>
       </c>
       <c r="T41" s="1">
         <v>0.4303352832794189</v>
@@ -72481,7 +72481,7 @@
         <v>0.9999997615814209</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="E42" s="1">
         <v>0.9999999403953552</v>
@@ -72526,7 +72526,7 @@
         <v>0.9999996423721313</v>
       </c>
       <c r="S42" s="1">
-        <v>0.9999998807907104</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="T42" s="1">
         <v>1.000000238418579</v>
@@ -72553,7 +72553,7 @@
         <v>1</v>
       </c>
       <c r="AB42" s="1">
-        <v>0.9999995827674866</v>
+        <v>0.9999995231628418</v>
       </c>
       <c r="AC42" s="1">
         <v>1.00000011920929</v>
@@ -73165,13 +73165,13 @@
         <v>0.002151799621060491</v>
       </c>
       <c r="F7" s="1">
-        <v>0.002080581383779645</v>
+        <v>0.002080581150949001</v>
       </c>
       <c r="G7" s="1">
         <v>0.09595563262701035</v>
       </c>
       <c r="H7" s="1">
-        <v>0.01876614429056644</v>
+        <v>0.0187661424279213</v>
       </c>
       <c r="I7" s="1">
         <v>0.004177214112132788</v>
@@ -73204,7 +73204,7 @@
         <v>0.002487252000719309</v>
       </c>
       <c r="S7" s="1">
-        <v>0.001639614929445088</v>
+        <v>0.001639614696614444</v>
       </c>
       <c r="T7" s="1">
         <v>0.001539986464194953</v>
@@ -73400,10 +73400,10 @@
         <v>0.001309543149545789</v>
       </c>
       <c r="U9" s="1">
-        <v>0.001316551119089127</v>
+        <v>0.001316551002673805</v>
       </c>
       <c r="V9" s="1">
-        <v>0.001666240626946092</v>
+        <v>0.001666240394115448</v>
       </c>
       <c r="W9" s="1">
         <v>0.005929351318627596</v>
@@ -73453,10 +73453,10 @@
         <v>0.001939252018928528</v>
       </c>
       <c r="G10" s="1">
-        <v>0.006422725040465593</v>
+        <v>0.006422724574804306</v>
       </c>
       <c r="H10" s="1">
-        <v>0.001412043464370072</v>
+        <v>0.00141204334795475</v>
       </c>
       <c r="I10" s="1">
         <v>0.004143930971622467</v>
@@ -73489,7 +73489,7 @@
         <v>0.002790292724967003</v>
       </c>
       <c r="S10" s="1">
-        <v>0.001107904128730297</v>
+        <v>0.001107903895899653</v>
       </c>
       <c r="T10" s="1">
         <v>0.00106474116910249</v>
@@ -73498,7 +73498,7 @@
         <v>0.001399429864250124</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0007612047484144568</v>
+        <v>0.0007612046902067959</v>
       </c>
       <c r="W10" s="1">
         <v>0.0008554111700505018</v>
@@ -73516,10 +73516,10 @@
         <v>0.001176487188786268</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.0003688787401188165</v>
+        <v>0.000368878711014986</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.0007633154164068401</v>
+        <v>0.0007633153581991792</v>
       </c>
       <c r="AD10" s="1">
         <v>0.001169400988146663</v>
@@ -73536,7 +73536,7 @@
         <v>0.001726428046822548</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0001892851869342849</v>
+        <v>0.0001892851723823696</v>
       </c>
       <c r="D11" s="1">
         <v>0.002160826697945595</v>
@@ -73581,7 +73581,7 @@
         <v>0.01910116150975227</v>
       </c>
       <c r="R11" s="1">
-        <v>0.001153073855675757</v>
+        <v>0.001153073739260435</v>
       </c>
       <c r="S11" s="1">
         <v>0.001226435299031436</v>
@@ -73614,7 +73614,7 @@
         <v>0.0008617874700576067</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.0003141988127026707</v>
+        <v>0.0003141987544950098</v>
       </c>
       <c r="AD11" s="1">
         <v>0.001345296041108668</v>
@@ -73679,7 +73679,7 @@
         <v>0.002513048704713583</v>
       </c>
       <c r="S12" s="1">
-        <v>0.001360722351819277</v>
+        <v>0.001360722235403955</v>
       </c>
       <c r="T12" s="1">
         <v>0.002392286900430918</v>
@@ -73738,10 +73738,10 @@
         <v>0.002714313799515367</v>
       </c>
       <c r="G13" s="1">
-        <v>0.001579427742399275</v>
+        <v>0.001579427625983953</v>
       </c>
       <c r="H13" s="1">
-        <v>0.00242595630697906</v>
+        <v>0.002425956074148417</v>
       </c>
       <c r="I13" s="1">
         <v>0.001017178758047521</v>
@@ -73771,7 +73771,7 @@
         <v>0.01057173032313585</v>
       </c>
       <c r="R13" s="1">
-        <v>0.002670031972229481</v>
+        <v>0.002670031739398837</v>
       </c>
       <c r="S13" s="1">
         <v>0.002595803234726191</v>
@@ -73783,7 +73783,7 @@
         <v>0.004271960351616144</v>
       </c>
       <c r="V13" s="1">
-        <v>0.001446124399080873</v>
+        <v>0.001446124166250229</v>
       </c>
       <c r="W13" s="1">
         <v>0.001809662557207048</v>
@@ -73801,7 +73801,7 @@
         <v>0.002604961162433028</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.0008858098299242556</v>
+        <v>0.0008858097135089338</v>
       </c>
       <c r="AC13" s="1">
         <v>0.001196514233015478</v>
@@ -73818,16 +73818,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>6.798097456339747e-05</v>
+        <v>6.798096728743985e-05</v>
       </c>
       <c r="C14" s="1">
         <v>0.0001461626525269821</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0002249382378067821</v>
+        <v>0.0002249382232548669</v>
       </c>
       <c r="E14" s="1">
-        <v>8.43224988784641e-05</v>
+        <v>8.432249160250649e-05</v>
       </c>
       <c r="F14" s="1">
         <v>7.816821744199842e-05</v>
@@ -73836,10 +73836,10 @@
         <v>6.222696538316086e-05</v>
       </c>
       <c r="H14" s="1">
-        <v>5.785371467936784e-05</v>
+        <v>5.785371104138903e-05</v>
       </c>
       <c r="I14" s="1">
-        <v>5.52932579012122e-05</v>
+        <v>5.529325062525459e-05</v>
       </c>
       <c r="J14" s="1">
         <v>0.0002258993772557005</v>
@@ -73872,7 +73872,7 @@
         <v>0.0004724587197415531</v>
       </c>
       <c r="T14" s="1">
-        <v>8.409489237237722e-05</v>
+        <v>8.40948850964196e-05</v>
       </c>
       <c r="U14" s="1">
         <v>0.000127149818581529</v>
@@ -73893,16 +73893,16 @@
         <v>0.0001965709816431627</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.96823946479708e-05</v>
+        <v>9.968238737201318e-05</v>
       </c>
       <c r="AB14" s="1">
-        <v>2.682341255422216e-05</v>
+        <v>2.682340891624335e-05</v>
       </c>
       <c r="AC14" s="1">
-        <v>2.336078432563227e-05</v>
+        <v>2.336078250664286e-05</v>
       </c>
       <c r="AD14" s="1">
-        <v>6.025707261869684e-05</v>
+        <v>6.025706898071803e-05</v>
       </c>
       <c r="AE14" s="1">
         <v>0</v>
@@ -74293,91 +74293,91 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.004011597018688917</v>
+        <v>0.004011594690382481</v>
       </c>
       <c r="C19" s="1">
-        <v>0.004680326674133539</v>
+        <v>0.004680322948843241</v>
       </c>
       <c r="D19" s="1">
-        <v>0.05973240360617638</v>
+        <v>0.05973236262798309</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02682038769125938</v>
+        <v>0.02682036720216274</v>
       </c>
       <c r="F19" s="1">
-        <v>0.02112868614494801</v>
+        <v>0.02112866938114166</v>
       </c>
       <c r="G19" s="1">
-        <v>0.04589157178997993</v>
+        <v>0.04589153826236725</v>
       </c>
       <c r="H19" s="1">
-        <v>0.07723765075206757</v>
+        <v>0.07723759114742279</v>
       </c>
       <c r="I19" s="1">
-        <v>0.01293949969112873</v>
+        <v>0.01293949037790298</v>
       </c>
       <c r="J19" s="1">
-        <v>0.04297291859984398</v>
+        <v>0.04297288507223129</v>
       </c>
       <c r="K19" s="1">
-        <v>0.01272496767342091</v>
+        <v>0.01272495929151773</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01289315056055784</v>
+        <v>0.01289314217865467</v>
       </c>
       <c r="M19" s="1">
-        <v>0.0192307885736227</v>
+        <v>0.01923077553510666</v>
       </c>
       <c r="N19" s="1">
-        <v>0.009968467988073826</v>
+        <v>0.009968460537493229</v>
       </c>
       <c r="O19" s="1">
-        <v>0.01149532198905945</v>
+        <v>0.01149531360715628</v>
       </c>
       <c r="P19" s="1">
-        <v>0.0123660359531641</v>
+        <v>0.01236602757126093</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.008168259635567665</v>
+        <v>0.008168254047632217</v>
       </c>
       <c r="R19" s="1">
-        <v>0.03561264649033546</v>
+        <v>0.03561262786388397</v>
       </c>
       <c r="S19" s="1">
-        <v>0.08999206125736237</v>
+        <v>0.0899919867515564</v>
       </c>
       <c r="T19" s="1">
-        <v>0.008319291286170483</v>
+        <v>0.00831928662955761</v>
       </c>
       <c r="U19" s="1">
-        <v>0.01284433528780937</v>
+        <v>0.0128443269059062</v>
       </c>
       <c r="V19" s="1">
-        <v>0.01188714429736137</v>
+        <v>0.0118871359154582</v>
       </c>
       <c r="W19" s="1">
-        <v>0.004937756340950727</v>
+        <v>0.004937753081321716</v>
       </c>
       <c r="X19" s="1">
-        <v>0.000492747116368264</v>
+        <v>0.0004927468835376203</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.01160483248531818</v>
+        <v>0.01160482503473759</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.01845801435410976</v>
+        <v>0.01845800317823887</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.03154689446091652</v>
+        <v>0.03154687210917473</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.01702686585485935</v>
+        <v>0.01702685467898846</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01385942380875349</v>
+        <v>0.01385941356420517</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.02694957703351974</v>
+        <v>0.02694955840706825</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -75056,22 +75056,22 @@
         <v>0.001716018770821393</v>
       </c>
       <c r="C27" s="1">
-        <v>0.003522689454257488</v>
+        <v>0.003522689221426845</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01174970623105764</v>
+        <v>0.01174970529973507</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006319965701550245</v>
+        <v>0.006319965235888958</v>
       </c>
       <c r="F27" s="1">
         <v>0.01172362267971039</v>
       </c>
       <c r="G27" s="1">
-        <v>0.007492108270525932</v>
+        <v>0.007492107804864645</v>
       </c>
       <c r="H27" s="1">
-        <v>0.005403580144047737</v>
+        <v>0.00540357967838645</v>
       </c>
       <c r="I27" s="1">
         <v>0.002827640390023589</v>
@@ -75101,10 +75101,10 @@
         <v>0.003632628358900547</v>
       </c>
       <c r="R27" s="1">
-        <v>0.008098820224404335</v>
+        <v>0.00809881929308176</v>
       </c>
       <c r="S27" s="1">
-        <v>0.00533367833122611</v>
+        <v>0.005333677865564823</v>
       </c>
       <c r="T27" s="1">
         <v>0.006024807691574097</v>
@@ -75128,10 +75128,10 @@
         <v>0.00716955354437232</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.006874737329781055</v>
+        <v>0.006874736864119768</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.004927513189613819</v>
+        <v>0.004927512723952532</v>
       </c>
       <c r="AC27" s="1">
         <v>0.008679231628775597</v>
@@ -75534,25 +75534,25 @@
         <v>0.1698005050420761</v>
       </c>
       <c r="D32" s="1">
-        <v>0.2996343672275543</v>
+        <v>0.2996343374252319</v>
       </c>
       <c r="E32" s="1">
-        <v>0.3295780122280121</v>
+        <v>0.3295779824256897</v>
       </c>
       <c r="F32" s="1">
-        <v>0.2504910826683044</v>
+        <v>0.2504910528659821</v>
       </c>
       <c r="G32" s="1">
-        <v>0.5368552207946777</v>
+        <v>0.5368551015853882</v>
       </c>
       <c r="H32" s="1">
-        <v>0.3229306638240814</v>
+        <v>0.3229306042194366</v>
       </c>
       <c r="I32" s="1">
-        <v>0.1362482905387878</v>
+        <v>0.1362482756376266</v>
       </c>
       <c r="J32" s="1">
-        <v>0.3284444808959961</v>
+        <v>0.3284444510936737</v>
       </c>
       <c r="K32" s="1">
         <v>0.2375357747077942</v>
@@ -75564,10 +75564,10 @@
         <v>0.2626820206642151</v>
       </c>
       <c r="N32" s="1">
-        <v>0.223301038146019</v>
+        <v>0.2233010232448578</v>
       </c>
       <c r="O32" s="1">
-        <v>0.2312729358673096</v>
+        <v>0.2312729209661484</v>
       </c>
       <c r="P32" s="1">
         <v>0.286929190158844</v>
@@ -75576,16 +75576,16 @@
         <v>0.3292509615421295</v>
       </c>
       <c r="R32" s="1">
-        <v>0.2129950076341629</v>
+        <v>0.2129949927330017</v>
       </c>
       <c r="S32" s="1">
-        <v>0.2364311069250107</v>
+        <v>0.2364310473203659</v>
       </c>
       <c r="T32" s="1">
         <v>0.2853901088237762</v>
       </c>
       <c r="U32" s="1">
-        <v>0.1648081541061401</v>
+        <v>0.1648081243038177</v>
       </c>
       <c r="V32" s="1">
         <v>0.150311067700386</v>
@@ -75600,7 +75600,7 @@
         <v>0.2135779857635498</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.1840080320835114</v>
+        <v>0.1840080171823502</v>
       </c>
       <c r="AA32" s="1">
         <v>0.2385265529155731</v>
@@ -75612,7 +75612,7 @@
         <v>0.1834217458963394</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.2104014307260513</v>
+        <v>0.2104014009237289</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -75626,31 +75626,31 @@
         <v>0.2221094369888306</v>
       </c>
       <c r="C33" s="1">
-        <v>0.07685302942991257</v>
+        <v>0.07685303688049316</v>
       </c>
       <c r="D33" s="1">
-        <v>0.2002844959497452</v>
+        <v>0.2002845406532288</v>
       </c>
       <c r="E33" s="1">
-        <v>0.2807720303535461</v>
+        <v>0.2807720601558685</v>
       </c>
       <c r="F33" s="1">
-        <v>0.1923545151948929</v>
+        <v>0.1923545300960541</v>
       </c>
       <c r="G33" s="1">
-        <v>0.1786580383777618</v>
+        <v>0.1786580979824066</v>
       </c>
       <c r="H33" s="1">
-        <v>0.2778404057025909</v>
+        <v>0.2778404653072357</v>
       </c>
       <c r="I33" s="1">
         <v>0.1600167453289032</v>
       </c>
       <c r="J33" s="1">
-        <v>0.2174682915210724</v>
+        <v>0.2174683213233948</v>
       </c>
       <c r="K33" s="1">
-        <v>0.1806920319795609</v>
+        <v>0.180692046880722</v>
       </c>
       <c r="L33" s="1">
         <v>0.1934408247470856</v>
@@ -75662,28 +75662,28 @@
         <v>0.2579492330551147</v>
       </c>
       <c r="O33" s="1">
-        <v>0.2025103569030762</v>
+        <v>0.2025103718042374</v>
       </c>
       <c r="P33" s="1">
         <v>0.1470082551240921</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.1642540842294693</v>
+        <v>0.1642540991306305</v>
       </c>
       <c r="R33" s="1">
-        <v>0.1369374096393585</v>
+        <v>0.1369374245405197</v>
       </c>
       <c r="S33" s="1">
-        <v>0.1903830319643021</v>
+        <v>0.1903831213712692</v>
       </c>
       <c r="T33" s="1">
-        <v>0.2110624611377716</v>
+        <v>0.2110624760389328</v>
       </c>
       <c r="U33" s="1">
         <v>0.2155914157629013</v>
       </c>
       <c r="V33" s="1">
-        <v>0.2472611367702484</v>
+        <v>0.2472611516714096</v>
       </c>
       <c r="W33" s="1">
         <v>0.1515259295701981</v>
@@ -75692,22 +75692,22 @@
         <v>0.05833214148879051</v>
       </c>
       <c r="Y33" s="1">
-        <v>0.141799658536911</v>
+        <v>0.1417996734380722</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.1479986608028412</v>
+        <v>0.1479986757040024</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.1606303453445435</v>
+        <v>0.1606303751468658</v>
       </c>
       <c r="AB33" s="1">
-        <v>0.09917314350605011</v>
+        <v>0.0991731584072113</v>
       </c>
       <c r="AC33" s="1">
-        <v>0.08814196288585663</v>
+        <v>0.08814197778701782</v>
       </c>
       <c r="AD33" s="1">
-        <v>0.1659036874771118</v>
+        <v>0.1659037172794342</v>
       </c>
       <c r="AE33" s="1">
         <v>0</v>
@@ -75917,7 +75917,7 @@
         <v>0.7633572816848755</v>
       </c>
       <c r="E36" s="1">
-        <v>0.7108398675918579</v>
+        <v>0.7108399271965027</v>
       </c>
       <c r="F36" s="1">
         <v>0.6026525497436523</v>
@@ -75929,13 +75929,13 @@
         <v>0.6896684169769287</v>
       </c>
       <c r="I36" s="1">
-        <v>0.5648826956748962</v>
+        <v>0.5648826360702515</v>
       </c>
       <c r="J36" s="1">
         <v>0.7173937559127808</v>
       </c>
       <c r="K36" s="1">
-        <v>0.5704506635665894</v>
+        <v>0.5704507231712341</v>
       </c>
       <c r="L36" s="1">
         <v>0.5518256425857544</v>
@@ -75944,7 +75944,7 @@
         <v>0.6796925067901611</v>
       </c>
       <c r="N36" s="1">
-        <v>0.6811988949775696</v>
+        <v>0.6811989545822144</v>
       </c>
       <c r="O36" s="1">
         <v>0.5511467456817627</v>
@@ -75965,7 +75965,7 @@
         <v>0.6020855903625488</v>
       </c>
       <c r="U36" s="1">
-        <v>0.4493029117584229</v>
+        <v>0.4493028819561005</v>
       </c>
       <c r="V36" s="1">
         <v>0.5066069960594177</v>
@@ -75980,16 +75980,16 @@
         <v>0.4307724237442017</v>
       </c>
       <c r="Z36" s="1">
-        <v>0.4021815955638885</v>
+        <v>0.4021816253662109</v>
       </c>
       <c r="AA36" s="1">
-        <v>0.5053668022155762</v>
+        <v>0.5053669214248657</v>
       </c>
       <c r="AB36" s="1">
         <v>0.3036394715309143</v>
       </c>
       <c r="AC36" s="1">
-        <v>0.3464013934135437</v>
+        <v>0.3464014530181885</v>
       </c>
       <c r="AD36" s="1">
         <v>0.4719355702400208</v>
@@ -76487,7 +76487,7 @@
         <v>0.9999998807907104</v>
       </c>
       <c r="E42" s="1">
-        <v>0.9999997615814209</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="F42" s="1">
         <v>1.000000715255737</v>
@@ -76505,7 +76505,7 @@
         <v>0.9999995231628418</v>
       </c>
       <c r="K42" s="1">
-        <v>0.9999996423721313</v>
+        <v>0.9999997019767761</v>
       </c>
       <c r="L42" s="1">
         <v>0.9999996423721313</v>
@@ -76514,7 +76514,7 @@
         <v>0.9999998807907104</v>
       </c>
       <c r="N42" s="1">
-        <v>1.000000238418579</v>
+        <v>1.000000357627869</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
@@ -76553,13 +76553,13 @@
         <v>0.9999997615814209</v>
       </c>
       <c r="AA42" s="1">
-        <v>0.9999999403953552</v>
+        <v>1</v>
       </c>
       <c r="AB42" s="1">
         <v>0.9999998807907104</v>
       </c>
       <c r="AC42" s="1">
-        <v>0.9999999403953552</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="1">
         <v>1.000000357627869</v>
